--- a/개인작업폴더/김나연/물행성레벨.xlsx
+++ b/개인작업폴더/김나연/물행성레벨.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TeamHolyShit\개인작업폴더\김나연\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312FBA90-1286-401C-89F0-33B9DACF2F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859A84B2-7F33-428B-A9A1-D15F400B1E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{D4D8698F-685B-4DF4-86AA-347018D54407}"/>
+    <workbookView xWindow="11364" yWindow="768" windowWidth="21516" windowHeight="11436" firstSheet="4" activeTab="6" xr2:uid="{D4D8698F-685B-4DF4-86AA-347018D54407}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 정보" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="WaterPlanet1" sheetId="1" r:id="rId3"/>
     <sheet name="WaterPlanet2" sheetId="2" r:id="rId4"/>
     <sheet name="WaterPlanet3" sheetId="9" r:id="rId5"/>
-    <sheet name="WaterPlanet4" sheetId="7" r:id="rId6"/>
+    <sheet name="-" sheetId="7" r:id="rId6"/>
+    <sheet name="WaterPlanet4" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -212,10 +213,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -245,6 +242,22 @@
   </si>
   <si>
     <t>WaterPlanet3 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마개와 물의 위치는 랜덤으로 하나씩 물을 옮기고 빼내어 다음 위치로 갈 수 있는 기믹을 풀 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사다리 타기 형식 이용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +674,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,15 +852,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,30 +948,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,84 +999,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,17 +1059,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1493,13 +1518,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>197224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>197224</xdr:rowOff>
@@ -1552,13 +1577,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>161365</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>116542</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
@@ -1611,13 +1636,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>170329</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>215154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>215154</xdr:rowOff>
@@ -1670,13 +1695,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1728,13 +1753,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>107575</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>107575</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1786,13 +1811,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>107577</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>131151</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>107576</xdr:rowOff>
@@ -1810,8 +1835,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8794377" y="9316891"/>
-          <a:ext cx="3681174" cy="3483428"/>
+          <a:off x="9999722" y="9500959"/>
+          <a:ext cx="3792011" cy="3546762"/>
           <a:chOff x="1389529" y="6266329"/>
           <a:chExt cx="3729318" cy="3585883"/>
         </a:xfrm>
@@ -2236,13 +2261,13 @@
   </cols>
   <sheetData>
     <row r="10" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="126" t="s">
+      <c r="E10" s="75" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2258,45 +2283,45 @@
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C12" s="59">
+      <c r="C12" s="77">
         <v>44226</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="78">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C13" s="59"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C14" s="59"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="60"/>
+      <c r="E14" s="78"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C15" s="57">
         <v>44227</v>
       </c>
-      <c r="D15" s="125" t="s">
-        <v>52</v>
+      <c r="D15" s="74" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="58">
         <v>1.2</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2331,75 +2356,75 @@
   <sheetData>
     <row r="2" spans="3:39" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="3:39" x14ac:dyDescent="0.4">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="67"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
     </row>
     <row r="4" spans="3:39" x14ac:dyDescent="0.4">
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="69"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="84"/>
     </row>
     <row r="5" spans="3:39" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="72"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="87"/>
     </row>
     <row r="6" spans="3:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y6" s="31"/>
@@ -2607,17 +2632,17 @@
       <c r="Q17" s="32"/>
       <c r="R17" s="18"/>
       <c r="Y17" s="31"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="83"/>
       <c r="AF17" s="31"/>
       <c r="AG17" s="31"/>
       <c r="AH17" s="31"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
+      <c r="AI17" s="83"/>
+      <c r="AJ17" s="83"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31"/>
       <c r="AM17" s="31"/>
@@ -2635,17 +2660,17 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="18"/>
       <c r="Y18" s="31"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83"/>
       <c r="AF18" s="53"/>
       <c r="AG18" s="53"/>
       <c r="AH18" s="53"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
       <c r="AM18" s="31"/>
@@ -2679,17 +2704,17 @@
       <c r="AM19" s="31"/>
     </row>
     <row r="20" spans="3:39" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="63"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="62"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="88"/>
     </row>
     <row r="21" spans="3:39" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="31"/>
@@ -2697,17 +2722,17 @@
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="64"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="62"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="88"/>
     </row>
     <row r="22" spans="3:39" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="31"/>
@@ -2834,6 +2859,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AD17:AD18"/>
     <mergeCell ref="C3:W5"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AI17:AI18"/>
@@ -2850,7 +2876,6 @@
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AB17:AB18"/>
     <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AD17:AD18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2861,7 +2886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C558B52A-595D-45BE-9DB3-5D31B1E8CEA9}">
   <dimension ref="D2:AY146"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="BH30" sqref="BH30"/>
     </sheetView>
   </sheetViews>
@@ -2872,156 +2897,156 @@
   <sheetData>
     <row r="2" spans="4:51" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="74"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="92"/>
     </row>
     <row r="4" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="76"/>
-      <c r="AY4" s="77"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="95"/>
     </row>
     <row r="5" spans="4:51" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79"/>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="79"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="79"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="79"/>
-      <c r="AU5" s="79"/>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="79"/>
-      <c r="AY5" s="80"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="97"/>
+      <c r="AW5" s="97"/>
+      <c r="AX5" s="97"/>
+      <c r="AY5" s="98"/>
     </row>
     <row r="9" spans="4:51" x14ac:dyDescent="0.4">
       <c r="Q9" s="1"/>
@@ -3543,243 +3568,243 @@
   <sheetData>
     <row r="2" spans="4:80" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="4:80" x14ac:dyDescent="0.4">
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="82"/>
-      <c r="BC3" s="82"/>
-      <c r="BD3" s="82"/>
-      <c r="BE3" s="82"/>
-      <c r="BF3" s="82"/>
-      <c r="BG3" s="82"/>
-      <c r="BH3" s="82"/>
-      <c r="BI3" s="82"/>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="82"/>
-      <c r="BM3" s="82"/>
-      <c r="BN3" s="82"/>
-      <c r="BO3" s="82"/>
-      <c r="BP3" s="82"/>
-      <c r="BQ3" s="82"/>
-      <c r="BR3" s="82"/>
-      <c r="BS3" s="82"/>
-      <c r="BT3" s="82"/>
-      <c r="BU3" s="82"/>
-      <c r="BV3" s="82"/>
-      <c r="BW3" s="82"/>
-      <c r="BX3" s="82"/>
-      <c r="BY3" s="82"/>
-      <c r="BZ3" s="82"/>
-      <c r="CA3" s="82"/>
-      <c r="CB3" s="83"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="100"/>
+      <c r="AK3" s="100"/>
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="100"/>
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="100"/>
+      <c r="AT3" s="100"/>
+      <c r="AU3" s="100"/>
+      <c r="AV3" s="100"/>
+      <c r="AW3" s="100"/>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="100"/>
+      <c r="AZ3" s="100"/>
+      <c r="BA3" s="100"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="100"/>
+      <c r="BD3" s="100"/>
+      <c r="BE3" s="100"/>
+      <c r="BF3" s="100"/>
+      <c r="BG3" s="100"/>
+      <c r="BH3" s="100"/>
+      <c r="BI3" s="100"/>
+      <c r="BJ3" s="100"/>
+      <c r="BK3" s="100"/>
+      <c r="BL3" s="100"/>
+      <c r="BM3" s="100"/>
+      <c r="BN3" s="100"/>
+      <c r="BO3" s="100"/>
+      <c r="BP3" s="100"/>
+      <c r="BQ3" s="100"/>
+      <c r="BR3" s="100"/>
+      <c r="BS3" s="100"/>
+      <c r="BT3" s="100"/>
+      <c r="BU3" s="100"/>
+      <c r="BV3" s="100"/>
+      <c r="BW3" s="100"/>
+      <c r="BX3" s="100"/>
+      <c r="BY3" s="100"/>
+      <c r="BZ3" s="100"/>
+      <c r="CA3" s="100"/>
+      <c r="CB3" s="101"/>
     </row>
     <row r="4" spans="4:80" x14ac:dyDescent="0.4">
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="85"/>
-      <c r="AJ4" s="85"/>
-      <c r="AK4" s="85"/>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="85"/>
-      <c r="AR4" s="85"/>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="85"/>
-      <c r="AU4" s="85"/>
-      <c r="AV4" s="85"/>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="85"/>
-      <c r="AY4" s="85"/>
-      <c r="AZ4" s="85"/>
-      <c r="BA4" s="85"/>
-      <c r="BB4" s="85"/>
-      <c r="BC4" s="85"/>
-      <c r="BD4" s="85"/>
-      <c r="BE4" s="85"/>
-      <c r="BF4" s="85"/>
-      <c r="BG4" s="85"/>
-      <c r="BH4" s="85"/>
-      <c r="BI4" s="85"/>
-      <c r="BJ4" s="85"/>
-      <c r="BK4" s="85"/>
-      <c r="BL4" s="85"/>
-      <c r="BM4" s="85"/>
-      <c r="BN4" s="85"/>
-      <c r="BO4" s="85"/>
-      <c r="BP4" s="85"/>
-      <c r="BQ4" s="85"/>
-      <c r="BR4" s="85"/>
-      <c r="BS4" s="85"/>
-      <c r="BT4" s="85"/>
-      <c r="BU4" s="85"/>
-      <c r="BV4" s="85"/>
-      <c r="BW4" s="85"/>
-      <c r="BX4" s="85"/>
-      <c r="BY4" s="85"/>
-      <c r="BZ4" s="85"/>
-      <c r="CA4" s="85"/>
-      <c r="CB4" s="86"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="103"/>
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="103"/>
+      <c r="BG4" s="103"/>
+      <c r="BH4" s="103"/>
+      <c r="BI4" s="103"/>
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="103"/>
+      <c r="BL4" s="103"/>
+      <c r="BM4" s="103"/>
+      <c r="BN4" s="103"/>
+      <c r="BO4" s="103"/>
+      <c r="BP4" s="103"/>
+      <c r="BQ4" s="103"/>
+      <c r="BR4" s="103"/>
+      <c r="BS4" s="103"/>
+      <c r="BT4" s="103"/>
+      <c r="BU4" s="103"/>
+      <c r="BV4" s="103"/>
+      <c r="BW4" s="103"/>
+      <c r="BX4" s="103"/>
+      <c r="BY4" s="103"/>
+      <c r="BZ4" s="103"/>
+      <c r="CA4" s="103"/>
+      <c r="CB4" s="104"/>
     </row>
     <row r="5" spans="4:80" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="88"/>
-      <c r="AP5" s="88"/>
-      <c r="AQ5" s="88"/>
-      <c r="AR5" s="88"/>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="88"/>
-      <c r="AU5" s="88"/>
-      <c r="AV5" s="88"/>
-      <c r="AW5" s="88"/>
-      <c r="AX5" s="88"/>
-      <c r="AY5" s="88"/>
-      <c r="AZ5" s="88"/>
-      <c r="BA5" s="88"/>
-      <c r="BB5" s="88"/>
-      <c r="BC5" s="88"/>
-      <c r="BD5" s="88"/>
-      <c r="BE5" s="88"/>
-      <c r="BF5" s="88"/>
-      <c r="BG5" s="88"/>
-      <c r="BH5" s="88"/>
-      <c r="BI5" s="88"/>
-      <c r="BJ5" s="88"/>
-      <c r="BK5" s="88"/>
-      <c r="BL5" s="88"/>
-      <c r="BM5" s="88"/>
-      <c r="BN5" s="88"/>
-      <c r="BO5" s="88"/>
-      <c r="BP5" s="88"/>
-      <c r="BQ5" s="88"/>
-      <c r="BR5" s="88"/>
-      <c r="BS5" s="88"/>
-      <c r="BT5" s="88"/>
-      <c r="BU5" s="88"/>
-      <c r="BV5" s="88"/>
-      <c r="BW5" s="88"/>
-      <c r="BX5" s="88"/>
-      <c r="BY5" s="88"/>
-      <c r="BZ5" s="88"/>
-      <c r="CA5" s="88"/>
-      <c r="CB5" s="89"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="106"/>
+      <c r="AU5" s="106"/>
+      <c r="AV5" s="106"/>
+      <c r="AW5" s="106"/>
+      <c r="AX5" s="106"/>
+      <c r="AY5" s="106"/>
+      <c r="AZ5" s="106"/>
+      <c r="BA5" s="106"/>
+      <c r="BB5" s="106"/>
+      <c r="BC5" s="106"/>
+      <c r="BD5" s="106"/>
+      <c r="BE5" s="106"/>
+      <c r="BF5" s="106"/>
+      <c r="BG5" s="106"/>
+      <c r="BH5" s="106"/>
+      <c r="BI5" s="106"/>
+      <c r="BJ5" s="106"/>
+      <c r="BK5" s="106"/>
+      <c r="BL5" s="106"/>
+      <c r="BM5" s="106"/>
+      <c r="BN5" s="106"/>
+      <c r="BO5" s="106"/>
+      <c r="BP5" s="106"/>
+      <c r="BQ5" s="106"/>
+      <c r="BR5" s="106"/>
+      <c r="BS5" s="106"/>
+      <c r="BT5" s="106"/>
+      <c r="BU5" s="106"/>
+      <c r="BV5" s="106"/>
+      <c r="BW5" s="106"/>
+      <c r="BX5" s="106"/>
+      <c r="BY5" s="106"/>
+      <c r="BZ5" s="106"/>
+      <c r="CA5" s="106"/>
+      <c r="CB5" s="107"/>
     </row>
     <row r="8" spans="4:80" x14ac:dyDescent="0.4">
       <c r="BW8" s="14"/>
@@ -4793,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73869102-2E4D-46EA-BD81-968A0A374493}">
   <dimension ref="E2:BI185"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1"/>
+    <sheetView topLeftCell="L1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AP52" sqref="AP52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4859,179 +4884,179 @@
       <c r="BI2" s="36"/>
     </row>
     <row r="3" spans="5:61" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="92"/>
-      <c r="AK3" s="92"/>
-      <c r="AL3" s="92"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="92"/>
-      <c r="AO3" s="92"/>
-      <c r="AP3" s="92"/>
-      <c r="AQ3" s="92"/>
-      <c r="AR3" s="92"/>
-      <c r="AS3" s="92"/>
-      <c r="AT3" s="92"/>
-      <c r="AU3" s="92"/>
-      <c r="AV3" s="92"/>
-      <c r="AW3" s="92"/>
-      <c r="AX3" s="92"/>
-      <c r="AY3" s="92"/>
-      <c r="AZ3" s="92"/>
-      <c r="BA3" s="97"/>
-      <c r="BB3" s="91"/>
-      <c r="BC3" s="91"/>
-      <c r="BD3" s="91"/>
-      <c r="BE3" s="91"/>
-      <c r="BF3" s="91"/>
-      <c r="BG3" s="91"/>
-      <c r="BH3" s="91"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="108"/>
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="109"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="59"/>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="59"/>
       <c r="BI3" s="36"/>
     </row>
     <row r="4" spans="5:61" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94"/>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="94"/>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="91"/>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="111"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="111"/>
+      <c r="AE4" s="111"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="111"/>
+      <c r="AH4" s="111"/>
+      <c r="AI4" s="111"/>
+      <c r="AJ4" s="111"/>
+      <c r="AK4" s="111"/>
+      <c r="AL4" s="111"/>
+      <c r="AM4" s="111"/>
+      <c r="AN4" s="111"/>
+      <c r="AO4" s="111"/>
+      <c r="AP4" s="111"/>
+      <c r="AQ4" s="111"/>
+      <c r="AR4" s="111"/>
+      <c r="AS4" s="111"/>
+      <c r="AT4" s="111"/>
+      <c r="AU4" s="111"/>
+      <c r="AV4" s="111"/>
+      <c r="AW4" s="111"/>
+      <c r="AX4" s="111"/>
+      <c r="AY4" s="111"/>
+      <c r="AZ4" s="111"/>
+      <c r="BA4" s="112"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="59"/>
       <c r="BI4" s="36"/>
     </row>
     <row r="5" spans="5:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F5" s="95"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="96"/>
-      <c r="AF5" s="96"/>
-      <c r="AG5" s="96"/>
-      <c r="AH5" s="96"/>
-      <c r="AI5" s="96"/>
-      <c r="AJ5" s="96"/>
-      <c r="AK5" s="96"/>
-      <c r="AL5" s="96"/>
-      <c r="AM5" s="96"/>
-      <c r="AN5" s="96"/>
-      <c r="AO5" s="96"/>
-      <c r="AP5" s="96"/>
-      <c r="AQ5" s="96"/>
-      <c r="AR5" s="96"/>
-      <c r="AS5" s="96"/>
-      <c r="AT5" s="96"/>
-      <c r="AU5" s="96"/>
-      <c r="AV5" s="96"/>
-      <c r="AW5" s="96"/>
-      <c r="AX5" s="96"/>
-      <c r="AY5" s="96"/>
-      <c r="AZ5" s="96"/>
-      <c r="BA5" s="99"/>
-      <c r="BB5" s="91"/>
-      <c r="BC5" s="91"/>
-      <c r="BD5" s="91"/>
-      <c r="BE5" s="91"/>
-      <c r="BF5" s="91"/>
-      <c r="BG5" s="91"/>
-      <c r="BH5" s="91"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
+      <c r="X5" s="114"/>
+      <c r="Y5" s="114"/>
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="114"/>
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="114"/>
+      <c r="AD5" s="114"/>
+      <c r="AE5" s="114"/>
+      <c r="AF5" s="114"/>
+      <c r="AG5" s="114"/>
+      <c r="AH5" s="114"/>
+      <c r="AI5" s="114"/>
+      <c r="AJ5" s="114"/>
+      <c r="AK5" s="114"/>
+      <c r="AL5" s="114"/>
+      <c r="AM5" s="114"/>
+      <c r="AN5" s="114"/>
+      <c r="AO5" s="114"/>
+      <c r="AP5" s="114"/>
+      <c r="AQ5" s="114"/>
+      <c r="AR5" s="114"/>
+      <c r="AS5" s="114"/>
+      <c r="AT5" s="114"/>
+      <c r="AU5" s="114"/>
+      <c r="AV5" s="114"/>
+      <c r="AW5" s="114"/>
+      <c r="AX5" s="114"/>
+      <c r="AY5" s="114"/>
+      <c r="AZ5" s="114"/>
+      <c r="BA5" s="115"/>
+      <c r="BB5" s="59"/>
+      <c r="BC5" s="59"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="59"/>
+      <c r="BG5" s="59"/>
+      <c r="BH5" s="59"/>
       <c r="BI5" s="36"/>
     </row>
     <row r="6" spans="5:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7966,180 +7991,179 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA77309B-27D0-4883-852B-8E57E5025A93}">
-  <dimension ref="E2:CV79"/>
+  <dimension ref="D2:CZ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W9" sqref="D9:W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="106" width="3" customWidth="1"/>
+    <col min="1" max="110" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:70" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="7:70" x14ac:dyDescent="0.4">
-      <c r="G3" s="81" t="s">
-        <v>51</v>
+    <row r="2" spans="4:74" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="4:74" x14ac:dyDescent="0.4">
+      <c r="K3" s="99" t="s">
+        <v>50</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="116"/>
-      <c r="AL3" s="116"/>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="116"/>
-      <c r="AT3" s="117"/>
-    </row>
-    <row r="4" spans="7:70" x14ac:dyDescent="0.4">
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="119"/>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="119"/>
-      <c r="AS4" s="119"/>
-      <c r="AT4" s="120"/>
-    </row>
-    <row r="5" spans="7:70" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="121"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="122"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="122"/>
-      <c r="AL5" s="122"/>
-      <c r="AM5" s="122"/>
-      <c r="AN5" s="122"/>
-      <c r="AO5" s="122"/>
-      <c r="AP5" s="122"/>
-      <c r="AQ5" s="122"/>
-      <c r="AR5" s="122"/>
-      <c r="AS5" s="122"/>
-      <c r="AT5" s="123"/>
-    </row>
-    <row r="9" spans="7:70" x14ac:dyDescent="0.4">
-      <c r="O9" s="113" t="s">
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="120"/>
+      <c r="AK3" s="120"/>
+      <c r="AL3" s="120"/>
+      <c r="AM3" s="120"/>
+      <c r="AN3" s="120"/>
+      <c r="AO3" s="120"/>
+      <c r="AP3" s="120"/>
+      <c r="AQ3" s="120"/>
+      <c r="AR3" s="120"/>
+      <c r="AS3" s="120"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="121"/>
+    </row>
+    <row r="4" spans="4:74" x14ac:dyDescent="0.4">
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123"/>
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123"/>
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
+      <c r="AX4" s="124"/>
+    </row>
+    <row r="5" spans="4:74" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K5" s="125"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="126"/>
+      <c r="AF5" s="126"/>
+      <c r="AG5" s="126"/>
+      <c r="AH5" s="126"/>
+      <c r="AI5" s="126"/>
+      <c r="AJ5" s="126"/>
+      <c r="AK5" s="126"/>
+      <c r="AL5" s="126"/>
+      <c r="AM5" s="126"/>
+      <c r="AN5" s="126"/>
+      <c r="AO5" s="126"/>
+      <c r="AP5" s="126"/>
+      <c r="AQ5" s="126"/>
+      <c r="AR5" s="126"/>
+      <c r="AS5" s="126"/>
+      <c r="AT5" s="126"/>
+      <c r="AU5" s="126"/>
+      <c r="AV5" s="126"/>
+      <c r="AW5" s="126"/>
+      <c r="AX5" s="127"/>
+    </row>
+    <row r="9" spans="4:74" x14ac:dyDescent="0.4">
+      <c r="S9" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="113"/>
-      <c r="V9" s="113" t="s">
+      <c r="T9" s="118"/>
+      <c r="Z9" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="W9" s="113"/>
-      <c r="AE9" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF9" s="113"/>
-      <c r="AJ9" s="113" t="s">
+      <c r="AA9" s="118"/>
+      <c r="AI9" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="AK9" s="113"/>
-    </row>
-    <row r="10" spans="7:70" x14ac:dyDescent="0.4">
-      <c r="M10" s="7"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-    </row>
-    <row r="11" spans="7:70" x14ac:dyDescent="0.4">
+      <c r="AJ9" s="118"/>
+    </row>
+    <row r="10" spans="4:74" x14ac:dyDescent="0.4">
+      <c r="Q10" s="7"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="118"/>
+    </row>
+    <row r="11" spans="4:74" x14ac:dyDescent="0.4">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -8150,15 +8174,15 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9" t="s">
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
+      <c r="AF11" s="9"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
@@ -8168,20 +8192,29 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
-    </row>
-    <row r="12" spans="7:70" x14ac:dyDescent="0.4">
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+    </row>
+    <row r="12" spans="4:74" x14ac:dyDescent="0.4">
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
@@ -8196,31 +8229,36 @@
       <c r="AJ12" s="37"/>
       <c r="AK12" s="37"/>
       <c r="AL12" s="37"/>
-      <c r="AM12" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN12" s="114"/>
-      <c r="AO12" s="1"/>
-    </row>
-    <row r="13" spans="7:70" x14ac:dyDescent="0.4">
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AS12" s="1"/>
+    </row>
+    <row r="13" spans="4:74" x14ac:dyDescent="0.4">
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
       <c r="Y13" s="37"/>
       <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
       <c r="AB13" s="37"/>
       <c r="AC13" s="37"/>
       <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
       <c r="AF13" s="37"/>
       <c r="AG13" s="37"/>
       <c r="AH13" s="37"/>
@@ -8228,13 +8266,11 @@
       <c r="AJ13" s="37"/>
       <c r="AK13" s="37"/>
       <c r="AL13" s="37"/>
-      <c r="AM13" s="114"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="1"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="37"/>
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="37"/>
+      <c r="AS13" s="1"/>
       <c r="AU13" s="9"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
@@ -8259,103 +8295,121 @@
       <c r="BP13" s="9"/>
       <c r="BQ13" s="9"/>
       <c r="BR13" s="9"/>
-    </row>
-    <row r="14" spans="7:70" x14ac:dyDescent="0.4">
+      <c r="BS13" s="9"/>
+      <c r="BT13" s="9"/>
+      <c r="BU13" s="9"/>
+      <c r="BV13" s="9"/>
+    </row>
+    <row r="14" spans="4:74" x14ac:dyDescent="0.4">
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
-      <c r="S14" s="33"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
       <c r="U14" s="37"/>
       <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
+      <c r="W14" s="33"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="37"/>
-      <c r="AA14" s="33"/>
+      <c r="AA14" s="37"/>
       <c r="AB14" s="37"/>
       <c r="AC14" s="37"/>
       <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
+      <c r="AE14" s="33"/>
       <c r="AF14" s="37"/>
       <c r="AG14" s="37"/>
-      <c r="AH14" s="33"/>
+      <c r="AH14" s="37"/>
       <c r="AI14" s="37"/>
       <c r="AJ14" s="37"/>
       <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="100"/>
-      <c r="AN14" s="100"/>
-      <c r="AO14" s="1"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="14"/>
-      <c r="AU14" t="s">
+      <c r="AL14" s="33"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="60"/>
+      <c r="AS14" s="1"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="14"/>
+      <c r="AY14" t="s">
         <v>8</v>
       </c>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="9"/>
       <c r="BC14" s="9"/>
       <c r="BD14" s="9"/>
       <c r="BE14" s="9"/>
       <c r="BF14" s="9"/>
       <c r="BG14" s="9"/>
-      <c r="BH14" s="102"/>
+      <c r="BH14" s="9"/>
       <c r="BI14" s="9"/>
       <c r="BJ14" s="9"/>
       <c r="BK14" s="9"/>
-      <c r="BL14" s="9"/>
+      <c r="BL14" s="62"/>
       <c r="BM14" s="9"/>
       <c r="BN14" s="9"/>
       <c r="BO14" s="9"/>
       <c r="BP14" s="9"/>
       <c r="BQ14" s="9"/>
       <c r="BR14" s="9"/>
-    </row>
-    <row r="15" spans="7:70" x14ac:dyDescent="0.4">
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+    </row>
+    <row r="15" spans="4:74" x14ac:dyDescent="0.4">
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="33"/>
       <c r="AF15" s="37"/>
       <c r="AG15" s="37"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="90">
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="116">
         <v>2</v>
       </c>
-      <c r="AL15" s="90"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="1"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="9"/>
-      <c r="BA15" s="9"/>
-      <c r="BB15" s="9"/>
+      <c r="AP15" s="116"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="1"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
       <c r="BC15" s="9"/>
       <c r="BD15" s="9"/>
       <c r="BE15" s="9"/>
@@ -8372,48 +8426,57 @@
       <c r="BP15" s="9"/>
       <c r="BQ15" s="9"/>
       <c r="BR15" s="9"/>
-    </row>
-    <row r="16" spans="7:70" x14ac:dyDescent="0.4">
+      <c r="BS15" s="9"/>
+      <c r="BT15" s="9"/>
+      <c r="BU15" s="9"/>
+      <c r="BV15" s="9"/>
+    </row>
+    <row r="16" spans="4:74" x14ac:dyDescent="0.4">
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="33"/>
       <c r="AF16" s="37"/>
       <c r="AG16" s="37"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="90"/>
-      <c r="AL16" s="90"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="1"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="3"/>
-      <c r="AU16" t="s">
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="116"/>
+      <c r="AP16" s="116"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="1"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="3"/>
+      <c r="AY16" t="s">
         <v>9</v>
       </c>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="9"/>
-      <c r="BA16" s="9"/>
-      <c r="BB16" s="9"/>
       <c r="BC16" s="9"/>
       <c r="BD16" s="9"/>
       <c r="BE16" s="9"/>
@@ -8430,44 +8493,53 @@
       <c r="BP16" s="9"/>
       <c r="BQ16" s="9"/>
       <c r="BR16" s="9"/>
-    </row>
-    <row r="17" spans="5:100" x14ac:dyDescent="0.4">
+      <c r="BS16" s="9"/>
+      <c r="BT16" s="9"/>
+      <c r="BU16" s="9"/>
+      <c r="BV16" s="9"/>
+    </row>
+    <row r="17" spans="4:104" x14ac:dyDescent="0.4">
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="109"/>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="33"/>
       <c r="AF17" s="37"/>
       <c r="AG17" s="37"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="33"/>
       <c r="AM17" s="34"/>
       <c r="AN17" s="34"/>
-      <c r="AO17" s="1"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="9"/>
-      <c r="BA17" s="9"/>
-      <c r="BB17" s="9"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="1"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
       <c r="BC17" s="9"/>
       <c r="BD17" s="9"/>
       <c r="BE17" s="9"/>
@@ -8484,48 +8556,60 @@
       <c r="BP17" s="9"/>
       <c r="BQ17" s="9"/>
       <c r="BR17" s="9"/>
-    </row>
-    <row r="18" spans="5:100" x14ac:dyDescent="0.4">
+      <c r="BS17" s="9"/>
+      <c r="BT17" s="9"/>
+      <c r="BU17" s="9"/>
+      <c r="BV17" s="9"/>
+    </row>
+    <row r="18" spans="4:104" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="33"/>
       <c r="AF18" s="37"/>
       <c r="AG18" s="37"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="33"/>
       <c r="AM18" s="34"/>
       <c r="AN18" s="34"/>
-      <c r="AO18" s="1"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="7"/>
-      <c r="AU18" t="s">
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="1"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="7"/>
+      <c r="AY18" t="s">
         <v>3</v>
       </c>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="9"/>
-      <c r="BA18" s="9"/>
-      <c r="BB18" s="9"/>
       <c r="BC18" s="9"/>
       <c r="BD18" s="9"/>
       <c r="BE18" s="9"/>
@@ -8542,44 +8626,57 @@
       <c r="BP18" s="9"/>
       <c r="BQ18" s="9"/>
       <c r="BR18" s="9"/>
-    </row>
-    <row r="19" spans="5:100" x14ac:dyDescent="0.4">
+      <c r="BS18" s="9"/>
+      <c r="BT18" s="9"/>
+      <c r="BU18" s="9"/>
+      <c r="BV18" s="9"/>
+    </row>
+    <row r="19" spans="4:104" x14ac:dyDescent="0.4">
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="100"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="100"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="129"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="33"/>
       <c r="AF19" s="37"/>
       <c r="AG19" s="37"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="1"/>
-      <c r="AQ19" s="9"/>
-      <c r="AR19" s="9"/>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="9"/>
-      <c r="BA19" s="9"/>
-      <c r="BB19" s="9"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="34"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="1"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
       <c r="BC19" s="9"/>
       <c r="BD19" s="9"/>
       <c r="BE19" s="9"/>
@@ -8596,50 +8693,61 @@
       <c r="BP19" s="9"/>
       <c r="BQ19" s="9"/>
       <c r="BR19" s="9"/>
-    </row>
-    <row r="20" spans="5:100" x14ac:dyDescent="0.4">
+      <c r="BS19" s="9"/>
+      <c r="BT19" s="9"/>
+      <c r="BU19" s="9"/>
+      <c r="BV19" s="9"/>
+    </row>
+    <row r="20" spans="4:104" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="111" t="s">
+      <c r="M20" s="1"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="131"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="33"/>
       <c r="AF20" s="37"/>
       <c r="AG20" s="37"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="33"/>
       <c r="AM20" s="34"/>
       <c r="AN20" s="34"/>
-      <c r="AO20" s="1"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="5"/>
-      <c r="AU20" t="s">
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="1"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="5"/>
+      <c r="AY20" t="s">
         <v>7</v>
       </c>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="9"/>
-      <c r="BA20" s="9"/>
-      <c r="BB20" s="9"/>
       <c r="BC20" s="9"/>
       <c r="BD20" s="9"/>
       <c r="BE20" s="9"/>
@@ -8656,47 +8764,55 @@
       <c r="BP20" s="9"/>
       <c r="BQ20" s="9"/>
       <c r="BR20" s="9"/>
-      <c r="CV20" s="1"/>
-    </row>
-    <row r="21" spans="5:100" x14ac:dyDescent="0.4">
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="BS20" s="9"/>
+      <c r="BT20" s="9"/>
+      <c r="BU20" s="9"/>
+      <c r="BV20" s="9"/>
+      <c r="CZ20" s="1"/>
+    </row>
+    <row r="21" spans="4:104" x14ac:dyDescent="0.4">
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="37"/>
       <c r="AG21" s="37"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
+      <c r="AH21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="33"/>
       <c r="AM21" s="34"/>
       <c r="AN21" s="34"/>
-      <c r="AO21" s="1"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="9"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="9"/>
+      <c r="AO21" s="34"/>
+      <c r="AP21" s="34"/>
+      <c r="AQ21" s="34"/>
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="1"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
       <c r="BC21" s="9"/>
       <c r="BD21" s="9"/>
       <c r="BE21" s="9"/>
@@ -8713,50 +8829,55 @@
       <c r="BP21" s="9"/>
       <c r="BQ21" s="9"/>
       <c r="BR21" s="9"/>
-    </row>
-    <row r="22" spans="5:100" x14ac:dyDescent="0.4">
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="9"/>
+      <c r="BU21" s="9"/>
+      <c r="BV21" s="9"/>
+    </row>
+    <row r="22" spans="4:104" x14ac:dyDescent="0.4">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="101"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="37"/>
       <c r="AG22" s="37"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="34"/>
+      <c r="AH22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="33"/>
       <c r="AM22" s="34"/>
       <c r="AN22" s="34"/>
-      <c r="AO22" s="1"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="4"/>
-      <c r="AU22" t="s">
+      <c r="AO22" s="34"/>
+      <c r="AP22" s="34"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="34"/>
+      <c r="AS22" s="1"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="4"/>
+      <c r="AY22" t="s">
         <v>4</v>
       </c>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
       <c r="BC22" s="9"/>
       <c r="BD22" s="9"/>
       <c r="BE22" s="9"/>
@@ -8773,48 +8894,46 @@
       <c r="BP22" s="9"/>
       <c r="BQ22" s="9"/>
       <c r="BR22" s="9"/>
-    </row>
-    <row r="23" spans="5:100" x14ac:dyDescent="0.4">
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="111" t="s">
-        <v>46</v>
+      <c r="BS22" s="9"/>
+      <c r="BT22" s="9"/>
+      <c r="BU22" s="9"/>
+      <c r="BV22" s="9"/>
+    </row>
+    <row r="23" spans="4:104" x14ac:dyDescent="0.4">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="69" t="s">
+        <v>45</v>
       </c>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="33"/>
       <c r="AF23" s="37"/>
       <c r="AG23" s="37"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="33"/>
       <c r="AM23" s="34"/>
       <c r="AN23" s="34"/>
-      <c r="AO23" s="1"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
-      <c r="BA23" s="9"/>
-      <c r="BB23" s="9"/>
+      <c r="AO23" s="34"/>
+      <c r="AP23" s="34"/>
+      <c r="AQ23" s="34"/>
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="1"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
       <c r="BC23" s="9"/>
       <c r="BD23" s="9"/>
       <c r="BE23" s="9"/>
@@ -8831,50 +8950,52 @@
       <c r="BP23" s="9"/>
       <c r="BQ23" s="9"/>
       <c r="BR23" s="9"/>
-    </row>
-    <row r="24" spans="5:100" x14ac:dyDescent="0.4">
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="BS23" s="9"/>
+      <c r="BT23" s="9"/>
+      <c r="BU23" s="9"/>
+      <c r="BV23" s="9"/>
+    </row>
+    <row r="24" spans="4:104" x14ac:dyDescent="0.4">
       <c r="L24" s="1"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="33"/>
       <c r="AF24" s="37"/>
       <c r="AG24" s="37"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="34"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="33"/>
       <c r="AM24" s="34"/>
       <c r="AN24" s="34"/>
-      <c r="AO24" s="1"/>
-      <c r="AQ24" s="9"/>
-      <c r="AR24" s="9"/>
+      <c r="AO24" s="34"/>
+      <c r="AP24" s="34"/>
+      <c r="AQ24" s="34"/>
+      <c r="AR24" s="34"/>
       <c r="AS24" s="1"/>
-      <c r="AU24" t="s">
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="1"/>
+      <c r="AY24" t="s">
         <v>5</v>
       </c>
-      <c r="AY24" s="9"/>
-      <c r="AZ24" s="9"/>
-      <c r="BA24" s="9"/>
-      <c r="BB24" s="9"/>
       <c r="BC24" s="9"/>
       <c r="BD24" s="9"/>
       <c r="BE24" s="9"/>
@@ -8891,45 +9012,47 @@
       <c r="BP24" s="9"/>
       <c r="BQ24" s="9"/>
       <c r="BR24" s="9"/>
-    </row>
-    <row r="25" spans="5:100" x14ac:dyDescent="0.4">
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="BS24" s="9"/>
+      <c r="BT24" s="9"/>
+      <c r="BU24" s="9"/>
+      <c r="BV24" s="9"/>
+    </row>
+    <row r="25" spans="4:104" x14ac:dyDescent="0.4">
       <c r="L25" s="1"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="33"/>
-      <c r="AC25" s="90">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="33"/>
+      <c r="AG25" s="116">
         <v>3</v>
       </c>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="37"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
+      <c r="AH25" s="116"/>
+      <c r="AI25" s="37"/>
+      <c r="AL25" s="33"/>
       <c r="AM25" s="34"/>
       <c r="AN25" s="34"/>
-      <c r="AO25" s="1"/>
-      <c r="AQ25" s="9"/>
-      <c r="AR25" s="9"/>
-      <c r="AY25" s="9"/>
-      <c r="AZ25" s="9"/>
-      <c r="BA25" s="9"/>
-      <c r="BB25" s="9"/>
+      <c r="AO25" s="34"/>
+      <c r="AP25" s="34"/>
+      <c r="AQ25" s="34"/>
+      <c r="AR25" s="34"/>
+      <c r="AS25" s="1"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
       <c r="BC25" s="9"/>
       <c r="BD25" s="9"/>
       <c r="BE25" s="9"/>
@@ -8946,43 +9069,43 @@
       <c r="BP25" s="9"/>
       <c r="BQ25" s="9"/>
       <c r="BR25" s="9"/>
-    </row>
-    <row r="26" spans="5:100" x14ac:dyDescent="0.4">
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="BS25" s="9"/>
+      <c r="BT25" s="9"/>
+      <c r="BU25" s="9"/>
+      <c r="BV25" s="9"/>
+    </row>
+    <row r="26" spans="4:104" x14ac:dyDescent="0.4">
       <c r="L26" s="1"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="109"/>
-      <c r="Z26" s="109"/>
-      <c r="AA26" s="33"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="37"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="34"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="33"/>
-      <c r="AO26" s="1"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="9"/>
+      <c r="M26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="33"/>
+      <c r="AG26" s="116"/>
+      <c r="AH26" s="116"/>
+      <c r="AI26" s="37"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="33"/>
+      <c r="AR26" s="33"/>
+      <c r="AS26" s="1"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9"/>
       <c r="BC26" s="9"/>
       <c r="BD26" s="9"/>
       <c r="BE26" s="9"/>
@@ -8999,52 +9122,52 @@
       <c r="BP26" s="9"/>
       <c r="BQ26" s="9"/>
       <c r="BR26" s="9"/>
-    </row>
-    <row r="27" spans="5:100" x14ac:dyDescent="0.4">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="BS26" s="9"/>
+      <c r="BT26" s="9"/>
+      <c r="BU26" s="9"/>
+      <c r="BV26" s="9"/>
+    </row>
+    <row r="27" spans="4:104" x14ac:dyDescent="0.4">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="90">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="116">
         <v>1</v>
       </c>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="67"/>
+      <c r="AD27" s="67"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="33"/>
       <c r="AH27" s="33"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="111" t="s">
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="33"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="AM27" s="34"/>
-      <c r="AN27" s="34"/>
-      <c r="AO27" s="1"/>
-      <c r="AQ27" s="9"/>
-      <c r="AR27" s="9"/>
-      <c r="AS27" s="9"/>
-      <c r="AT27" s="9"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="1"/>
       <c r="AU27" s="9"/>
       <c r="AV27" s="9"/>
       <c r="AW27" s="9"/>
@@ -9069,48 +9192,47 @@
       <c r="BP27" s="9"/>
       <c r="BQ27" s="9"/>
       <c r="BR27" s="9"/>
-    </row>
-    <row r="28" spans="5:100" x14ac:dyDescent="0.4">
-      <c r="E28" s="1"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="33"/>
+      <c r="BS27" s="9"/>
+      <c r="BT27" s="9"/>
+      <c r="BU27" s="9"/>
+      <c r="BV27" s="9"/>
+    </row>
+    <row r="28" spans="4:104" x14ac:dyDescent="0.4">
+      <c r="I28" s="1"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="33"/>
       <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
       <c r="AH28" s="33"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
+      <c r="AJ28" s="37"/>
+      <c r="AL28" s="33"/>
       <c r="AM28" s="34"/>
       <c r="AN28" s="34"/>
-      <c r="AO28" s="1"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="9"/>
-      <c r="AT28" s="9"/>
-      <c r="AU28" s="9"/>
-      <c r="AV28" s="9"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="1"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="37"/>
       <c r="AW28" s="9"/>
       <c r="AX28" s="9"/>
       <c r="AY28" s="9"/>
@@ -9133,52 +9255,50 @@
       <c r="BP28" s="9"/>
       <c r="BQ28" s="9"/>
       <c r="BR28" s="9"/>
-    </row>
-    <row r="29" spans="5:100" x14ac:dyDescent="0.4">
-      <c r="E29" s="1"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="108">
+      <c r="BS28" s="9"/>
+      <c r="BT28" s="9"/>
+      <c r="BU28" s="9"/>
+      <c r="BV28" s="9"/>
+    </row>
+    <row r="29" spans="4:104" x14ac:dyDescent="0.4">
+      <c r="I29" s="1"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="117">
         <v>1</v>
       </c>
-      <c r="U29" s="108"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="33"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="33"/>
       <c r="AF29" s="37"/>
       <c r="AG29" s="37"/>
       <c r="AH29" s="33"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="34"/>
-      <c r="AL29" s="34"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="33"/>
       <c r="AM29" s="34"/>
       <c r="AN29" s="34"/>
-      <c r="AO29" s="1"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="9"/>
-      <c r="AT29" s="9"/>
-      <c r="AU29" s="9"/>
-      <c r="AV29" s="9"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="34"/>
+      <c r="AQ29" s="34"/>
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="1"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
       <c r="AW29" s="9"/>
       <c r="AX29" s="9"/>
       <c r="AY29" s="9"/>
@@ -9201,57 +9321,57 @@
       <c r="BP29" s="9"/>
       <c r="BQ29" s="9"/>
       <c r="BR29" s="9"/>
-    </row>
-    <row r="30" spans="5:100" ht="21" x14ac:dyDescent="0.4">
-      <c r="E30" s="1"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="108"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="33"/>
+      <c r="BS29" s="9"/>
+      <c r="BT29" s="9"/>
+      <c r="BU29" s="9"/>
+      <c r="BV29" s="9"/>
+    </row>
+    <row r="30" spans="4:104" ht="21" x14ac:dyDescent="0.4">
+      <c r="I30" s="1"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="61"/>
+      <c r="AE30" s="33"/>
       <c r="AF30" s="37"/>
       <c r="AG30" s="37"/>
       <c r="AH30" s="33"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="34"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="33"/>
       <c r="AM30" s="34"/>
       <c r="AN30" s="34"/>
-      <c r="AO30" s="1"/>
-      <c r="AQ30" s="37"/>
-      <c r="AR30" s="37"/>
-      <c r="AS30" s="9"/>
-      <c r="AT30" s="9"/>
-      <c r="AU30" s="9"/>
-      <c r="AV30" s="9"/>
-      <c r="AW30" s="39" t="s">
-        <v>25</v>
-      </c>
+      <c r="AO30" s="34"/>
+      <c r="AP30" s="34"/>
+      <c r="AQ30" s="34"/>
+      <c r="AR30" s="34"/>
+      <c r="AS30" s="1"/>
+      <c r="AU30" s="37"/>
+      <c r="AV30" s="37"/>
+      <c r="AW30" s="9"/>
       <c r="AX30" s="9"/>
       <c r="AY30" s="9"/>
       <c r="AZ30" s="9"/>
-      <c r="BA30" s="9"/>
+      <c r="BA30" s="39" t="s">
+        <v>25</v>
+      </c>
       <c r="BB30" s="9"/>
       <c r="BC30" s="9"/>
       <c r="BD30" s="9"/>
@@ -9269,65 +9389,65 @@
       <c r="BP30" s="9"/>
       <c r="BQ30" s="9"/>
       <c r="BR30" s="9"/>
-    </row>
-    <row r="31" spans="5:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E31" s="1"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="33"/>
+      <c r="BS30" s="9"/>
+      <c r="BT30" s="9"/>
+      <c r="BU30" s="9"/>
+      <c r="BV30" s="9"/>
+    </row>
+    <row r="31" spans="4:104" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I31" s="1"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="33"/>
       <c r="AF31" s="37"/>
       <c r="AG31" s="37"/>
       <c r="AH31" s="33"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="33"/>
       <c r="AM31" s="34"/>
       <c r="AN31" s="34"/>
-      <c r="AO31" s="1"/>
-      <c r="AQ31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AS31" s="9"/>
-      <c r="AT31" s="9"/>
-      <c r="AU31" s="9"/>
-      <c r="AV31" s="9"/>
-      <c r="AW31" s="9" t="s">
+      <c r="AO31" s="34"/>
+      <c r="AP31" s="34"/>
+      <c r="AQ31" s="34"/>
+      <c r="AR31" s="34"/>
+      <c r="AS31" s="1"/>
+      <c r="AU31" s="37"/>
+      <c r="AV31" s="37"/>
+      <c r="AW31" s="9"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AX31" s="9"/>
-      <c r="AY31" s="9"/>
-      <c r="BA31" s="39"/>
-      <c r="BB31" s="39"/>
-      <c r="BC31" s="39"/>
-      <c r="BD31" s="39"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="9"/>
       <c r="BE31" s="39"/>
       <c r="BF31" s="39"/>
+      <c r="BG31" s="39"/>
       <c r="BH31" s="39"/>
       <c r="BI31" s="39"/>
       <c r="BJ31" s="39"/>
-      <c r="BK31" s="39"/>
       <c r="BL31" s="39"/>
       <c r="BM31" s="39"/>
       <c r="BN31" s="39"/>
@@ -9337,76 +9457,76 @@
       <c r="BR31" s="39"/>
       <c r="BS31" s="39"/>
       <c r="BT31" s="39"/>
-      <c r="BU31" s="40"/>
-      <c r="BV31" s="40"/>
-      <c r="BW31" s="40"/>
-      <c r="BX31" s="40"/>
+      <c r="BU31" s="39"/>
+      <c r="BV31" s="39"/>
+      <c r="BW31" s="39"/>
+      <c r="BX31" s="39"/>
       <c r="BY31" s="40"/>
       <c r="BZ31" s="40"/>
       <c r="CA31" s="40"/>
       <c r="CB31" s="40"/>
       <c r="CC31" s="40"/>
       <c r="CD31" s="40"/>
-    </row>
-    <row r="32" spans="5:100" x14ac:dyDescent="0.4">
-      <c r="E32" s="1"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="33"/>
+      <c r="CE31" s="40"/>
+      <c r="CF31" s="40"/>
+      <c r="CG31" s="40"/>
+      <c r="CH31" s="40"/>
+    </row>
+    <row r="32" spans="4:104" x14ac:dyDescent="0.4">
+      <c r="I32" s="1"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="33"/>
       <c r="AF32" s="37"/>
       <c r="AG32" s="37"/>
       <c r="AH32" s="33"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="34"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="33"/>
       <c r="AM32" s="34"/>
       <c r="AN32" s="34"/>
-      <c r="AO32" s="1"/>
-      <c r="AQ32" s="37"/>
-      <c r="AR32" s="37"/>
-      <c r="AS32" s="9"/>
-      <c r="AT32" s="9"/>
-      <c r="AU32" s="9"/>
-      <c r="AV32" s="9"/>
-      <c r="AW32" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="34"/>
+      <c r="AQ32" s="34"/>
+      <c r="AR32" s="34"/>
+      <c r="AS32" s="1"/>
+      <c r="AU32" s="37"/>
+      <c r="AV32" s="37"/>
+      <c r="AW32" s="9"/>
       <c r="AX32" s="9"/>
       <c r="AY32" s="9"/>
       <c r="AZ32" s="9"/>
-      <c r="BA32" s="9"/>
+      <c r="BA32" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="BB32" s="9"/>
       <c r="BC32" s="9"/>
       <c r="BD32" s="9"/>
       <c r="BE32" s="9"/>
       <c r="BF32" s="9"/>
+      <c r="BG32" s="9"/>
       <c r="BH32" s="9"/>
       <c r="BI32" s="9"/>
       <c r="BJ32" s="9"/>
-      <c r="BK32" s="9"/>
       <c r="BL32" s="9"/>
       <c r="BM32" s="9"/>
       <c r="BN32" s="9"/>
@@ -9414,63 +9534,63 @@
       <c r="BP32" s="9"/>
       <c r="BQ32" s="9"/>
       <c r="BR32" s="9"/>
-    </row>
-    <row r="33" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="E33" s="1"/>
-      <c r="F33" s="104"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="90">
+      <c r="BS32" s="9"/>
+      <c r="BT32" s="9"/>
+      <c r="BU32" s="9"/>
+      <c r="BV32" s="9"/>
+    </row>
+    <row r="33" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="I33" s="1"/>
+      <c r="J33" s="64"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="116">
         <v>1</v>
       </c>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="90"/>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="33"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="116"/>
+      <c r="AB33" s="116"/>
+      <c r="AC33" s="116"/>
+      <c r="AD33" s="116"/>
+      <c r="AE33" s="1"/>
       <c r="AF33" s="37"/>
       <c r="AG33" s="37"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
-      <c r="AK33" s="34"/>
-      <c r="AL33" s="34"/>
+      <c r="AH33" s="33"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="1"/>
       <c r="AM33" s="34"/>
       <c r="AN33" s="34"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
+      <c r="AO33" s="34"/>
+      <c r="AP33" s="34"/>
+      <c r="AQ33" s="34"/>
+      <c r="AR33" s="34"/>
       <c r="AS33" s="1"/>
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
-      <c r="AV33" s="9"/>
-      <c r="AW33" s="9"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="9"/>
       <c r="BA33" s="9"/>
-      <c r="BB33" s="9"/>
-      <c r="BC33" s="9"/>
-      <c r="BD33" s="9"/>
       <c r="BE33" s="9"/>
       <c r="BF33" s="9"/>
+      <c r="BG33" s="9"/>
       <c r="BH33" s="9"/>
       <c r="BI33" s="9"/>
       <c r="BJ33" s="9"/>
-      <c r="BK33" s="9"/>
       <c r="BL33" s="9"/>
       <c r="BM33" s="9"/>
       <c r="BN33" s="9"/>
@@ -9478,53 +9598,53 @@
       <c r="BP33" s="9"/>
       <c r="BQ33" s="9"/>
       <c r="BR33" s="9"/>
-    </row>
-    <row r="34" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="E34" s="1"/>
-      <c r="F34" s="104"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="115"/>
-      <c r="O34" s="115"/>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="115"/>
-      <c r="R34" s="115"/>
-      <c r="S34" s="115"/>
-      <c r="T34" s="115"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="115"/>
-      <c r="W34" s="115"/>
-      <c r="X34" s="115"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="33"/>
+      <c r="BS33" s="9"/>
+      <c r="BT33" s="9"/>
+      <c r="BU33" s="9"/>
+      <c r="BV33" s="9"/>
+    </row>
+    <row r="34" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="I34" s="1"/>
+      <c r="J34" s="64"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
       <c r="AF34" s="37"/>
       <c r="AG34" s="37"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34"/>
+      <c r="AH34" s="33"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="1"/>
       <c r="AM34" s="34"/>
       <c r="AN34" s="34"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="34"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
-      <c r="AV34" s="9"/>
-      <c r="AW34" s="9"/>
-      <c r="AX34" s="9"/>
-      <c r="AY34" s="9"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
       <c r="AZ34" s="9"/>
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
@@ -9544,53 +9664,53 @@
       <c r="BP34" s="9"/>
       <c r="BQ34" s="9"/>
       <c r="BR34" s="9"/>
-    </row>
-    <row r="35" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="E35" s="1"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="110" t="s">
+      <c r="BS34" s="9"/>
+      <c r="BT34" s="9"/>
+      <c r="BU34" s="9"/>
+      <c r="BV34" s="9"/>
+    </row>
+    <row r="35" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="I35" s="1"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="33"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="124"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="AA35" s="33"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="33"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="37"/>
       <c r="AB35" s="37"/>
       <c r="AC35" s="37"/>
-      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
       <c r="AF35" s="37"/>
       <c r="AG35" s="37"/>
       <c r="AH35" s="33"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="34"/>
-      <c r="AL35" s="34"/>
+      <c r="AJ35" s="37"/>
+      <c r="AK35" s="37"/>
+      <c r="AL35" s="33"/>
       <c r="AM35" s="34"/>
       <c r="AN35" s="34"/>
-      <c r="AO35" s="1"/>
-      <c r="AQ35" s="9"/>
-      <c r="AR35" s="9"/>
-      <c r="AS35" s="9"/>
-      <c r="AT35" s="1"/>
-      <c r="AU35" s="1"/>
+      <c r="AO35" s="34"/>
+      <c r="AP35" s="34"/>
+      <c r="AQ35" s="34"/>
+      <c r="AR35" s="34"/>
+      <c r="AS35" s="1"/>
+      <c r="AU35" s="9"/>
       <c r="AV35" s="9"/>
       <c r="AW35" s="9"/>
-      <c r="AX35" s="9"/>
-      <c r="AY35" s="9"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
       <c r="AZ35" s="9"/>
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
@@ -9610,51 +9730,51 @@
       <c r="BP35" s="9"/>
       <c r="BQ35" s="9"/>
       <c r="BR35" s="9"/>
-    </row>
-    <row r="36" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="E36" s="1"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="104"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="104"/>
-      <c r="S36" s="33"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="124"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="AA36" s="33"/>
+      <c r="BS35" s="9"/>
+      <c r="BT35" s="9"/>
+      <c r="BU35" s="9"/>
+      <c r="BV35" s="9"/>
+    </row>
+    <row r="36" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="I36" s="1"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="33"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="37"/>
       <c r="AB36" s="37"/>
       <c r="AC36" s="37"/>
-      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
       <c r="AF36" s="37"/>
       <c r="AG36" s="37"/>
       <c r="AH36" s="33"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="34"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="33"/>
       <c r="AM36" s="34"/>
       <c r="AN36" s="34"/>
-      <c r="AO36" s="1"/>
-      <c r="AQ36" s="9"/>
-      <c r="AR36" s="9"/>
-      <c r="AS36" s="9"/>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
+      <c r="AO36" s="34"/>
+      <c r="AP36" s="34"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="34"/>
+      <c r="AS36" s="1"/>
+      <c r="AU36" s="9"/>
       <c r="AV36" s="9"/>
       <c r="AW36" s="9"/>
-      <c r="AX36" s="9"/>
-      <c r="AY36" s="9"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
       <c r="AZ36" s="9"/>
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
@@ -9674,51 +9794,51 @@
       <c r="BP36" s="9"/>
       <c r="BQ36" s="9"/>
       <c r="BR36" s="9"/>
-    </row>
-    <row r="37" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="E37" s="1"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
-      <c r="O37" s="115"/>
-      <c r="P37" s="115"/>
-      <c r="Q37" s="115"/>
-      <c r="R37" s="115"/>
-      <c r="S37" s="33"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="124"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="33"/>
+      <c r="BS36" s="9"/>
+      <c r="BT36" s="9"/>
+      <c r="BU36" s="9"/>
+      <c r="BV36" s="9"/>
+    </row>
+    <row r="37" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="I37" s="1"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="33"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="73"/>
       <c r="AB37" s="37"/>
       <c r="AC37" s="37"/>
-      <c r="AD37" s="33"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="33"/>
       <c r="AF37" s="37"/>
       <c r="AG37" s="37"/>
       <c r="AH37" s="33"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="34"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="33"/>
       <c r="AM37" s="34"/>
       <c r="AN37" s="34"/>
-      <c r="AO37" s="1"/>
-      <c r="AQ37" s="9"/>
-      <c r="AR37" s="9"/>
-      <c r="AS37" s="9"/>
-      <c r="AT37" s="1"/>
-      <c r="AU37" s="1"/>
+      <c r="AO37" s="34"/>
+      <c r="AP37" s="34"/>
+      <c r="AQ37" s="34"/>
+      <c r="AR37" s="34"/>
+      <c r="AS37" s="1"/>
+      <c r="AU37" s="9"/>
       <c r="AV37" s="9"/>
       <c r="AW37" s="9"/>
-      <c r="AX37" s="9"/>
-      <c r="AY37" s="9"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
       <c r="AZ37" s="9"/>
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
@@ -9738,57 +9858,57 @@
       <c r="BP37" s="9"/>
       <c r="BQ37" s="9"/>
       <c r="BR37" s="9"/>
-    </row>
-    <row r="38" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="E38" s="1"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="33"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="124"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="33"/>
+      <c r="BS37" s="9"/>
+      <c r="BT37" s="9"/>
+      <c r="BU37" s="9"/>
+      <c r="BV37" s="9"/>
+    </row>
+    <row r="38" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="I38" s="1"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="33"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="73"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="33"/>
       <c r="AF38" s="37"/>
       <c r="AG38" s="37"/>
       <c r="AH38" s="33"/>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="90">
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="33"/>
+      <c r="AM38" s="33"/>
+      <c r="AN38" s="33"/>
+      <c r="AO38" s="116">
         <v>3</v>
       </c>
-      <c r="AL38" s="90"/>
-      <c r="AM38" s="90"/>
-      <c r="AN38" s="90"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
+      <c r="AP38" s="116"/>
+      <c r="AQ38" s="116"/>
+      <c r="AR38" s="116"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
-      <c r="AY38" s="9"/>
-      <c r="AZ38" s="9"/>
-      <c r="BA38" s="9"/>
-      <c r="BB38" s="9"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
       <c r="BC38" s="9"/>
       <c r="BD38" s="9"/>
       <c r="BE38" s="9"/>
@@ -9805,53 +9925,53 @@
       <c r="BP38" s="9"/>
       <c r="BQ38" s="9"/>
       <c r="BR38" s="9"/>
-    </row>
-    <row r="39" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="E39" s="1"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="33"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="124"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="37"/>
+      <c r="BS38" s="9"/>
+      <c r="BT38" s="9"/>
+      <c r="BU38" s="9"/>
+      <c r="BV38" s="9"/>
+    </row>
+    <row r="39" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="I39" s="1"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="33"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="73"/>
+      <c r="AB39" s="33"/>
       <c r="AC39" s="37"/>
-      <c r="AD39" s="33"/>
-      <c r="AF39" s="9"/>
       <c r="AG39" s="37"/>
       <c r="AH39" s="33"/>
-      <c r="AI39" s="37"/>
-      <c r="AJ39" s="37"/>
+      <c r="AJ39" s="9"/>
       <c r="AK39" s="37"/>
-      <c r="AL39" s="37"/>
+      <c r="AL39" s="33"/>
       <c r="AM39" s="37"/>
-      <c r="AN39" s="9"/>
-      <c r="AO39" s="107">
+      <c r="AN39" s="37"/>
+      <c r="AO39" s="37"/>
+      <c r="AP39" s="37"/>
+      <c r="AQ39" s="37"/>
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="119">
         <v>2</v>
       </c>
-      <c r="AQ39" s="9"/>
-      <c r="AR39" s="9"/>
-      <c r="AS39" s="9"/>
-      <c r="AT39" s="9"/>
       <c r="AU39" s="9"/>
       <c r="AV39" s="9"/>
       <c r="AW39" s="9"/>
-      <c r="AX39" s="1"/>
+      <c r="AX39" s="9"/>
       <c r="AY39" s="9"/>
       <c r="AZ39" s="9"/>
       <c r="BA39" s="9"/>
-      <c r="BB39" s="9"/>
+      <c r="BB39" s="1"/>
       <c r="BC39" s="9"/>
       <c r="BD39" s="9"/>
       <c r="BE39" s="9"/>
@@ -9868,51 +9988,51 @@
       <c r="BP39" s="9"/>
       <c r="BQ39" s="9"/>
       <c r="BR39" s="9"/>
-    </row>
-    <row r="40" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="E40" s="1"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="104"/>
-      <c r="N40" s="104"/>
-      <c r="O40" s="104"/>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="33"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="124"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="37"/>
+      <c r="BS39" s="9"/>
+      <c r="BT39" s="9"/>
+      <c r="BU39" s="9"/>
+      <c r="BV39" s="9"/>
+    </row>
+    <row r="40" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="I40" s="1"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="33"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="73"/>
+      <c r="AB40" s="33"/>
       <c r="AC40" s="37"/>
-      <c r="AD40" s="33"/>
-      <c r="AF40" s="9"/>
       <c r="AG40" s="37"/>
       <c r="AH40" s="33"/>
-      <c r="AI40" s="37"/>
-      <c r="AJ40" s="37"/>
+      <c r="AJ40" s="9"/>
       <c r="AK40" s="37"/>
-      <c r="AL40" s="37"/>
+      <c r="AL40" s="33"/>
       <c r="AM40" s="37"/>
-      <c r="AN40" s="9"/>
-      <c r="AO40" s="107"/>
-      <c r="AQ40" s="9"/>
+      <c r="AN40" s="37"/>
+      <c r="AO40" s="37"/>
+      <c r="AP40" s="37"/>
+      <c r="AQ40" s="37"/>
       <c r="AR40" s="9"/>
-      <c r="AS40" s="9"/>
-      <c r="AT40" s="9"/>
+      <c r="AS40" s="119"/>
       <c r="AU40" s="9"/>
       <c r="AV40" s="9"/>
       <c r="AW40" s="9"/>
-      <c r="AX40" s="1"/>
+      <c r="AX40" s="9"/>
       <c r="AY40" s="9"/>
       <c r="AZ40" s="9"/>
       <c r="BA40" s="9"/>
-      <c r="BB40" s="9"/>
+      <c r="BB40" s="1"/>
       <c r="BC40" s="9"/>
       <c r="BD40" s="9"/>
       <c r="BE40" s="9"/>
@@ -9929,49 +10049,49 @@
       <c r="BP40" s="9"/>
       <c r="BQ40" s="9"/>
       <c r="BR40" s="9"/>
-    </row>
-    <row r="41" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="E41" s="1"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="104"/>
-      <c r="N41" s="104"/>
-      <c r="O41" s="104"/>
-      <c r="P41" s="104"/>
-      <c r="Q41" s="104"/>
-      <c r="R41" s="104"/>
-      <c r="S41" s="33"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="124"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="37"/>
-      <c r="AA41" s="33"/>
-      <c r="AD41" s="33"/>
+      <c r="BS40" s="9"/>
+      <c r="BT40" s="9"/>
+      <c r="BU40" s="9"/>
+      <c r="BV40" s="9"/>
+    </row>
+    <row r="41" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="I41" s="1"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="64"/>
+      <c r="W41" s="33"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="73"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="37"/>
+      <c r="AE41" s="33"/>
       <c r="AH41" s="33"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="37"/>
-      <c r="AK41" s="37"/>
-      <c r="AL41" s="37"/>
+      <c r="AL41" s="33"/>
       <c r="AM41" s="37"/>
-      <c r="AN41" s="9"/>
-      <c r="AO41" s="107"/>
-      <c r="AQ41" s="9"/>
+      <c r="AN41" s="37"/>
+      <c r="AO41" s="37"/>
+      <c r="AP41" s="37"/>
+      <c r="AQ41" s="37"/>
       <c r="AR41" s="9"/>
-      <c r="AS41" s="9"/>
-      <c r="AT41" s="9"/>
+      <c r="AS41" s="119"/>
       <c r="AU41" s="9"/>
       <c r="AV41" s="9"/>
       <c r="AW41" s="9"/>
-      <c r="AX41" s="1"/>
+      <c r="AX41" s="9"/>
       <c r="AY41" s="9"/>
       <c r="AZ41" s="9"/>
       <c r="BA41" s="9"/>
-      <c r="BB41" s="9"/>
+      <c r="BB41" s="1"/>
       <c r="BC41" s="9"/>
       <c r="BD41" s="9"/>
       <c r="BE41" s="9"/>
@@ -9988,12 +10108,12 @@
       <c r="BP41" s="9"/>
       <c r="BQ41" s="9"/>
       <c r="BR41" s="9"/>
-    </row>
-    <row r="42" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="BS41" s="9"/>
+      <c r="BT41" s="9"/>
+      <c r="BU41" s="9"/>
+      <c r="BV41" s="9"/>
+    </row>
+    <row r="42" spans="9:74" x14ac:dyDescent="0.4">
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -10005,74 +10125,77 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="124"/>
-      <c r="X42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="33"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="73"/>
+      <c r="AB42" s="33"/>
+      <c r="AE42" s="33"/>
       <c r="AF42" s="9"/>
       <c r="AG42" s="9"/>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="107">
+      <c r="AH42" s="33"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="119">
         <v>2</v>
       </c>
-      <c r="AL42" s="107"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
-      <c r="AO42" s="1"/>
-      <c r="AQ42" s="9"/>
-      <c r="AR42" s="9"/>
-      <c r="AS42" s="9"/>
-      <c r="AT42" s="9"/>
+      <c r="AP42" s="119"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
       <c r="AU42" s="9"/>
       <c r="AV42" s="9"/>
       <c r="AW42" s="9"/>
-      <c r="AX42" s="1"/>
-    </row>
-    <row r="43" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
+      <c r="AX42" s="9"/>
+      <c r="AY42" s="9"/>
+      <c r="AZ42" s="9"/>
+      <c r="BA42" s="9"/>
+      <c r="BB42" s="1"/>
+      <c r="BG42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="9:74" x14ac:dyDescent="0.4">
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="124"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="90">
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="73"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="116">
         <v>3</v>
       </c>
-      <c r="Z43" s="90"/>
-      <c r="AA43" s="33"/>
-      <c r="AD43" s="33"/>
-      <c r="AG43" s="9"/>
+      <c r="AD43" s="116"/>
+      <c r="AE43" s="33"/>
       <c r="AH43" s="33"/>
-      <c r="AI43" s="9"/>
-      <c r="AJ43" s="1"/>
       <c r="AK43" s="9"/>
-      <c r="AL43" s="9"/>
+      <c r="AL43" s="33"/>
       <c r="AM43" s="9"/>
       <c r="AN43" s="1"/>
       <c r="AO43" s="9"/>
       <c r="AP43" s="9"/>
       <c r="AQ43" s="9"/>
-      <c r="AR43" s="9"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="9"/>
+      <c r="AT43" s="9"/>
+      <c r="AU43" s="9"/>
+      <c r="AV43" s="9"/>
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
-      <c r="AY43" s="9"/>
-      <c r="AZ43" s="9"/>
-      <c r="BA43" s="9"/>
-      <c r="BB43" s="9"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
       <c r="BC43" s="9"/>
       <c r="BD43" s="9"/>
       <c r="BE43" s="9"/>
@@ -10089,45 +10212,45 @@
       <c r="BP43" s="9"/>
       <c r="BQ43" s="9"/>
       <c r="BR43" s="9"/>
-    </row>
-    <row r="44" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
+      <c r="BS43" s="9"/>
+      <c r="BT43" s="9"/>
+      <c r="BU43" s="9"/>
+      <c r="BV43" s="9"/>
+    </row>
+    <row r="44" spans="9:74" x14ac:dyDescent="0.4">
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="124"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="33"/>
-      <c r="AE44" s="9"/>
-      <c r="AG44" s="9"/>
-      <c r="AH44" s="33"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="73"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="33"/>
       <c r="AI44" s="9"/>
-      <c r="AJ44" s="1"/>
       <c r="AK44" s="9"/>
-      <c r="AL44" s="9"/>
+      <c r="AL44" s="33"/>
       <c r="AM44" s="9"/>
       <c r="AN44" s="1"/>
       <c r="AO44" s="9"/>
       <c r="AP44" s="9"/>
       <c r="AQ44" s="9"/>
-      <c r="AR44" s="9"/>
+      <c r="AR44" s="1"/>
       <c r="AS44" s="9"/>
       <c r="AT44" s="9"/>
       <c r="AU44" s="9"/>
       <c r="AV44" s="9"/>
       <c r="AW44" s="9"/>
-      <c r="AX44" s="1"/>
+      <c r="AX44" s="9"/>
       <c r="AY44" s="9"/>
       <c r="AZ44" s="9"/>
       <c r="BA44" s="9"/>
-      <c r="BB44" s="9"/>
+      <c r="BB44" s="1"/>
       <c r="BC44" s="9"/>
       <c r="BD44" s="9"/>
       <c r="BE44" s="9"/>
@@ -10144,45 +10267,45 @@
       <c r="BP44" s="9"/>
       <c r="BQ44" s="9"/>
       <c r="BR44" s="9"/>
-    </row>
-    <row r="45" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="M45" s="9"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
+      <c r="BS44" s="9"/>
+      <c r="BT44" s="9"/>
+      <c r="BU44" s="9"/>
+      <c r="BV44" s="9"/>
+    </row>
+    <row r="45" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="Q45" s="9"/>
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="124"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
       <c r="W45" s="37"/>
       <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="33"/>
-      <c r="AE45" s="9"/>
-      <c r="AG45" s="9"/>
-      <c r="AH45" s="33"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="33"/>
       <c r="AI45" s="9"/>
-      <c r="AJ45" s="1"/>
       <c r="AK45" s="9"/>
-      <c r="AL45" s="9"/>
+      <c r="AL45" s="33"/>
       <c r="AM45" s="9"/>
       <c r="AN45" s="1"/>
       <c r="AO45" s="9"/>
       <c r="AP45" s="9"/>
       <c r="AQ45" s="9"/>
-      <c r="AR45" s="9"/>
+      <c r="AR45" s="1"/>
       <c r="AS45" s="9"/>
       <c r="AT45" s="9"/>
       <c r="AU45" s="9"/>
       <c r="AV45" s="9"/>
       <c r="AW45" s="9"/>
-      <c r="AX45" s="1"/>
+      <c r="AX45" s="9"/>
       <c r="AY45" s="9"/>
       <c r="AZ45" s="9"/>
       <c r="BA45" s="9"/>
-      <c r="BB45" s="9"/>
+      <c r="BB45" s="1"/>
       <c r="BC45" s="9"/>
       <c r="BD45" s="9"/>
       <c r="BE45" s="9"/>
@@ -10199,45 +10322,45 @@
       <c r="BP45" s="9"/>
       <c r="BQ45" s="9"/>
       <c r="BR45" s="9"/>
-    </row>
-    <row r="46" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="M46" s="9"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
+      <c r="BS45" s="9"/>
+      <c r="BT45" s="9"/>
+      <c r="BU45" s="9"/>
+      <c r="BV45" s="9"/>
+    </row>
+    <row r="46" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="Q46" s="9"/>
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="124"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
       <c r="W46" s="37"/>
       <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="33"/>
-      <c r="AE46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="33"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="33"/>
       <c r="AI46" s="9"/>
-      <c r="AJ46" s="1"/>
       <c r="AK46" s="9"/>
-      <c r="AL46" s="9"/>
+      <c r="AL46" s="33"/>
       <c r="AM46" s="9"/>
       <c r="AN46" s="1"/>
-      <c r="AO46" s="1"/>
-      <c r="AP46" s="1"/>
-      <c r="AQ46" s="1"/>
+      <c r="AO46" s="9"/>
+      <c r="AP46" s="9"/>
+      <c r="AQ46" s="9"/>
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
-      <c r="AT46" s="9"/>
-      <c r="AU46" s="9"/>
-      <c r="AV46" s="9"/>
-      <c r="AW46" s="9"/>
-      <c r="AX46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="9"/>
       <c r="AY46" s="9"/>
       <c r="AZ46" s="9"/>
       <c r="BA46" s="9"/>
-      <c r="BB46" s="9"/>
+      <c r="BB46" s="1"/>
       <c r="BC46" s="9"/>
       <c r="BD46" s="9"/>
       <c r="BE46" s="9"/>
@@ -10254,36 +10377,36 @@
       <c r="BP46" s="9"/>
       <c r="BQ46" s="9"/>
       <c r="BR46" s="9"/>
-    </row>
-    <row r="47" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="H47" t="s">
-        <v>47</v>
+      <c r="BS46" s="9"/>
+      <c r="BT46" s="9"/>
+      <c r="BU46" s="9"/>
+      <c r="BV46" s="9"/>
+    </row>
+    <row r="47" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="L47" t="s">
+        <v>46</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
       <c r="S47" s="37"/>
       <c r="T47" s="37"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="124"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
       <c r="W47" s="37"/>
       <c r="X47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="33"/>
-      <c r="AE47" s="9"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="73"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="33"/>
       <c r="AI47" s="9"/>
-      <c r="AJ47" s="1"/>
       <c r="AK47" s="9"/>
-      <c r="AL47" s="9"/>
+      <c r="AL47" s="33"/>
       <c r="AM47" s="9"/>
-      <c r="AN47" s="9"/>
+      <c r="AN47" s="1"/>
       <c r="AO47" s="9"/>
       <c r="AP47" s="9"/>
       <c r="AQ47" s="9"/>
@@ -10293,11 +10416,11 @@
       <c r="AU47" s="9"/>
       <c r="AV47" s="9"/>
       <c r="AW47" s="9"/>
-      <c r="AX47" s="1"/>
+      <c r="AX47" s="9"/>
       <c r="AY47" s="9"/>
       <c r="AZ47" s="9"/>
       <c r="BA47" s="9"/>
-      <c r="BB47" s="9"/>
+      <c r="BB47" s="1"/>
       <c r="BC47" s="9"/>
       <c r="BD47" s="9"/>
       <c r="BE47" s="9"/>
@@ -10314,39 +10437,39 @@
       <c r="BP47" s="9"/>
       <c r="BQ47" s="9"/>
       <c r="BR47" s="9"/>
-    </row>
-    <row r="48" spans="5:70" x14ac:dyDescent="0.4">
-      <c r="H48" t="s">
-        <v>50</v>
+      <c r="BS47" s="9"/>
+      <c r="BT47" s="9"/>
+      <c r="BU47" s="9"/>
+      <c r="BV47" s="9"/>
+    </row>
+    <row r="48" spans="9:74" x14ac:dyDescent="0.4">
+      <c r="L48" t="s">
+        <v>49</v>
       </c>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="124"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
       <c r="W48" s="37"/>
       <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="33"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="73"/>
+      <c r="AA48" s="37"/>
       <c r="AB48" s="37"/>
       <c r="AC48" s="37"/>
       <c r="AD48" s="37"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="33"/>
+      <c r="AE48" s="33"/>
+      <c r="AF48" s="37"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="37"/>
       <c r="AI48" s="9"/>
-      <c r="AJ48" s="1"/>
+      <c r="AJ48" s="9"/>
       <c r="AK48" s="9"/>
-      <c r="AL48" s="9"/>
+      <c r="AL48" s="33"/>
       <c r="AM48" s="9"/>
-      <c r="AN48" s="9"/>
+      <c r="AN48" s="1"/>
       <c r="AO48" s="9"/>
       <c r="AP48" s="9"/>
       <c r="AQ48" s="9"/>
@@ -10356,11 +10479,11 @@
       <c r="AU48" s="9"/>
       <c r="AV48" s="9"/>
       <c r="AW48" s="9"/>
-      <c r="AX48" s="1"/>
+      <c r="AX48" s="9"/>
       <c r="AY48" s="9"/>
       <c r="AZ48" s="9"/>
       <c r="BA48" s="9"/>
-      <c r="BB48" s="9"/>
+      <c r="BB48" s="1"/>
       <c r="BC48" s="9"/>
       <c r="BD48" s="9"/>
       <c r="BE48" s="9"/>
@@ -10377,42 +10500,42 @@
       <c r="BP48" s="9"/>
       <c r="BQ48" s="9"/>
       <c r="BR48" s="9"/>
-    </row>
-    <row r="49" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="H49" t="s">
-        <v>48</v>
+      <c r="BS48" s="9"/>
+      <c r="BT48" s="9"/>
+      <c r="BU48" s="9"/>
+      <c r="BV48" s="9"/>
+    </row>
+    <row r="49" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="L49" t="s">
+        <v>47</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="124"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
       <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
+      <c r="Z49" s="73"/>
       <c r="AA49" s="33"/>
-      <c r="AB49" s="37"/>
-      <c r="AC49" s="37"/>
-      <c r="AD49" s="37"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
-      <c r="AG49" s="9"/>
-      <c r="AH49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="37"/>
+      <c r="AG49" s="37"/>
+      <c r="AH49" s="37"/>
       <c r="AI49" s="9"/>
-      <c r="AJ49" s="1"/>
+      <c r="AJ49" s="9"/>
       <c r="AK49" s="9"/>
-      <c r="AL49" s="9"/>
+      <c r="AL49" s="33"/>
       <c r="AM49" s="9"/>
-      <c r="AN49" s="9"/>
+      <c r="AN49" s="1"/>
       <c r="AO49" s="9"/>
       <c r="AP49" s="9"/>
       <c r="AQ49" s="9"/>
@@ -10420,13 +10543,13 @@
       <c r="AS49" s="9"/>
       <c r="AT49" s="9"/>
       <c r="AU49" s="9"/>
-      <c r="AV49" s="14"/>
-      <c r="AW49" s="14"/>
-      <c r="AX49" s="1"/>
+      <c r="AV49" s="9"/>
+      <c r="AW49" s="9"/>
+      <c r="AX49" s="9"/>
       <c r="AY49" s="9"/>
-      <c r="AZ49" s="9"/>
-      <c r="BA49" s="9"/>
-      <c r="BB49" s="9"/>
+      <c r="AZ49" s="14"/>
+      <c r="BA49" s="14"/>
+      <c r="BB49" s="1"/>
       <c r="BC49" s="9"/>
       <c r="BD49" s="9"/>
       <c r="BE49" s="9"/>
@@ -10443,42 +10566,42 @@
       <c r="BP49" s="9"/>
       <c r="BQ49" s="9"/>
       <c r="BR49" s="9"/>
-    </row>
-    <row r="50" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="H50" t="s">
-        <v>49</v>
+      <c r="BS49" s="9"/>
+      <c r="BT49" s="9"/>
+      <c r="BU49" s="9"/>
+      <c r="BV49" s="9"/>
+    </row>
+    <row r="50" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="L50" t="s">
+        <v>48</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="124"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
       <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
+      <c r="Z50" s="73"/>
       <c r="AA50" s="33"/>
-      <c r="AB50" s="37"/>
-      <c r="AC50" s="37"/>
-      <c r="AD50" s="37"/>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="9"/>
-      <c r="AG50" s="9"/>
-      <c r="AH50" s="33"/>
+      <c r="AB50" s="33"/>
+      <c r="AC50" s="33"/>
+      <c r="AD50" s="33"/>
+      <c r="AE50" s="33"/>
+      <c r="AF50" s="37"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="37"/>
       <c r="AI50" s="9"/>
-      <c r="AJ50" s="1"/>
+      <c r="AJ50" s="9"/>
       <c r="AK50" s="9"/>
-      <c r="AL50" s="9"/>
+      <c r="AL50" s="33"/>
       <c r="AM50" s="9"/>
-      <c r="AN50" s="9"/>
+      <c r="AN50" s="1"/>
       <c r="AO50" s="9"/>
       <c r="AP50" s="9"/>
       <c r="AQ50" s="9"/>
@@ -10486,13 +10609,13 @@
       <c r="AS50" s="9"/>
       <c r="AT50" s="9"/>
       <c r="AU50" s="9"/>
-      <c r="AV50" s="14"/>
-      <c r="AW50" s="14"/>
-      <c r="AX50" s="1"/>
+      <c r="AV50" s="9"/>
+      <c r="AW50" s="9"/>
+      <c r="AX50" s="9"/>
       <c r="AY50" s="9"/>
-      <c r="AZ50" s="9"/>
-      <c r="BA50" s="9"/>
-      <c r="BB50" s="9"/>
+      <c r="AZ50" s="14"/>
+      <c r="BA50" s="14"/>
+      <c r="BB50" s="1"/>
       <c r="BC50" s="9"/>
       <c r="BD50" s="9"/>
       <c r="BE50" s="9"/>
@@ -10509,14 +10632,14 @@
       <c r="BP50" s="9"/>
       <c r="BQ50" s="9"/>
       <c r="BR50" s="9"/>
-    </row>
-    <row r="51" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
+      <c r="BS50" s="9"/>
+      <c r="BT50" s="9"/>
+      <c r="BU50" s="9"/>
+      <c r="BV50" s="9"/>
+    </row>
+    <row r="51" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
       <c r="U51" s="37"/>
@@ -10525,20 +10648,20 @@
       <c r="X51" s="37"/>
       <c r="Y51" s="37"/>
       <c r="Z51" s="37"/>
-      <c r="AA51" s="33"/>
+      <c r="AA51" s="37"/>
       <c r="AB51" s="37"/>
       <c r="AC51" s="37"/>
       <c r="AD51" s="37"/>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
-      <c r="AG51" s="9"/>
-      <c r="AH51" s="33"/>
+      <c r="AE51" s="33"/>
+      <c r="AF51" s="37"/>
+      <c r="AG51" s="37"/>
+      <c r="AH51" s="37"/>
       <c r="AI51" s="9"/>
-      <c r="AJ51" s="1"/>
+      <c r="AJ51" s="9"/>
       <c r="AK51" s="9"/>
-      <c r="AL51" s="9"/>
+      <c r="AL51" s="33"/>
       <c r="AM51" s="9"/>
-      <c r="AN51" s="9"/>
+      <c r="AN51" s="1"/>
       <c r="AO51" s="9"/>
       <c r="AP51" s="9"/>
       <c r="AQ51" s="9"/>
@@ -10546,13 +10669,13 @@
       <c r="AS51" s="9"/>
       <c r="AT51" s="9"/>
       <c r="AU51" s="9"/>
-      <c r="AV51" s="14"/>
-      <c r="AW51" s="14"/>
-      <c r="AX51" s="1"/>
+      <c r="AV51" s="9"/>
+      <c r="AW51" s="9"/>
+      <c r="AX51" s="9"/>
       <c r="AY51" s="9"/>
-      <c r="AZ51" s="9"/>
-      <c r="BA51" s="9"/>
-      <c r="BB51" s="9"/>
+      <c r="AZ51" s="14"/>
+      <c r="BA51" s="14"/>
+      <c r="BB51" s="1"/>
       <c r="BC51" s="9"/>
       <c r="BD51" s="9"/>
       <c r="BE51" s="9"/>
@@ -10569,14 +10692,14 @@
       <c r="BP51" s="9"/>
       <c r="BQ51" s="9"/>
       <c r="BR51" s="9"/>
-    </row>
-    <row r="52" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
+      <c r="BS51" s="9"/>
+      <c r="BT51" s="9"/>
+      <c r="BU51" s="9"/>
+      <c r="BV51" s="9"/>
+    </row>
+    <row r="52" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
       <c r="U52" s="37"/>
@@ -10585,19 +10708,19 @@
       <c r="X52" s="37"/>
       <c r="Y52" s="37"/>
       <c r="Z52" s="37"/>
-      <c r="AA52" s="33"/>
+      <c r="AA52" s="37"/>
       <c r="AB52" s="37"/>
       <c r="AC52" s="37"/>
       <c r="AD52" s="37"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="33"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="37"/>
+      <c r="AG52" s="37"/>
+      <c r="AH52" s="37"/>
       <c r="AI52" s="9"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
+      <c r="AJ52" s="9"/>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="33"/>
+      <c r="AM52" s="9"/>
       <c r="AN52" s="1"/>
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
@@ -10609,10 +10732,10 @@
       <c r="AV52" s="1"/>
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
-      <c r="AY52" s="9"/>
-      <c r="AZ52" s="9"/>
-      <c r="BA52" s="9"/>
-      <c r="BB52" s="9"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
       <c r="BC52" s="9"/>
       <c r="BD52" s="9"/>
       <c r="BE52" s="9"/>
@@ -10629,14 +10752,14 @@
       <c r="BP52" s="9"/>
       <c r="BQ52" s="9"/>
       <c r="BR52" s="9"/>
-    </row>
-    <row r="53" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
+      <c r="BS52" s="9"/>
+      <c r="BT52" s="9"/>
+      <c r="BU52" s="9"/>
+      <c r="BV52" s="9"/>
+    </row>
+    <row r="53" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
       <c r="S53" s="37"/>
       <c r="T53" s="37"/>
       <c r="U53" s="37"/>
@@ -10645,18 +10768,18 @@
       <c r="X53" s="37"/>
       <c r="Y53" s="37"/>
       <c r="Z53" s="37"/>
-      <c r="AA53" s="33"/>
+      <c r="AA53" s="37"/>
       <c r="AB53" s="37"/>
       <c r="AC53" s="37"/>
       <c r="AD53" s="37"/>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="9"/>
-      <c r="AG53" s="9"/>
-      <c r="AH53" s="33"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="37"/>
+      <c r="AG53" s="37"/>
+      <c r="AH53" s="37"/>
       <c r="AI53" s="9"/>
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
-      <c r="AL53" s="9"/>
+      <c r="AL53" s="33"/>
       <c r="AM53" s="9"/>
       <c r="AN53" s="9"/>
       <c r="AO53" s="9"/>
@@ -10689,14 +10812,14 @@
       <c r="BP53" s="9"/>
       <c r="BQ53" s="9"/>
       <c r="BR53" s="9"/>
-    </row>
-    <row r="54" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
+      <c r="BS53" s="9"/>
+      <c r="BT53" s="9"/>
+      <c r="BU53" s="9"/>
+      <c r="BV53" s="9"/>
+    </row>
+    <row r="54" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
       <c r="U54" s="37"/>
@@ -10705,18 +10828,18 @@
       <c r="X54" s="37"/>
       <c r="Y54" s="37"/>
       <c r="Z54" s="37"/>
-      <c r="AA54" s="33"/>
+      <c r="AA54" s="37"/>
       <c r="AB54" s="37"/>
       <c r="AC54" s="37"/>
       <c r="AD54" s="37"/>
-      <c r="AE54" s="9"/>
-      <c r="AF54" s="9"/>
-      <c r="AG54" s="9"/>
-      <c r="AH54" s="33"/>
+      <c r="AE54" s="33"/>
+      <c r="AF54" s="37"/>
+      <c r="AG54" s="37"/>
+      <c r="AH54" s="37"/>
       <c r="AI54" s="9"/>
       <c r="AJ54" s="9"/>
       <c r="AK54" s="9"/>
-      <c r="AL54" s="9"/>
+      <c r="AL54" s="33"/>
       <c r="AM54" s="9"/>
       <c r="AN54" s="9"/>
       <c r="AO54" s="9"/>
@@ -10749,14 +10872,14 @@
       <c r="BP54" s="9"/>
       <c r="BQ54" s="9"/>
       <c r="BR54" s="9"/>
-    </row>
-    <row r="55" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
+      <c r="BS54" s="9"/>
+      <c r="BT54" s="9"/>
+      <c r="BU54" s="9"/>
+      <c r="BV54" s="9"/>
+    </row>
+    <row r="55" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
       <c r="U55" s="37"/>
@@ -10765,18 +10888,18 @@
       <c r="X55" s="37"/>
       <c r="Y55" s="37"/>
       <c r="Z55" s="37"/>
-      <c r="AA55" s="33"/>
+      <c r="AA55" s="37"/>
       <c r="AB55" s="37"/>
       <c r="AC55" s="37"/>
       <c r="AD55" s="37"/>
-      <c r="AE55" s="9"/>
-      <c r="AF55" s="9"/>
-      <c r="AG55" s="9"/>
-      <c r="AH55" s="33"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="37"/>
+      <c r="AG55" s="37"/>
+      <c r="AH55" s="37"/>
       <c r="AI55" s="9"/>
       <c r="AJ55" s="9"/>
       <c r="AK55" s="9"/>
-      <c r="AL55" s="9"/>
+      <c r="AL55" s="33"/>
       <c r="AM55" s="9"/>
       <c r="AN55" s="9"/>
       <c r="AO55" s="9"/>
@@ -10809,14 +10932,14 @@
       <c r="BP55" s="9"/>
       <c r="BQ55" s="9"/>
       <c r="BR55" s="9"/>
-    </row>
-    <row r="56" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
+      <c r="BS55" s="9"/>
+      <c r="BT55" s="9"/>
+      <c r="BU55" s="9"/>
+      <c r="BV55" s="9"/>
+    </row>
+    <row r="56" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
       <c r="U56" s="37"/>
@@ -10825,18 +10948,18 @@
       <c r="X56" s="37"/>
       <c r="Y56" s="37"/>
       <c r="Z56" s="37"/>
-      <c r="AA56" s="33"/>
+      <c r="AA56" s="37"/>
       <c r="AB56" s="37"/>
       <c r="AC56" s="37"/>
       <c r="AD56" s="37"/>
-      <c r="AE56" s="9"/>
-      <c r="AF56" s="9"/>
-      <c r="AG56" s="9"/>
-      <c r="AH56" s="33"/>
+      <c r="AE56" s="33"/>
+      <c r="AF56" s="37"/>
+      <c r="AG56" s="37"/>
+      <c r="AH56" s="37"/>
       <c r="AI56" s="9"/>
       <c r="AJ56" s="9"/>
       <c r="AK56" s="9"/>
-      <c r="AL56" s="9"/>
+      <c r="AL56" s="33"/>
       <c r="AM56" s="9"/>
       <c r="AN56" s="9"/>
       <c r="AO56" s="9"/>
@@ -10869,14 +10992,14 @@
       <c r="BP56" s="9"/>
       <c r="BQ56" s="9"/>
       <c r="BR56" s="9"/>
-    </row>
-    <row r="57" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
+      <c r="BS56" s="9"/>
+      <c r="BT56" s="9"/>
+      <c r="BU56" s="9"/>
+      <c r="BV56" s="9"/>
+    </row>
+    <row r="57" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
       <c r="U57" s="37"/>
@@ -10885,13 +11008,13 @@
       <c r="X57" s="37"/>
       <c r="Y57" s="37"/>
       <c r="Z57" s="37"/>
-      <c r="AA57" s="33"/>
-      <c r="AE57" s="9"/>
-      <c r="AH57" s="33"/>
+      <c r="AA57" s="37"/>
+      <c r="AB57" s="37"/>
+      <c r="AC57" s="37"/>
+      <c r="AD57" s="37"/>
+      <c r="AE57" s="33"/>
       <c r="AI57" s="9"/>
-      <c r="AJ57" s="9"/>
-      <c r="AK57" s="9"/>
-      <c r="AL57" s="9"/>
+      <c r="AL57" s="33"/>
       <c r="AM57" s="9"/>
       <c r="AN57" s="9"/>
       <c r="AO57" s="9"/>
@@ -10924,14 +11047,14 @@
       <c r="BP57" s="9"/>
       <c r="BQ57" s="9"/>
       <c r="BR57" s="9"/>
-    </row>
-    <row r="58" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
+      <c r="BS57" s="9"/>
+      <c r="BT57" s="9"/>
+      <c r="BU57" s="9"/>
+      <c r="BV57" s="9"/>
+    </row>
+    <row r="58" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
       <c r="U58" s="37"/>
@@ -10940,18 +11063,18 @@
       <c r="X58" s="37"/>
       <c r="Y58" s="37"/>
       <c r="Z58" s="37"/>
-      <c r="AA58" s="33"/>
+      <c r="AA58" s="37"/>
       <c r="AB58" s="37"/>
       <c r="AC58" s="37"/>
       <c r="AD58" s="37"/>
-      <c r="AE58" s="9"/>
-      <c r="AF58" s="9"/>
-      <c r="AG58" s="9"/>
-      <c r="AH58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="37"/>
+      <c r="AG58" s="37"/>
+      <c r="AH58" s="37"/>
       <c r="AI58" s="9"/>
       <c r="AJ58" s="9"/>
       <c r="AK58" s="9"/>
-      <c r="AL58" s="9"/>
+      <c r="AL58" s="33"/>
       <c r="AM58" s="9"/>
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
@@ -10984,14 +11107,14 @@
       <c r="BP58" s="9"/>
       <c r="BQ58" s="9"/>
       <c r="BR58" s="9"/>
-    </row>
-    <row r="59" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
+      <c r="BS58" s="9"/>
+      <c r="BT58" s="9"/>
+      <c r="BU58" s="9"/>
+      <c r="BV58" s="9"/>
+    </row>
+    <row r="59" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
       <c r="U59" s="37"/>
@@ -11000,18 +11123,18 @@
       <c r="X59" s="37"/>
       <c r="Y59" s="37"/>
       <c r="Z59" s="37"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="41"/>
-      <c r="AC59" s="41"/>
-      <c r="AD59" s="41"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="33"/>
+      <c r="AF59" s="41"/>
       <c r="AG59" s="41"/>
-      <c r="AH59" s="33"/>
-      <c r="AI59" s="9"/>
-      <c r="AJ59" s="9"/>
-      <c r="AK59" s="9"/>
-      <c r="AL59" s="9"/>
+      <c r="AH59" s="41"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="41"/>
+      <c r="AL59" s="33"/>
       <c r="AM59" s="9"/>
       <c r="AN59" s="9"/>
       <c r="AO59" s="9"/>
@@ -11044,14 +11167,14 @@
       <c r="BP59" s="9"/>
       <c r="BQ59" s="9"/>
       <c r="BR59" s="9"/>
-    </row>
-    <row r="60" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
+      <c r="BS59" s="9"/>
+      <c r="BT59" s="9"/>
+      <c r="BU59" s="9"/>
+      <c r="BV59" s="9"/>
+    </row>
+    <row r="60" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
       <c r="S60" s="37"/>
       <c r="T60" s="37"/>
       <c r="U60" s="37"/>
@@ -11059,10 +11182,10 @@
       <c r="W60" s="37"/>
       <c r="X60" s="37"/>
       <c r="Y60" s="37"/>
-      <c r="AI60" s="9"/>
-      <c r="AJ60" s="9"/>
-      <c r="AK60" s="9"/>
-      <c r="AL60" s="9"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
       <c r="AM60" s="9"/>
       <c r="AN60" s="9"/>
       <c r="AO60" s="9"/>
@@ -11095,12 +11218,12 @@
       <c r="BP60" s="9"/>
       <c r="BQ60" s="9"/>
       <c r="BR60" s="9"/>
-    </row>
-    <row r="61" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
+      <c r="BS60" s="9"/>
+      <c r="BT60" s="9"/>
+      <c r="BU60" s="9"/>
+      <c r="BV60" s="9"/>
+    </row>
+    <row r="61" spans="11:74" x14ac:dyDescent="0.4">
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
@@ -11155,12 +11278,15 @@
       <c r="BP61" s="9"/>
       <c r="BQ61" s="9"/>
       <c r="BR61" s="9"/>
-    </row>
-    <row r="62" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
+      <c r="BS61" s="9"/>
+      <c r="BT61" s="9"/>
+      <c r="BU61" s="9"/>
+      <c r="BV61" s="9"/>
+    </row>
+    <row r="62" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="K62" t="s">
+        <v>53</v>
+      </c>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
@@ -11215,12 +11341,15 @@
       <c r="BP62" s="9"/>
       <c r="BQ62" s="9"/>
       <c r="BR62" s="9"/>
-    </row>
-    <row r="63" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
+      <c r="BS62" s="9"/>
+      <c r="BT62" s="9"/>
+      <c r="BU62" s="9"/>
+      <c r="BV62" s="9"/>
+    </row>
+    <row r="63" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="L63" t="s">
+        <v>55</v>
+      </c>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
@@ -11275,12 +11404,15 @@
       <c r="BP63" s="9"/>
       <c r="BQ63" s="9"/>
       <c r="BR63" s="9"/>
-    </row>
-    <row r="64" spans="8:70" x14ac:dyDescent="0.4">
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
+      <c r="BS63" s="9"/>
+      <c r="BT63" s="9"/>
+      <c r="BU63" s="9"/>
+      <c r="BV63" s="9"/>
+    </row>
+    <row r="64" spans="11:74" x14ac:dyDescent="0.4">
+      <c r="L64" t="s">
+        <v>54</v>
+      </c>
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
@@ -11335,12 +11467,12 @@
       <c r="BP64" s="9"/>
       <c r="BQ64" s="9"/>
       <c r="BR64" s="9"/>
-    </row>
-    <row r="65" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
+      <c r="BS64" s="9"/>
+      <c r="BT64" s="9"/>
+      <c r="BU64" s="9"/>
+      <c r="BV64" s="9"/>
+    </row>
+    <row r="65" spans="17:74" x14ac:dyDescent="0.4">
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
@@ -11395,12 +11527,12 @@
       <c r="BP65" s="9"/>
       <c r="BQ65" s="9"/>
       <c r="BR65" s="9"/>
-    </row>
-    <row r="66" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
+      <c r="BS65" s="9"/>
+      <c r="BT65" s="9"/>
+      <c r="BU65" s="9"/>
+      <c r="BV65" s="9"/>
+    </row>
+    <row r="66" spans="17:74" x14ac:dyDescent="0.4">
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
@@ -11455,12 +11587,12 @@
       <c r="BP66" s="9"/>
       <c r="BQ66" s="9"/>
       <c r="BR66" s="9"/>
-    </row>
-    <row r="67" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
+      <c r="BS66" s="9"/>
+      <c r="BT66" s="9"/>
+      <c r="BU66" s="9"/>
+      <c r="BV66" s="9"/>
+    </row>
+    <row r="67" spans="17:74" x14ac:dyDescent="0.4">
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
@@ -11515,12 +11647,12 @@
       <c r="BP67" s="9"/>
       <c r="BQ67" s="9"/>
       <c r="BR67" s="9"/>
-    </row>
-    <row r="68" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
+      <c r="BS67" s="9"/>
+      <c r="BT67" s="9"/>
+      <c r="BU67" s="9"/>
+      <c r="BV67" s="9"/>
+    </row>
+    <row r="68" spans="17:74" x14ac:dyDescent="0.4">
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
@@ -11575,13 +11707,13 @@
       <c r="BP68" s="9"/>
       <c r="BQ68" s="9"/>
       <c r="BR68" s="9"/>
-    </row>
-    <row r="69" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
+      <c r="BS68" s="9"/>
+      <c r="BT68" s="9"/>
+      <c r="BU68" s="9"/>
+      <c r="BV68" s="9"/>
+    </row>
+    <row r="69" spans="17:74" x14ac:dyDescent="0.4">
+      <c r="Q69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
@@ -11630,13 +11762,13 @@
       <c r="BP69" s="9"/>
       <c r="BQ69" s="9"/>
       <c r="BR69" s="9"/>
-    </row>
-    <row r="70" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
+      <c r="BS69" s="9"/>
+      <c r="BT69" s="9"/>
+      <c r="BU69" s="9"/>
+      <c r="BV69" s="9"/>
+    </row>
+    <row r="70" spans="17:74" x14ac:dyDescent="0.4">
+      <c r="Q70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
@@ -11685,13 +11817,13 @@
       <c r="BP70" s="9"/>
       <c r="BQ70" s="9"/>
       <c r="BR70" s="9"/>
-    </row>
-    <row r="71" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
+      <c r="BS70" s="9"/>
+      <c r="BT70" s="9"/>
+      <c r="BU70" s="9"/>
+      <c r="BV70" s="9"/>
+    </row>
+    <row r="71" spans="17:74" x14ac:dyDescent="0.4">
+      <c r="Q71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
@@ -11740,12 +11872,12 @@
       <c r="BP71" s="9"/>
       <c r="BQ71" s="9"/>
       <c r="BR71" s="9"/>
-    </row>
-    <row r="72" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
+      <c r="BS71" s="9"/>
+      <c r="BT71" s="9"/>
+      <c r="BU71" s="9"/>
+      <c r="BV71" s="9"/>
+    </row>
+    <row r="72" spans="17:74" x14ac:dyDescent="0.4">
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
@@ -11800,12 +11932,12 @@
       <c r="BP72" s="9"/>
       <c r="BQ72" s="9"/>
       <c r="BR72" s="9"/>
-    </row>
-    <row r="73" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
+      <c r="BS72" s="9"/>
+      <c r="BT72" s="9"/>
+      <c r="BU72" s="9"/>
+      <c r="BV72" s="9"/>
+    </row>
+    <row r="73" spans="17:74" x14ac:dyDescent="0.4">
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
@@ -11860,12 +11992,12 @@
       <c r="BP73" s="9"/>
       <c r="BQ73" s="9"/>
       <c r="BR73" s="9"/>
-    </row>
-    <row r="74" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
+      <c r="BS73" s="9"/>
+      <c r="BT73" s="9"/>
+      <c r="BU73" s="9"/>
+      <c r="BV73" s="9"/>
+    </row>
+    <row r="74" spans="17:74" x14ac:dyDescent="0.4">
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
@@ -11920,12 +12052,12 @@
       <c r="BP74" s="9"/>
       <c r="BQ74" s="9"/>
       <c r="BR74" s="9"/>
-    </row>
-    <row r="75" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
+      <c r="BS74" s="9"/>
+      <c r="BT74" s="9"/>
+      <c r="BU74" s="9"/>
+      <c r="BV74" s="9"/>
+    </row>
+    <row r="75" spans="17:74" x14ac:dyDescent="0.4">
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
@@ -11980,12 +12112,12 @@
       <c r="BP75" s="9"/>
       <c r="BQ75" s="9"/>
       <c r="BR75" s="9"/>
-    </row>
-    <row r="76" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
+      <c r="BS75" s="9"/>
+      <c r="BT75" s="9"/>
+      <c r="BU75" s="9"/>
+      <c r="BV75" s="9"/>
+    </row>
+    <row r="76" spans="17:74" x14ac:dyDescent="0.4">
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
@@ -12040,12 +12172,12 @@
       <c r="BP76" s="9"/>
       <c r="BQ76" s="9"/>
       <c r="BR76" s="9"/>
-    </row>
-    <row r="77" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
+      <c r="BS76" s="9"/>
+      <c r="BT76" s="9"/>
+      <c r="BU76" s="9"/>
+      <c r="BV76" s="9"/>
+    </row>
+    <row r="77" spans="17:74" x14ac:dyDescent="0.4">
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
@@ -12100,12 +12232,12 @@
       <c r="BP77" s="9"/>
       <c r="BQ77" s="9"/>
       <c r="BR77" s="9"/>
-    </row>
-    <row r="78" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
+      <c r="BS77" s="9"/>
+      <c r="BT77" s="9"/>
+      <c r="BU77" s="9"/>
+      <c r="BV77" s="9"/>
+    </row>
+    <row r="78" spans="17:74" x14ac:dyDescent="0.4">
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
@@ -12160,12 +12292,12 @@
       <c r="BP78" s="9"/>
       <c r="BQ78" s="9"/>
       <c r="BR78" s="9"/>
-    </row>
-    <row r="79" spans="13:70" x14ac:dyDescent="0.4">
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
+      <c r="BS78" s="9"/>
+      <c r="BT78" s="9"/>
+      <c r="BU78" s="9"/>
+      <c r="BV78" s="9"/>
+    </row>
+    <row r="79" spans="17:74" x14ac:dyDescent="0.4">
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
@@ -12191,27 +12323,628 @@
       <c r="AM79" s="9"/>
       <c r="AN79" s="9"/>
       <c r="AO79" s="9"/>
+      <c r="AP79" s="9"/>
+      <c r="AQ79" s="9"/>
+      <c r="AR79" s="9"/>
+      <c r="AS79" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="T33:Z33"/>
-    <mergeCell ref="T29:U30"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="AO39:AO41"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AC25:AD26"/>
-    <mergeCell ref="G3:AT5"/>
-    <mergeCell ref="AM12:AN13"/>
-    <mergeCell ref="V9:W10"/>
-    <mergeCell ref="AE9:AF10"/>
-    <mergeCell ref="AJ9:AK10"/>
-    <mergeCell ref="AK15:AL16"/>
-    <mergeCell ref="AK42:AL42"/>
+  <mergeCells count="14">
+    <mergeCell ref="AO42:AP42"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="AS39:AS41"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AG25:AH26"/>
+    <mergeCell ref="K3:AX5"/>
+    <mergeCell ref="Z9:AA10"/>
+    <mergeCell ref="AI9:AJ10"/>
+    <mergeCell ref="AO15:AP16"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="X33:AD33"/>
+    <mergeCell ref="X29:Y30"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="S9:T10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EFB6A8-5AC3-42DE-A478-1D31579B1464}">
+  <dimension ref="J7:AC40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="68" width="3.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="Y7" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="118"/>
+    </row>
+    <row r="8" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="W8" s="7"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="118"/>
+    </row>
+    <row r="9" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="J10" s="1"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+    </row>
+    <row r="11" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="J11" s="1"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+    </row>
+    <row r="12" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="33"/>
+    </row>
+    <row r="13" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="J13" s="1"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="33"/>
+    </row>
+    <row r="14" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="J14" s="1"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="33"/>
+    </row>
+    <row r="15" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="J15" s="1"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="33"/>
+    </row>
+    <row r="16" spans="10:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J16" s="1"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="33"/>
+    </row>
+    <row r="17" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="J17" s="1"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="U17" s="129"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="33"/>
+    </row>
+    <row r="18" spans="10:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J18" s="1"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="131"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="33"/>
+    </row>
+    <row r="19" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="J19" s="1"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="33"/>
+    </row>
+    <row r="20" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="33"/>
+    </row>
+    <row r="21" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="V21" s="1"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="33"/>
+    </row>
+    <row r="22" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="33"/>
+    </row>
+    <row r="23" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="33"/>
+    </row>
+    <row r="24" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="33"/>
+    </row>
+    <row r="25" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="116">
+        <v>1</v>
+      </c>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="116"/>
+      <c r="AC25" s="33"/>
+    </row>
+    <row r="26" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="O26" s="1"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="33"/>
+    </row>
+    <row r="27" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="O27" s="1"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="33"/>
+    </row>
+    <row r="28" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="O28" s="1"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="33"/>
+    </row>
+    <row r="29" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="O29" s="1"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="33"/>
+    </row>
+    <row r="30" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="O30" s="1"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="64"/>
+      <c r="AC30" s="33"/>
+    </row>
+    <row r="31" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="O31" s="1"/>
+      <c r="P31" s="64"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="O32" s="1"/>
+      <c r="P32" s="64"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+    </row>
+    <row r="33" spans="15:29" x14ac:dyDescent="0.4">
+      <c r="O33" s="1"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="33"/>
+    </row>
+    <row r="34" spans="15:29" x14ac:dyDescent="0.4">
+      <c r="O34" s="1"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="64"/>
+      <c r="AC34" s="33"/>
+    </row>
+    <row r="35" spans="15:29" x14ac:dyDescent="0.4">
+      <c r="O35" s="1"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="33"/>
+    </row>
+    <row r="36" spans="15:29" x14ac:dyDescent="0.4">
+      <c r="O36" s="1"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="64"/>
+      <c r="AC36" s="33"/>
+    </row>
+    <row r="37" spans="15:29" x14ac:dyDescent="0.4">
+      <c r="O37" s="1"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
+      <c r="AC37" s="33"/>
+    </row>
+    <row r="38" spans="15:29" x14ac:dyDescent="0.4">
+      <c r="O38" s="1"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="64"/>
+      <c r="AC38" s="33"/>
+    </row>
+    <row r="39" spans="15:29" x14ac:dyDescent="0.4">
+      <c r="O39" s="1"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="64"/>
+      <c r="AB39" s="64"/>
+      <c r="AC39" s="33"/>
+    </row>
+    <row r="40" spans="15:29" x14ac:dyDescent="0.4">
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="T17:U18"/>
+    <mergeCell ref="W25:AB25"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/개인작업폴더/김나연/물행성레벨.xlsx
+++ b/개인작업폴더/김나연/물행성레벨.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TeamHolyShit\개인작업폴더\김나연\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859A84B2-7F33-428B-A9A1-D15F400B1E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF7DD15-4D99-435A-ABCC-C8E38B05DB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11364" yWindow="768" windowWidth="21516" windowHeight="11436" firstSheet="4" activeTab="6" xr2:uid="{D4D8698F-685B-4DF4-86AA-347018D54407}"/>
+    <workbookView xWindow="7308" yWindow="756" windowWidth="9264" windowHeight="11436" firstSheet="3" activeTab="6" xr2:uid="{D4D8698F-685B-4DF4-86AA-347018D54407}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 정보" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -260,6 +260,18 @@
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -268,7 +280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +377,56 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -674,7 +736,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,9 +950,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +971,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,9 +984,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,16 +1082,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1059,17 +1124,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2261,13 +2368,13 @@
   </cols>
   <sheetData>
     <row r="10" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="74" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2283,35 +2390,35 @@
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C12" s="77">
+      <c r="C12" s="76">
         <v>44226</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="77">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C13" s="77"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="78"/>
+      <c r="E13" s="77"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C14" s="77"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="77"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C15" s="57">
         <v>44227</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="73" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="58">
@@ -2319,9 +2426,9 @@
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2382,49 +2489,49 @@
     </row>
     <row r="4" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="84"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="83"/>
     </row>
     <row r="5" spans="3:39" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="87"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="86"/>
     </row>
     <row r="6" spans="3:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y6" s="31"/>
@@ -2632,17 +2739,17 @@
       <c r="Q17" s="32"/>
       <c r="R17" s="18"/>
       <c r="Y17" s="31"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="83"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
       <c r="AF17" s="31"/>
       <c r="AG17" s="31"/>
       <c r="AH17" s="31"/>
-      <c r="AI17" s="83"/>
-      <c r="AJ17" s="83"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31"/>
       <c r="AM17" s="31"/>
@@ -2660,17 +2767,17 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="18"/>
       <c r="Y18" s="31"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="78"/>
+      <c r="AB18" s="78"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="78"/>
+      <c r="AE18" s="78"/>
       <c r="AF18" s="53"/>
       <c r="AG18" s="53"/>
       <c r="AH18" s="53"/>
-      <c r="AI18" s="83"/>
-      <c r="AJ18" s="83"/>
+      <c r="AI18" s="78"/>
+      <c r="AJ18" s="78"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
       <c r="AM18" s="31"/>
@@ -2704,17 +2811,17 @@
       <c r="AM19" s="31"/>
     </row>
     <row r="20" spans="3:39" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="89"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="88"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="87"/>
     </row>
     <row r="21" spans="3:39" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="31"/>
@@ -2722,17 +2829,17 @@
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="90"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="89"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="88"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="87"/>
     </row>
     <row r="22" spans="3:39" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="31"/>
@@ -2859,21 +2966,21 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
     <mergeCell ref="AD17:AD18"/>
     <mergeCell ref="C3:W5"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AI17:AI18"/>
     <mergeCell ref="AJ17:AJ18"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AB17:AB18"/>
     <mergeCell ref="AC17:AC18"/>
   </mergeCells>
@@ -2900,153 +3007,153 @@
       <c r="D3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="91"/>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91"/>
-      <c r="AU3" s="91"/>
-      <c r="AV3" s="91"/>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="92"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="90"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="91"/>
     </row>
     <row r="4" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94"/>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="95"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="94"/>
     </row>
     <row r="5" spans="4:51" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
-      <c r="AJ5" s="97"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="97"/>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="97"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="97"/>
-      <c r="AQ5" s="97"/>
-      <c r="AR5" s="97"/>
-      <c r="AS5" s="97"/>
-      <c r="AT5" s="97"/>
-      <c r="AU5" s="97"/>
-      <c r="AV5" s="97"/>
-      <c r="AW5" s="97"/>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="98"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="96"/>
+      <c r="AJ5" s="96"/>
+      <c r="AK5" s="96"/>
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="96"/>
+      <c r="AN5" s="96"/>
+      <c r="AO5" s="96"/>
+      <c r="AP5" s="96"/>
+      <c r="AQ5" s="96"/>
+      <c r="AR5" s="96"/>
+      <c r="AS5" s="96"/>
+      <c r="AT5" s="96"/>
+      <c r="AU5" s="96"/>
+      <c r="AV5" s="96"/>
+      <c r="AW5" s="96"/>
+      <c r="AX5" s="96"/>
+      <c r="AY5" s="97"/>
     </row>
     <row r="9" spans="4:51" x14ac:dyDescent="0.4">
       <c r="Q9" s="1"/>
@@ -3568,243 +3675,243 @@
   <sheetData>
     <row r="2" spans="4:80" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="4:80" x14ac:dyDescent="0.4">
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="100"/>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="100"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="100"/>
-      <c r="AP3" s="100"/>
-      <c r="AQ3" s="100"/>
-      <c r="AR3" s="100"/>
-      <c r="AS3" s="100"/>
-      <c r="AT3" s="100"/>
-      <c r="AU3" s="100"/>
-      <c r="AV3" s="100"/>
-      <c r="AW3" s="100"/>
-      <c r="AX3" s="100"/>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="100"/>
-      <c r="BA3" s="100"/>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="100"/>
-      <c r="BD3" s="100"/>
-      <c r="BE3" s="100"/>
-      <c r="BF3" s="100"/>
-      <c r="BG3" s="100"/>
-      <c r="BH3" s="100"/>
-      <c r="BI3" s="100"/>
-      <c r="BJ3" s="100"/>
-      <c r="BK3" s="100"/>
-      <c r="BL3" s="100"/>
-      <c r="BM3" s="100"/>
-      <c r="BN3" s="100"/>
-      <c r="BO3" s="100"/>
-      <c r="BP3" s="100"/>
-      <c r="BQ3" s="100"/>
-      <c r="BR3" s="100"/>
-      <c r="BS3" s="100"/>
-      <c r="BT3" s="100"/>
-      <c r="BU3" s="100"/>
-      <c r="BV3" s="100"/>
-      <c r="BW3" s="100"/>
-      <c r="BX3" s="100"/>
-      <c r="BY3" s="100"/>
-      <c r="BZ3" s="100"/>
-      <c r="CA3" s="100"/>
-      <c r="CB3" s="101"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="99"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="99"/>
+      <c r="AQ3" s="99"/>
+      <c r="AR3" s="99"/>
+      <c r="AS3" s="99"/>
+      <c r="AT3" s="99"/>
+      <c r="AU3" s="99"/>
+      <c r="AV3" s="99"/>
+      <c r="AW3" s="99"/>
+      <c r="AX3" s="99"/>
+      <c r="AY3" s="99"/>
+      <c r="AZ3" s="99"/>
+      <c r="BA3" s="99"/>
+      <c r="BB3" s="99"/>
+      <c r="BC3" s="99"/>
+      <c r="BD3" s="99"/>
+      <c r="BE3" s="99"/>
+      <c r="BF3" s="99"/>
+      <c r="BG3" s="99"/>
+      <c r="BH3" s="99"/>
+      <c r="BI3" s="99"/>
+      <c r="BJ3" s="99"/>
+      <c r="BK3" s="99"/>
+      <c r="BL3" s="99"/>
+      <c r="BM3" s="99"/>
+      <c r="BN3" s="99"/>
+      <c r="BO3" s="99"/>
+      <c r="BP3" s="99"/>
+      <c r="BQ3" s="99"/>
+      <c r="BR3" s="99"/>
+      <c r="BS3" s="99"/>
+      <c r="BT3" s="99"/>
+      <c r="BU3" s="99"/>
+      <c r="BV3" s="99"/>
+      <c r="BW3" s="99"/>
+      <c r="BX3" s="99"/>
+      <c r="BY3" s="99"/>
+      <c r="BZ3" s="99"/>
+      <c r="CA3" s="99"/>
+      <c r="CB3" s="100"/>
     </row>
     <row r="4" spans="4:80" x14ac:dyDescent="0.4">
-      <c r="D4" s="102"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="103"/>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="103"/>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="103"/>
-      <c r="BK4" s="103"/>
-      <c r="BL4" s="103"/>
-      <c r="BM4" s="103"/>
-      <c r="BN4" s="103"/>
-      <c r="BO4" s="103"/>
-      <c r="BP4" s="103"/>
-      <c r="BQ4" s="103"/>
-      <c r="BR4" s="103"/>
-      <c r="BS4" s="103"/>
-      <c r="BT4" s="103"/>
-      <c r="BU4" s="103"/>
-      <c r="BV4" s="103"/>
-      <c r="BW4" s="103"/>
-      <c r="BX4" s="103"/>
-      <c r="BY4" s="103"/>
-      <c r="BZ4" s="103"/>
-      <c r="CA4" s="103"/>
-      <c r="CB4" s="104"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="102"/>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="102"/>
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="102"/>
+      <c r="AS4" s="102"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="102"/>
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4" s="102"/>
+      <c r="BF4" s="102"/>
+      <c r="BG4" s="102"/>
+      <c r="BH4" s="102"/>
+      <c r="BI4" s="102"/>
+      <c r="BJ4" s="102"/>
+      <c r="BK4" s="102"/>
+      <c r="BL4" s="102"/>
+      <c r="BM4" s="102"/>
+      <c r="BN4" s="102"/>
+      <c r="BO4" s="102"/>
+      <c r="BP4" s="102"/>
+      <c r="BQ4" s="102"/>
+      <c r="BR4" s="102"/>
+      <c r="BS4" s="102"/>
+      <c r="BT4" s="102"/>
+      <c r="BU4" s="102"/>
+      <c r="BV4" s="102"/>
+      <c r="BW4" s="102"/>
+      <c r="BX4" s="102"/>
+      <c r="BY4" s="102"/>
+      <c r="BZ4" s="102"/>
+      <c r="CA4" s="102"/>
+      <c r="CB4" s="103"/>
     </row>
     <row r="5" spans="4:80" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="106"/>
-      <c r="AY5" s="106"/>
-      <c r="AZ5" s="106"/>
-      <c r="BA5" s="106"/>
-      <c r="BB5" s="106"/>
-      <c r="BC5" s="106"/>
-      <c r="BD5" s="106"/>
-      <c r="BE5" s="106"/>
-      <c r="BF5" s="106"/>
-      <c r="BG5" s="106"/>
-      <c r="BH5" s="106"/>
-      <c r="BI5" s="106"/>
-      <c r="BJ5" s="106"/>
-      <c r="BK5" s="106"/>
-      <c r="BL5" s="106"/>
-      <c r="BM5" s="106"/>
-      <c r="BN5" s="106"/>
-      <c r="BO5" s="106"/>
-      <c r="BP5" s="106"/>
-      <c r="BQ5" s="106"/>
-      <c r="BR5" s="106"/>
-      <c r="BS5" s="106"/>
-      <c r="BT5" s="106"/>
-      <c r="BU5" s="106"/>
-      <c r="BV5" s="106"/>
-      <c r="BW5" s="106"/>
-      <c r="BX5" s="106"/>
-      <c r="BY5" s="106"/>
-      <c r="BZ5" s="106"/>
-      <c r="CA5" s="106"/>
-      <c r="CB5" s="107"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="105"/>
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="105"/>
+      <c r="AT5" s="105"/>
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="105"/>
+      <c r="AW5" s="105"/>
+      <c r="AX5" s="105"/>
+      <c r="AY5" s="105"/>
+      <c r="AZ5" s="105"/>
+      <c r="BA5" s="105"/>
+      <c r="BB5" s="105"/>
+      <c r="BC5" s="105"/>
+      <c r="BD5" s="105"/>
+      <c r="BE5" s="105"/>
+      <c r="BF5" s="105"/>
+      <c r="BG5" s="105"/>
+      <c r="BH5" s="105"/>
+      <c r="BI5" s="105"/>
+      <c r="BJ5" s="105"/>
+      <c r="BK5" s="105"/>
+      <c r="BL5" s="105"/>
+      <c r="BM5" s="105"/>
+      <c r="BN5" s="105"/>
+      <c r="BO5" s="105"/>
+      <c r="BP5" s="105"/>
+      <c r="BQ5" s="105"/>
+      <c r="BR5" s="105"/>
+      <c r="BS5" s="105"/>
+      <c r="BT5" s="105"/>
+      <c r="BU5" s="105"/>
+      <c r="BV5" s="105"/>
+      <c r="BW5" s="105"/>
+      <c r="BX5" s="105"/>
+      <c r="BY5" s="105"/>
+      <c r="BZ5" s="105"/>
+      <c r="CA5" s="105"/>
+      <c r="CB5" s="106"/>
     </row>
     <row r="8" spans="4:80" x14ac:dyDescent="0.4">
       <c r="BW8" s="14"/>
@@ -4818,7 +4925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73869102-2E4D-46EA-BD81-968A0A374493}">
   <dimension ref="E2:BI185"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="L10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AP52" sqref="AP52"/>
     </sheetView>
   </sheetViews>
@@ -4884,56 +4991,56 @@
       <c r="BI2" s="36"/>
     </row>
     <row r="3" spans="5:61" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108"/>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108"/>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108"/>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="108"/>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="108"/>
-      <c r="BA3" s="109"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="107"/>
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="107"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="107"/>
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="107"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="107"/>
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="108"/>
       <c r="BB3" s="59"/>
       <c r="BC3" s="59"/>
       <c r="BD3" s="59"/>
@@ -4944,54 +5051,54 @@
       <c r="BI3" s="36"/>
     </row>
     <row r="4" spans="5:61" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="111"/>
-      <c r="AB4" s="111"/>
-      <c r="AC4" s="111"/>
-      <c r="AD4" s="111"/>
-      <c r="AE4" s="111"/>
-      <c r="AF4" s="111"/>
-      <c r="AG4" s="111"/>
-      <c r="AH4" s="111"/>
-      <c r="AI4" s="111"/>
-      <c r="AJ4" s="111"/>
-      <c r="AK4" s="111"/>
-      <c r="AL4" s="111"/>
-      <c r="AM4" s="111"/>
-      <c r="AN4" s="111"/>
-      <c r="AO4" s="111"/>
-      <c r="AP4" s="111"/>
-      <c r="AQ4" s="111"/>
-      <c r="AR4" s="111"/>
-      <c r="AS4" s="111"/>
-      <c r="AT4" s="111"/>
-      <c r="AU4" s="111"/>
-      <c r="AV4" s="111"/>
-      <c r="AW4" s="111"/>
-      <c r="AX4" s="111"/>
-      <c r="AY4" s="111"/>
-      <c r="AZ4" s="111"/>
-      <c r="BA4" s="112"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="111"/>
       <c r="BB4" s="59"/>
       <c r="BC4" s="59"/>
       <c r="BD4" s="59"/>
@@ -5002,54 +5109,54 @@
       <c r="BI4" s="36"/>
     </row>
     <row r="5" spans="5:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F5" s="113"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114"/>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114"/>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114"/>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114"/>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="115"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="114"/>
       <c r="BB5" s="59"/>
       <c r="BC5" s="59"/>
       <c r="BD5" s="59"/>
@@ -8004,155 +8111,155 @@
   <sheetData>
     <row r="2" spans="4:74" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="4:74" x14ac:dyDescent="0.4">
-      <c r="K3" s="99" t="s">
+      <c r="K3" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="120"/>
-      <c r="AG3" s="120"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="120"/>
-      <c r="AK3" s="120"/>
-      <c r="AL3" s="120"/>
-      <c r="AM3" s="120"/>
-      <c r="AN3" s="120"/>
-      <c r="AO3" s="120"/>
-      <c r="AP3" s="120"/>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" s="120"/>
-      <c r="AS3" s="120"/>
-      <c r="AT3" s="120"/>
-      <c r="AU3" s="120"/>
-      <c r="AV3" s="120"/>
-      <c r="AW3" s="120"/>
-      <c r="AX3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="121"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" s="121"/>
+      <c r="AM3" s="121"/>
+      <c r="AN3" s="121"/>
+      <c r="AO3" s="121"/>
+      <c r="AP3" s="121"/>
+      <c r="AQ3" s="121"/>
+      <c r="AR3" s="121"/>
+      <c r="AS3" s="121"/>
+      <c r="AT3" s="121"/>
+      <c r="AU3" s="121"/>
+      <c r="AV3" s="121"/>
+      <c r="AW3" s="121"/>
+      <c r="AX3" s="122"/>
     </row>
     <row r="4" spans="4:74" x14ac:dyDescent="0.4">
-      <c r="K4" s="122"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="123"/>
-      <c r="AI4" s="123"/>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="123"/>
-      <c r="AL4" s="123"/>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="123"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123"/>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="123"/>
-      <c r="AW4" s="123"/>
-      <c r="AX4" s="124"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="125"/>
     </row>
     <row r="5" spans="4:74" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K5" s="125"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="126"/>
-      <c r="AH5" s="126"/>
-      <c r="AI5" s="126"/>
-      <c r="AJ5" s="126"/>
-      <c r="AK5" s="126"/>
-      <c r="AL5" s="126"/>
-      <c r="AM5" s="126"/>
-      <c r="AN5" s="126"/>
-      <c r="AO5" s="126"/>
-      <c r="AP5" s="126"/>
-      <c r="AQ5" s="126"/>
-      <c r="AR5" s="126"/>
-      <c r="AS5" s="126"/>
-      <c r="AT5" s="126"/>
-      <c r="AU5" s="126"/>
-      <c r="AV5" s="126"/>
-      <c r="AW5" s="126"/>
-      <c r="AX5" s="127"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="127"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="127"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="127"/>
+      <c r="AO5" s="127"/>
+      <c r="AP5" s="127"/>
+      <c r="AQ5" s="127"/>
+      <c r="AR5" s="127"/>
+      <c r="AS5" s="127"/>
+      <c r="AT5" s="127"/>
+      <c r="AU5" s="127"/>
+      <c r="AV5" s="127"/>
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="128"/>
     </row>
     <row r="9" spans="4:74" x14ac:dyDescent="0.4">
-      <c r="S9" s="118" t="s">
+      <c r="S9" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="118"/>
-      <c r="Z9" s="118" t="s">
+      <c r="T9" s="129"/>
+      <c r="Z9" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="118"/>
-      <c r="AI9" s="118" t="s">
+      <c r="AA9" s="129"/>
+      <c r="AI9" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="AJ9" s="118"/>
+      <c r="AJ9" s="129"/>
     </row>
     <row r="10" spans="4:74" x14ac:dyDescent="0.4">
       <c r="Q10" s="7"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="118"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AI10" s="129"/>
+      <c r="AJ10" s="129"/>
     </row>
     <row r="11" spans="4:74" x14ac:dyDescent="0.4">
       <c r="D11" s="1"/>
@@ -8401,10 +8508,10 @@
       <c r="AL15" s="33"/>
       <c r="AM15" s="34"/>
       <c r="AN15" s="34"/>
-      <c r="AO15" s="116">
+      <c r="AO15" s="120">
         <v>2</v>
       </c>
-      <c r="AP15" s="116"/>
+      <c r="AP15" s="120"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="1"/>
@@ -8466,8 +8573,8 @@
       <c r="AL16" s="33"/>
       <c r="AM16" s="34"/>
       <c r="AN16" s="34"/>
-      <c r="AO16" s="116"/>
-      <c r="AP16" s="116"/>
+      <c r="AO16" s="120"/>
+      <c r="AP16" s="120"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="1"/>
@@ -8642,10 +8749,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="128" t="s">
+      <c r="N19" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="129"/>
+      <c r="O19" s="117"/>
       <c r="Q19" s="66"/>
       <c r="R19" s="66"/>
       <c r="S19" s="66"/>
@@ -8709,8 +8816,8 @@
       <c r="K20" s="3"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="131"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="119"/>
       <c r="Q20" s="66"/>
       <c r="R20" s="66"/>
       <c r="S20" s="66"/>
@@ -9038,10 +9145,10 @@
       <c r="AC25" s="61"/>
       <c r="AD25" s="61"/>
       <c r="AE25" s="33"/>
-      <c r="AG25" s="116">
+      <c r="AG25" s="120">
         <v>3</v>
       </c>
-      <c r="AH25" s="116"/>
+      <c r="AH25" s="120"/>
       <c r="AI25" s="37"/>
       <c r="AL25" s="33"/>
       <c r="AM25" s="34"/>
@@ -9093,8 +9200,8 @@
       <c r="AC26" s="67"/>
       <c r="AD26" s="67"/>
       <c r="AE26" s="33"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="116"/>
+      <c r="AG26" s="120"/>
+      <c r="AH26" s="120"/>
       <c r="AI26" s="37"/>
       <c r="AL26" s="33"/>
       <c r="AM26" s="34"/>
@@ -9136,14 +9243,14 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="116">
+      <c r="Q27" s="120">
         <v>1</v>
       </c>
-      <c r="R27" s="116"/>
-      <c r="S27" s="116"/>
-      <c r="T27" s="116"/>
-      <c r="U27" s="116"/>
-      <c r="V27" s="116"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
       <c r="W27" s="33"/>
       <c r="X27" s="61"/>
       <c r="Y27" s="61"/>
@@ -9274,10 +9381,10 @@
       <c r="U29" s="64"/>
       <c r="V29" s="64"/>
       <c r="W29" s="33"/>
-      <c r="X29" s="117">
+      <c r="X29" s="130">
         <v>1</v>
       </c>
-      <c r="Y29" s="117"/>
+      <c r="Y29" s="130"/>
       <c r="Z29" s="61"/>
       <c r="AA29" s="61"/>
       <c r="AB29" s="61"/>
@@ -9328,22 +9435,22 @@
     </row>
     <row r="30" spans="4:104" ht="21" x14ac:dyDescent="0.4">
       <c r="I30" s="1"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
       <c r="R30" s="64"/>
       <c r="S30" s="64"/>
       <c r="T30" s="64"/>
       <c r="U30" s="64"/>
       <c r="V30" s="64"/>
       <c r="W30" s="33"/>
-      <c r="X30" s="117"/>
-      <c r="Y30" s="117"/>
+      <c r="X30" s="130"/>
+      <c r="Y30" s="130"/>
       <c r="Z30" s="61"/>
       <c r="AA30" s="61"/>
       <c r="AB30" s="61"/>
@@ -9403,7 +9510,7 @@
       <c r="N31" s="64"/>
       <c r="O31" s="64"/>
       <c r="P31" s="64"/>
-      <c r="Q31" s="72"/>
+      <c r="Q31" s="71"/>
       <c r="R31" s="64"/>
       <c r="S31" s="64"/>
       <c r="T31" s="64"/>
@@ -9542,7 +9649,7 @@
     <row r="33" spans="9:74" x14ac:dyDescent="0.4">
       <c r="I33" s="1"/>
       <c r="J33" s="64"/>
-      <c r="L33" s="72"/>
+      <c r="L33" s="71"/>
       <c r="M33" s="64"/>
       <c r="N33" s="64"/>
       <c r="O33" s="64"/>
@@ -9554,15 +9661,15 @@
       <c r="U33" s="64"/>
       <c r="V33" s="64"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="116">
+      <c r="X33" s="120">
         <v>1</v>
       </c>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="116"/>
-      <c r="AB33" s="116"/>
-      <c r="AC33" s="116"/>
-      <c r="AD33" s="116"/>
+      <c r="Y33" s="120"/>
+      <c r="Z33" s="120"/>
+      <c r="AA33" s="120"/>
+      <c r="AB33" s="120"/>
+      <c r="AC33" s="120"/>
+      <c r="AD33" s="120"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="37"/>
       <c r="AG33" s="37"/>
@@ -9606,23 +9713,23 @@
     <row r="34" spans="9:74" x14ac:dyDescent="0.4">
       <c r="I34" s="1"/>
       <c r="J34" s="64"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="72"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -9688,7 +9795,7 @@
       <c r="V35" s="64"/>
       <c r="W35" s="33"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="73"/>
+      <c r="Z35" s="72"/>
       <c r="AA35" s="37"/>
       <c r="AB35" s="37"/>
       <c r="AC35" s="37"/>
@@ -9752,7 +9859,7 @@
       <c r="V36" s="64"/>
       <c r="W36" s="33"/>
       <c r="Y36" s="1"/>
-      <c r="Z36" s="73"/>
+      <c r="Z36" s="72"/>
       <c r="AA36" s="37"/>
       <c r="AB36" s="37"/>
       <c r="AC36" s="37"/>
@@ -9801,22 +9908,22 @@
     </row>
     <row r="37" spans="9:74" x14ac:dyDescent="0.4">
       <c r="I37" s="1"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
       <c r="Q37" s="64"/>
       <c r="R37" s="64"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
       <c r="W37" s="33"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="73"/>
+      <c r="Z37" s="72"/>
       <c r="AB37" s="37"/>
       <c r="AC37" s="37"/>
       <c r="AD37" s="37"/>
@@ -9871,7 +9978,7 @@
       <c r="M38" s="64"/>
       <c r="N38" s="64"/>
       <c r="O38" s="64"/>
-      <c r="P38" s="72"/>
+      <c r="P38" s="71"/>
       <c r="Q38" s="64"/>
       <c r="R38" s="64"/>
       <c r="S38" s="64"/>
@@ -9880,7 +9987,7 @@
       <c r="V38" s="64"/>
       <c r="W38" s="33"/>
       <c r="Y38" s="1"/>
-      <c r="Z38" s="73"/>
+      <c r="Z38" s="72"/>
       <c r="AB38" s="33"/>
       <c r="AC38" s="33"/>
       <c r="AD38" s="1"/>
@@ -9893,12 +10000,12 @@
       <c r="AL38" s="33"/>
       <c r="AM38" s="33"/>
       <c r="AN38" s="33"/>
-      <c r="AO38" s="116">
+      <c r="AO38" s="120">
         <v>3</v>
       </c>
-      <c r="AP38" s="116"/>
-      <c r="AQ38" s="116"/>
-      <c r="AR38" s="116"/>
+      <c r="AP38" s="120"/>
+      <c r="AQ38" s="120"/>
+      <c r="AR38" s="120"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
@@ -9938,7 +10045,7 @@
       <c r="M39" s="64"/>
       <c r="N39" s="64"/>
       <c r="O39" s="64"/>
-      <c r="P39" s="72"/>
+      <c r="P39" s="71"/>
       <c r="Q39" s="64"/>
       <c r="R39" s="64"/>
       <c r="S39" s="64"/>
@@ -9947,7 +10054,7 @@
       <c r="V39" s="64"/>
       <c r="W39" s="33"/>
       <c r="Y39" s="1"/>
-      <c r="Z39" s="73"/>
+      <c r="Z39" s="72"/>
       <c r="AB39" s="33"/>
       <c r="AC39" s="37"/>
       <c r="AG39" s="37"/>
@@ -9961,7 +10068,7 @@
       <c r="AP39" s="37"/>
       <c r="AQ39" s="37"/>
       <c r="AR39" s="9"/>
-      <c r="AS39" s="119">
+      <c r="AS39" s="115">
         <v>2</v>
       </c>
       <c r="AU39" s="9"/>
@@ -10010,7 +10117,7 @@
       <c r="V40" s="64"/>
       <c r="W40" s="33"/>
       <c r="Y40" s="1"/>
-      <c r="Z40" s="73"/>
+      <c r="Z40" s="72"/>
       <c r="AB40" s="33"/>
       <c r="AC40" s="37"/>
       <c r="AG40" s="37"/>
@@ -10024,7 +10131,7 @@
       <c r="AP40" s="37"/>
       <c r="AQ40" s="37"/>
       <c r="AR40" s="9"/>
-      <c r="AS40" s="119"/>
+      <c r="AS40" s="115"/>
       <c r="AU40" s="9"/>
       <c r="AV40" s="9"/>
       <c r="AW40" s="9"/>
@@ -10071,7 +10178,7 @@
       <c r="V41" s="64"/>
       <c r="W41" s="33"/>
       <c r="Y41" s="1"/>
-      <c r="Z41" s="73"/>
+      <c r="Z41" s="72"/>
       <c r="AB41" s="33"/>
       <c r="AC41" s="37"/>
       <c r="AE41" s="33"/>
@@ -10083,7 +10190,7 @@
       <c r="AP41" s="37"/>
       <c r="AQ41" s="37"/>
       <c r="AR41" s="9"/>
-      <c r="AS41" s="119"/>
+      <c r="AS41" s="115"/>
       <c r="AU41" s="9"/>
       <c r="AV41" s="9"/>
       <c r="AW41" s="9"/>
@@ -10130,7 +10237,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="Y42" s="1"/>
-      <c r="Z42" s="73"/>
+      <c r="Z42" s="72"/>
       <c r="AB42" s="33"/>
       <c r="AE42" s="33"/>
       <c r="AF42" s="9"/>
@@ -10141,10 +10248,10 @@
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
-      <c r="AO42" s="119">
+      <c r="AO42" s="115">
         <v>2</v>
       </c>
-      <c r="AP42" s="119"/>
+      <c r="AP42" s="115"/>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
@@ -10170,12 +10277,12 @@
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="Y43" s="1"/>
-      <c r="Z43" s="73"/>
+      <c r="Z43" s="72"/>
       <c r="AB43" s="33"/>
-      <c r="AC43" s="116">
+      <c r="AC43" s="120">
         <v>3</v>
       </c>
-      <c r="AD43" s="116"/>
+      <c r="AD43" s="120"/>
       <c r="AE43" s="33"/>
       <c r="AH43" s="33"/>
       <c r="AK43" s="9"/>
@@ -10227,7 +10334,7 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
       <c r="Y44" s="1"/>
-      <c r="Z44" s="73"/>
+      <c r="Z44" s="72"/>
       <c r="AB44" s="37"/>
       <c r="AC44" s="37"/>
       <c r="AD44" s="37"/>
@@ -10281,7 +10388,7 @@
       <c r="W45" s="37"/>
       <c r="X45" s="37"/>
       <c r="Y45" s="33"/>
-      <c r="Z45" s="73"/>
+      <c r="Z45" s="72"/>
       <c r="AA45" s="37"/>
       <c r="AB45" s="37"/>
       <c r="AC45" s="37"/>
@@ -10336,7 +10443,7 @@
       <c r="W46" s="37"/>
       <c r="X46" s="37"/>
       <c r="Y46" s="33"/>
-      <c r="Z46" s="73"/>
+      <c r="Z46" s="72"/>
       <c r="AA46" s="37"/>
       <c r="AB46" s="37"/>
       <c r="AC46" s="37"/>
@@ -10397,7 +10504,7 @@
       <c r="W47" s="37"/>
       <c r="X47" s="37"/>
       <c r="Y47" s="33"/>
-      <c r="Z47" s="73"/>
+      <c r="Z47" s="72"/>
       <c r="AA47" s="37"/>
       <c r="AB47" s="37"/>
       <c r="AD47" s="37"/>
@@ -10455,7 +10562,7 @@
       <c r="W48" s="37"/>
       <c r="X48" s="37"/>
       <c r="Y48" s="33"/>
-      <c r="Z48" s="73"/>
+      <c r="Z48" s="72"/>
       <c r="AA48" s="37"/>
       <c r="AB48" s="37"/>
       <c r="AC48" s="37"/>
@@ -10521,7 +10628,7 @@
       <c r="W49" s="37"/>
       <c r="X49" s="37"/>
       <c r="Y49" s="33"/>
-      <c r="Z49" s="73"/>
+      <c r="Z49" s="72"/>
       <c r="AA49" s="33"/>
       <c r="AB49" s="33"/>
       <c r="AC49" s="33"/>
@@ -10587,7 +10694,7 @@
       <c r="W50" s="37"/>
       <c r="X50" s="37"/>
       <c r="Y50" s="33"/>
-      <c r="Z50" s="73"/>
+      <c r="Z50" s="72"/>
       <c r="AA50" s="33"/>
       <c r="AB50" s="33"/>
       <c r="AC50" s="33"/>
@@ -12330,11 +12437,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AO42:AP42"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="AS39:AS41"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AG25:AH26"/>
     <mergeCell ref="K3:AX5"/>
     <mergeCell ref="Z9:AA10"/>
     <mergeCell ref="AI9:AJ10"/>
@@ -12344,6 +12446,11 @@
     <mergeCell ref="X29:Y30"/>
     <mergeCell ref="Q27:V27"/>
     <mergeCell ref="S9:T10"/>
+    <mergeCell ref="AO42:AP42"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="AS39:AS41"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AG25:AH26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12354,68 +12461,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EFB6A8-5AC3-42DE-A478-1D31579B1464}">
-  <dimension ref="J7:AC40"/>
+  <dimension ref="G7:DE79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="68" width="3.09765625" customWidth="1"/>
+    <col min="1" max="127" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="Y7" s="118" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z7" s="118"/>
-    </row>
-    <row r="8" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="W8" s="7"/>
-      <c r="Y8" s="118"/>
-      <c r="Z8" s="118"/>
-    </row>
-    <row r="9" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="10:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="10" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-    </row>
-    <row r="11" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="J11" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -12423,18 +12507,21 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-    </row>
-    <row r="12" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="J12" s="1"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="131"/>
+    </row>
+    <row r="12" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -12442,18 +12529,32 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="33"/>
-    </row>
-    <row r="13" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="J13" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AF12" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG12" s="129"/>
+      <c r="AP12" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ12" s="129"/>
+      <c r="BF12" s="129" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG12" s="129"/>
+    </row>
+    <row r="13" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -12461,18 +12562,27 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="33"/>
-    </row>
-    <row r="14" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="J14" s="1"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="7"/>
+      <c r="AF13" s="129"/>
+      <c r="AG13" s="129"/>
+      <c r="AP13" s="129"/>
+      <c r="AQ13" s="129"/>
+      <c r="BF13" s="129"/>
+      <c r="BG13" s="129"/>
+    </row>
+    <row r="14" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -12480,18 +12590,53 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="33"/>
-    </row>
-    <row r="15" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="J15" s="1"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+    </row>
+    <row r="15" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -12499,18 +12644,53 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="1"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="33"/>
-    </row>
-    <row r="16" spans="10:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J16" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+    </row>
+    <row r="16" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -12518,433 +12698,2409 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="33"/>
-    </row>
-    <row r="17" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="J17" s="1"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+    </row>
+    <row r="17" spans="7:82" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="N17" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="146"/>
+      <c r="P17" s="146"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="128" t="s">
-        <v>44</v>
-      </c>
-      <c r="U17" s="129"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="33"/>
-    </row>
-    <row r="18" spans="10:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+    </row>
+    <row r="18" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="130"/>
-      <c r="U18" s="131"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="33"/>
-    </row>
-    <row r="19" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="J19" s="1"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+    </row>
+    <row r="19" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="146"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="33"/>
-    </row>
-    <row r="20" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AZ19" s="33"/>
+      <c r="BA19" s="33"/>
+      <c r="BT19" s="33"/>
+      <c r="BU19" s="33"/>
+      <c r="BW19" s="115">
+        <v>2</v>
+      </c>
+      <c r="BX19" s="115"/>
+      <c r="BY19" s="115"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+    </row>
+    <row r="20" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G20" s="1"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="33"/>
-    </row>
-    <row r="21" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="V21" s="1"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="33"/>
-    </row>
-    <row r="22" spans="10:29" x14ac:dyDescent="0.4">
+      <c r="W20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="33"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="33"/>
+      <c r="BA20" s="33"/>
+      <c r="BT20" s="33"/>
+      <c r="BU20" s="33"/>
+      <c r="BV20" s="3"/>
+      <c r="BW20" s="115"/>
+      <c r="BX20" s="115"/>
+      <c r="BY20" s="115"/>
+      <c r="BZ20" s="3"/>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+    </row>
+    <row r="21" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G21" s="1"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="33"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="33"/>
+      <c r="BA21" s="33"/>
+      <c r="BT21" s="33"/>
+      <c r="BU21" s="33"/>
+      <c r="BV21" s="3"/>
+      <c r="BW21" s="115"/>
+      <c r="BX21" s="115"/>
+      <c r="BY21" s="115"/>
+      <c r="BZ21" s="3"/>
+      <c r="CA21" s="3"/>
+      <c r="CB21" s="3"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+    </row>
+    <row r="22" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="33"/>
-    </row>
-    <row r="23" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="33"/>
-    </row>
-    <row r="24" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="33"/>
-    </row>
-    <row r="25" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="116">
+      <c r="W22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="33"/>
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="33"/>
+      <c r="BA22" s="33"/>
+      <c r="BT22" s="33"/>
+      <c r="BU22" s="33"/>
+      <c r="BV22" s="3"/>
+      <c r="BW22" s="3"/>
+      <c r="BX22" s="3"/>
+      <c r="BY22" s="3"/>
+      <c r="BZ22" s="3"/>
+      <c r="CA22" s="3"/>
+      <c r="CB22" s="3"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+    </row>
+    <row r="23" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="33"/>
+      <c r="BA23" s="33"/>
+      <c r="BT23" s="33"/>
+      <c r="BU23" s="33"/>
+      <c r="BV23" s="3"/>
+      <c r="BW23" s="3"/>
+      <c r="BX23" s="3"/>
+      <c r="BY23" s="3"/>
+      <c r="BZ23" s="3"/>
+      <c r="CA23" s="3"/>
+      <c r="CB23" s="3"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+    </row>
+    <row r="24" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="133" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH24" s="133"/>
+      <c r="AI24" s="133"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="33"/>
+      <c r="AN24" s="33"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="33"/>
+      <c r="BA24" s="33"/>
+      <c r="BT24" s="33"/>
+      <c r="BU24" s="33"/>
+      <c r="BV24" s="3"/>
+      <c r="BW24" s="3"/>
+      <c r="BX24" s="3"/>
+      <c r="BY24" s="3"/>
+      <c r="BZ24" s="3"/>
+      <c r="CA24" s="3"/>
+      <c r="CB24" s="3"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+    </row>
+    <row r="25" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G25" s="1"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="133"/>
+      <c r="AH25" s="133"/>
+      <c r="AI25" s="133"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
+      <c r="AM25" s="33"/>
+      <c r="AN25" s="33"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT25" s="132"/>
+      <c r="AU25" s="132"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="33"/>
+      <c r="BA25" s="33"/>
+      <c r="BT25" s="33"/>
+      <c r="BU25" s="33"/>
+      <c r="BV25" s="3"/>
+      <c r="BW25" s="3"/>
+      <c r="BX25" s="3"/>
+      <c r="BY25" s="3"/>
+      <c r="BZ25" s="3"/>
+      <c r="CA25" s="3"/>
+      <c r="CB25" s="3"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+    </row>
+    <row r="26" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G26" s="1"/>
+      <c r="H26" s="144">
+        <v>4</v>
+      </c>
+      <c r="I26" s="144"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="133"/>
+      <c r="AH26" s="133"/>
+      <c r="AI26" s="133"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="33"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="132"/>
+      <c r="AT26" s="132"/>
+      <c r="AU26" s="132"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="33"/>
+      <c r="BA26" s="33"/>
+      <c r="BT26" s="33"/>
+      <c r="BU26" s="33"/>
+      <c r="BV26" s="3"/>
+      <c r="BW26" s="3"/>
+      <c r="BX26" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="BY26" s="132"/>
+      <c r="BZ26" s="132"/>
+      <c r="CA26" s="3"/>
+      <c r="CB26" s="3"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+    </row>
+    <row r="27" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G27" s="1"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="66"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="132"/>
+      <c r="AT27" s="132"/>
+      <c r="AU27" s="132"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="33"/>
+      <c r="BA27" s="33"/>
+      <c r="BT27" s="33"/>
+      <c r="BU27" s="33"/>
+      <c r="BV27" s="3"/>
+      <c r="BW27" s="3"/>
+      <c r="BX27" s="132"/>
+      <c r="BY27" s="132"/>
+      <c r="BZ27" s="132"/>
+      <c r="CA27" s="3"/>
+      <c r="CB27" s="3"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+    </row>
+    <row r="28" spans="7:82" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="33"/>
+      <c r="AO28" s="136">
         <v>1</v>
       </c>
-      <c r="X25" s="116"/>
-      <c r="Y25" s="116"/>
-      <c r="Z25" s="116"/>
-      <c r="AA25" s="116"/>
-      <c r="AB25" s="116"/>
-      <c r="AC25" s="33"/>
-    </row>
-    <row r="26" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="O26" s="1"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="33"/>
-    </row>
-    <row r="27" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="O27" s="1"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="33"/>
-    </row>
-    <row r="28" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="O28" s="1"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="33"/>
-    </row>
-    <row r="29" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="O29" s="1"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="33"/>
-    </row>
-    <row r="30" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="O30" s="1"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="64"/>
-      <c r="AC30" s="33"/>
-    </row>
-    <row r="31" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="O31" s="1"/>
-      <c r="P31" s="64"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="64"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="64"/>
-      <c r="AB31" s="64"/>
-      <c r="AC31" s="1"/>
-    </row>
-    <row r="32" spans="10:29" x14ac:dyDescent="0.4">
-      <c r="O32" s="1"/>
-      <c r="P32" s="64"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-    </row>
-    <row r="33" spans="15:29" x14ac:dyDescent="0.4">
-      <c r="O33" s="1"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="68" t="s">
+      <c r="AP28" s="136"/>
+      <c r="AQ28" s="136"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="33"/>
+      <c r="BA28" s="33"/>
+      <c r="BT28" s="33"/>
+      <c r="BU28" s="33"/>
+      <c r="BV28" s="3"/>
+      <c r="BW28" s="3"/>
+      <c r="BX28" s="132"/>
+      <c r="BY28" s="132"/>
+      <c r="BZ28" s="132"/>
+      <c r="CA28" s="3"/>
+      <c r="CB28" s="3"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+    </row>
+    <row r="29" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="64"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="33"/>
-    </row>
-    <row r="34" spans="15:29" x14ac:dyDescent="0.4">
-      <c r="O34" s="1"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="33"/>
-    </row>
-    <row r="35" spans="15:29" x14ac:dyDescent="0.4">
-      <c r="O35" s="1"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="33"/>
-    </row>
-    <row r="36" spans="15:29" x14ac:dyDescent="0.4">
+      <c r="AA29" s="141"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="66"/>
+      <c r="AM29" s="33"/>
+      <c r="AN29" s="33"/>
+      <c r="AO29" s="136"/>
+      <c r="AP29" s="136"/>
+      <c r="AQ29" s="136"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="33"/>
+      <c r="BA29" s="33"/>
+      <c r="BT29" s="33"/>
+      <c r="BU29" s="33"/>
+      <c r="BV29" s="3"/>
+      <c r="BW29" s="3"/>
+      <c r="BX29" s="3"/>
+      <c r="BY29" s="3"/>
+      <c r="BZ29" s="3"/>
+      <c r="CA29" s="3"/>
+      <c r="CB29" s="3"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+    </row>
+    <row r="30" spans="7:82" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="142"/>
+      <c r="AA30" s="143"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="33"/>
+      <c r="AN30" s="33"/>
+      <c r="AO30" s="136"/>
+      <c r="AP30" s="136"/>
+      <c r="AQ30" s="136"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="33"/>
+      <c r="BA30" s="33"/>
+      <c r="BT30" s="33"/>
+      <c r="BU30" s="33"/>
+      <c r="BV30" s="3"/>
+      <c r="BW30" s="3"/>
+      <c r="BX30" s="3"/>
+      <c r="BY30" s="3"/>
+      <c r="BZ30" s="3"/>
+      <c r="CA30" s="3"/>
+      <c r="CB30" s="3"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+    </row>
+    <row r="31" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="33"/>
+      <c r="AN31" s="33"/>
+      <c r="AO31" s="33"/>
+      <c r="AP31" s="33"/>
+      <c r="AQ31" s="33"/>
+      <c r="AR31" s="33"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="33"/>
+      <c r="BA31" s="33"/>
+      <c r="BT31" s="33"/>
+      <c r="BU31" s="33"/>
+      <c r="BV31" s="3"/>
+      <c r="BW31" s="3"/>
+      <c r="BX31" s="3"/>
+      <c r="BY31" s="3"/>
+      <c r="BZ31" s="3"/>
+      <c r="CA31" s="3"/>
+      <c r="CB31" s="3"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+    </row>
+    <row r="32" spans="7:82" x14ac:dyDescent="0.4">
+      <c r="G32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="33"/>
+      <c r="AN32" s="33"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="33"/>
+      <c r="BA32" s="33"/>
+      <c r="BT32" s="33"/>
+      <c r="BU32" s="33"/>
+      <c r="BV32" s="3"/>
+      <c r="BW32" s="3"/>
+      <c r="BX32" s="3"/>
+      <c r="BY32" s="3"/>
+      <c r="BZ32" s="3"/>
+      <c r="CA32" s="3"/>
+      <c r="CB32" s="3"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+    </row>
+    <row r="33" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="33"/>
+      <c r="BA33" s="33"/>
+      <c r="BT33" s="33"/>
+      <c r="BU33" s="33"/>
+      <c r="BV33" s="3"/>
+      <c r="BW33" s="3"/>
+      <c r="BX33" s="3"/>
+      <c r="BY33" s="3"/>
+      <c r="BZ33" s="3"/>
+      <c r="CA33" s="3"/>
+      <c r="CB33" s="3"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+    </row>
+    <row r="34" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="33"/>
+      <c r="BA34" s="33"/>
+      <c r="BC34" s="137">
+        <v>3</v>
+      </c>
+      <c r="BD34" s="137"/>
+      <c r="BT34" s="33"/>
+      <c r="BU34" s="33"/>
+      <c r="BV34" s="3"/>
+      <c r="BW34" s="3"/>
+      <c r="BX34" s="3"/>
+      <c r="BY34" s="3"/>
+      <c r="BZ34" s="3"/>
+      <c r="CA34" s="3"/>
+      <c r="CB34" s="3"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+    </row>
+    <row r="35" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="66"/>
+      <c r="AL35" s="66"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="33"/>
+      <c r="BA35" s="33"/>
+      <c r="BC35" s="137"/>
+      <c r="BD35" s="137"/>
+      <c r="BT35" s="33"/>
+      <c r="BU35" s="33"/>
+      <c r="BV35" s="3"/>
+      <c r="BW35" s="3"/>
+      <c r="BX35" s="3"/>
+      <c r="BY35" s="3"/>
+      <c r="BZ35" s="3"/>
+      <c r="CA35" s="3"/>
+      <c r="CB35" s="3"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+    </row>
+    <row r="36" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="64"/>
-      <c r="AB36" s="64"/>
-      <c r="AC36" s="33"/>
-    </row>
-    <row r="37" spans="15:29" x14ac:dyDescent="0.4">
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="135">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="135"/>
+      <c r="AF36" s="135"/>
+      <c r="AG36" s="135"/>
+      <c r="AH36" s="135"/>
+      <c r="AI36" s="135"/>
+      <c r="AJ36" s="135"/>
+      <c r="AK36" s="135"/>
+      <c r="AL36" s="135"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="33"/>
+      <c r="BA36" s="33"/>
+      <c r="BB36" s="33"/>
+      <c r="BC36" s="33"/>
+      <c r="BD36" s="33"/>
+      <c r="BE36" s="33"/>
+      <c r="BF36" s="33"/>
+      <c r="BG36" s="33"/>
+      <c r="BH36" s="33"/>
+      <c r="BT36" s="33"/>
+      <c r="BU36" s="33"/>
+      <c r="BV36" s="3"/>
+      <c r="BW36" s="3"/>
+      <c r="BX36" s="3"/>
+      <c r="BY36" s="3"/>
+      <c r="BZ36" s="3"/>
+      <c r="CA36" s="3"/>
+      <c r="CB36" s="3"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+    </row>
+    <row r="37" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="64"/>
-      <c r="AC37" s="33"/>
-    </row>
-    <row r="38" spans="15:29" x14ac:dyDescent="0.4">
-      <c r="O38" s="1"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="64"/>
-      <c r="AC38" s="33"/>
-    </row>
-    <row r="39" spans="15:29" x14ac:dyDescent="0.4">
-      <c r="O39" s="1"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="64"/>
-      <c r="Z39" s="64"/>
-      <c r="AA39" s="64"/>
-      <c r="AB39" s="64"/>
-      <c r="AC39" s="33"/>
-    </row>
-    <row r="40" spans="15:29" x14ac:dyDescent="0.4">
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="135"/>
+      <c r="AE37" s="135"/>
+      <c r="AF37" s="135"/>
+      <c r="AG37" s="135"/>
+      <c r="AH37" s="135"/>
+      <c r="AI37" s="135"/>
+      <c r="AJ37" s="135"/>
+      <c r="AK37" s="135"/>
+      <c r="AL37" s="135"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="33"/>
+      <c r="BA37" s="33"/>
+      <c r="BB37" s="33"/>
+      <c r="BC37" s="33"/>
+      <c r="BD37" s="33"/>
+      <c r="BE37" s="33"/>
+      <c r="BF37" s="33"/>
+      <c r="BG37" s="33"/>
+      <c r="BH37" s="33"/>
+      <c r="BT37" s="33"/>
+      <c r="BU37" s="33"/>
+      <c r="BV37" s="3"/>
+      <c r="BW37" s="3"/>
+      <c r="BX37" s="3"/>
+      <c r="BY37" s="3"/>
+      <c r="BZ37" s="3"/>
+      <c r="CA37" s="3"/>
+      <c r="CB37" s="3"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+    </row>
+    <row r="38" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="33"/>
+      <c r="BA38" s="33"/>
+      <c r="BG38" s="33"/>
+      <c r="BH38" s="33"/>
+      <c r="BT38" s="33"/>
+      <c r="BU38" s="33"/>
+      <c r="BV38" s="3"/>
+      <c r="BW38" s="3"/>
+      <c r="BX38" s="3"/>
+      <c r="BY38" s="3"/>
+      <c r="BZ38" s="3"/>
+      <c r="CA38" s="3"/>
+      <c r="CB38" s="3"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+    </row>
+    <row r="39" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="115">
+        <v>4</v>
+      </c>
+      <c r="P39" s="115"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="33"/>
+      <c r="BA39" s="33"/>
+      <c r="BG39" s="33"/>
+      <c r="BH39" s="33"/>
+      <c r="BT39" s="33"/>
+      <c r="BU39" s="33"/>
+      <c r="BV39" s="3"/>
+      <c r="BW39" s="3"/>
+      <c r="BX39" s="3"/>
+      <c r="BY39" s="3"/>
+      <c r="BZ39" s="3"/>
+      <c r="CA39" s="3"/>
+      <c r="CB39" s="3"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+    </row>
+    <row r="40" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="115"/>
+      <c r="P40" s="115"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="33"/>
+      <c r="BA40" s="33"/>
+      <c r="BG40" s="33"/>
+      <c r="BH40" s="33"/>
+      <c r="BT40" s="33"/>
+      <c r="BU40" s="33"/>
+      <c r="BV40" s="3"/>
+      <c r="BW40" s="3"/>
+      <c r="BX40" s="3"/>
+      <c r="BY40" s="3"/>
+      <c r="BZ40" s="3"/>
+      <c r="CA40" s="3"/>
+      <c r="CB40" s="3"/>
+      <c r="CC40" s="1"/>
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="1"/>
+      <c r="CF40" s="1"/>
+      <c r="CG40" s="1"/>
+      <c r="CH40" s="1"/>
+      <c r="CI40" s="1"/>
+      <c r="CJ40" s="1"/>
+      <c r="CK40" s="1"/>
+      <c r="CL40" s="1"/>
+      <c r="CM40" s="1"/>
+      <c r="CN40" s="1"/>
+    </row>
+    <row r="41" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="33"/>
+      <c r="BA41" s="33"/>
+      <c r="BG41" s="33"/>
+      <c r="BH41" s="33"/>
+      <c r="BT41" s="33"/>
+      <c r="BU41" s="33"/>
+      <c r="BV41" s="3"/>
+      <c r="BW41" s="3"/>
+      <c r="BX41" s="3"/>
+      <c r="BY41" s="3"/>
+      <c r="BZ41" s="3"/>
+      <c r="CA41" s="3"/>
+      <c r="CB41" s="3"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
+    </row>
+    <row r="42" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="33"/>
+      <c r="BA42" s="33"/>
+      <c r="BG42" s="33"/>
+      <c r="BH42" s="33"/>
+      <c r="BT42" s="33"/>
+      <c r="BU42" s="33"/>
+      <c r="BV42" s="3"/>
+      <c r="BW42" s="3"/>
+      <c r="BX42" s="3"/>
+      <c r="BY42" s="3"/>
+      <c r="BZ42" s="3"/>
+      <c r="CA42" s="3"/>
+      <c r="CB42" s="3"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
+    </row>
+    <row r="43" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="33"/>
+      <c r="BA43" s="33"/>
+      <c r="BG43" s="33"/>
+      <c r="BH43" s="33"/>
+      <c r="BT43" s="33"/>
+      <c r="BU43" s="33"/>
+      <c r="BV43" s="3"/>
+      <c r="BW43" s="3"/>
+      <c r="BX43" s="3"/>
+      <c r="BY43" s="3"/>
+      <c r="BZ43" s="3"/>
+      <c r="CA43" s="3"/>
+      <c r="CB43" s="3"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
+    </row>
+    <row r="44" spans="7:109" ht="30" x14ac:dyDescent="0.4">
+      <c r="G44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="134">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="134"/>
+      <c r="AQ44" s="134"/>
+      <c r="AR44" s="134"/>
+      <c r="AS44" s="134"/>
+      <c r="AT44" s="134"/>
+      <c r="AU44" s="134"/>
+      <c r="AV44" s="134"/>
+      <c r="AW44" s="134"/>
+      <c r="AX44" s="134"/>
+      <c r="AY44" s="134"/>
+      <c r="AZ44" s="33"/>
+      <c r="BA44" s="33"/>
+      <c r="BG44" s="33"/>
+      <c r="BH44" s="33"/>
+      <c r="BT44" s="33"/>
+      <c r="BU44" s="33"/>
+      <c r="BV44" s="3"/>
+      <c r="BW44" s="3"/>
+      <c r="BX44" s="3"/>
+      <c r="BY44" s="3"/>
+      <c r="BZ44" s="3"/>
+      <c r="CA44" s="3"/>
+      <c r="CB44" s="3"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
+    </row>
+    <row r="45" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="33"/>
+      <c r="AP45" s="33"/>
+      <c r="AQ45" s="33"/>
+      <c r="AR45" s="33"/>
+      <c r="AS45" s="33"/>
+      <c r="AT45" s="33"/>
+      <c r="AU45" s="33"/>
+      <c r="AV45" s="33"/>
+      <c r="AW45" s="33"/>
+      <c r="AX45" s="33"/>
+      <c r="AY45" s="33"/>
+      <c r="AZ45" s="33"/>
+      <c r="BA45" s="33"/>
+      <c r="BG45" s="33"/>
+      <c r="BH45" s="33"/>
+      <c r="BT45" s="33"/>
+      <c r="BU45" s="33"/>
+      <c r="BV45" s="3"/>
+      <c r="BW45" s="3"/>
+      <c r="BX45" s="3"/>
+      <c r="BY45" s="3"/>
+      <c r="BZ45" s="3"/>
+      <c r="CA45" s="3"/>
+      <c r="CB45" s="3"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+    </row>
+    <row r="46" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="33"/>
+      <c r="AP46" s="33"/>
+      <c r="AQ46" s="33"/>
+      <c r="AR46" s="33"/>
+      <c r="AS46" s="33"/>
+      <c r="AT46" s="33"/>
+      <c r="AU46" s="33"/>
+      <c r="AV46" s="33"/>
+      <c r="AW46" s="33"/>
+      <c r="AX46" s="33"/>
+      <c r="AY46" s="33"/>
+      <c r="AZ46" s="33"/>
+      <c r="BA46" s="33"/>
+      <c r="BG46" s="33"/>
+      <c r="BH46" s="33"/>
+      <c r="BT46" s="33"/>
+      <c r="BU46" s="33"/>
+      <c r="BV46" s="3"/>
+      <c r="BW46" s="3"/>
+      <c r="BX46" s="3"/>
+      <c r="BY46" s="3"/>
+      <c r="BZ46" s="3"/>
+      <c r="CA46" s="3"/>
+      <c r="CB46" s="3"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
+    </row>
+    <row r="47" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AP47" s="33"/>
+      <c r="AQ47" s="33"/>
+      <c r="AR47" s="33"/>
+      <c r="AY47" s="33"/>
+      <c r="AZ47" s="33"/>
+      <c r="BA47" s="33"/>
+      <c r="BG47" s="33"/>
+      <c r="BH47" s="33"/>
+      <c r="BT47" s="33"/>
+      <c r="BU47" s="33"/>
+      <c r="BV47" s="139">
+        <v>3</v>
+      </c>
+      <c r="BW47" s="139"/>
+      <c r="BX47" s="139"/>
+      <c r="BY47" s="139"/>
+      <c r="BZ47" s="139"/>
+      <c r="CA47" s="139"/>
+      <c r="CB47" s="139"/>
+      <c r="CC47" s="1"/>
+      <c r="CD47" s="1"/>
+      <c r="CE47" s="1"/>
+      <c r="CF47" s="1"/>
+      <c r="CG47" s="1"/>
+      <c r="CH47" s="1"/>
+      <c r="CI47" s="1"/>
+      <c r="CJ47" s="1"/>
+      <c r="CK47" s="1"/>
+      <c r="CL47" s="1"/>
+      <c r="CM47" s="1"/>
+      <c r="CN47" s="1"/>
+      <c r="CO47" s="1"/>
+      <c r="CP47" s="1"/>
+      <c r="CQ47" s="1"/>
+      <c r="CR47" s="1"/>
+      <c r="CS47" s="1"/>
+      <c r="CT47" s="1"/>
+      <c r="CU47" s="1"/>
+      <c r="CV47" s="1"/>
+      <c r="CW47" s="1"/>
+      <c r="CX47" s="1"/>
+      <c r="CY47" s="1"/>
+      <c r="CZ47" s="1"/>
+      <c r="DA47" s="1"/>
+      <c r="DB47" s="1"/>
+      <c r="DC47" s="1"/>
+      <c r="DD47" s="1"/>
+      <c r="DE47" s="1"/>
+    </row>
+    <row r="48" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="137">
+        <v>4</v>
+      </c>
+      <c r="P48" s="137"/>
+      <c r="Q48" s="137"/>
+      <c r="R48" s="137"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AP48" s="33"/>
+      <c r="AQ48" s="33"/>
+      <c r="AR48" s="33"/>
+      <c r="AY48" s="33"/>
+      <c r="AZ48" s="33"/>
+      <c r="BA48" s="33"/>
+      <c r="BG48" s="33"/>
+      <c r="BH48" s="33"/>
+      <c r="BT48" s="33"/>
+      <c r="BU48" s="33"/>
+      <c r="BV48" s="139"/>
+      <c r="BW48" s="139"/>
+      <c r="BX48" s="139"/>
+      <c r="BY48" s="139"/>
+      <c r="BZ48" s="139"/>
+      <c r="CA48" s="139"/>
+      <c r="CB48" s="139"/>
+      <c r="CC48" s="1"/>
+      <c r="CD48" s="1"/>
+      <c r="CE48" s="1"/>
+      <c r="CF48" s="1"/>
+      <c r="CG48" s="1"/>
+      <c r="CH48" s="1"/>
+      <c r="CI48" s="1"/>
+      <c r="CJ48" s="1"/>
+      <c r="CK48" s="1"/>
+      <c r="CL48" s="1"/>
+      <c r="CM48" s="1"/>
+      <c r="CN48" s="1"/>
+      <c r="CO48" s="1"/>
+      <c r="CP48" s="1"/>
+      <c r="CQ48" s="1"/>
+      <c r="CR48" s="1"/>
+      <c r="CS48" s="1"/>
+      <c r="CT48" s="1"/>
+      <c r="CU48" s="1"/>
+      <c r="CV48" s="1"/>
+      <c r="CW48" s="1"/>
+      <c r="CX48" s="1"/>
+      <c r="CY48" s="1"/>
+      <c r="CZ48" s="1"/>
+      <c r="DA48" s="1"/>
+      <c r="DB48" s="1"/>
+      <c r="DC48" s="1"/>
+      <c r="DD48" s="1"/>
+      <c r="DE48" s="1"/>
+    </row>
+    <row r="49" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="137"/>
+      <c r="P49" s="137"/>
+      <c r="Q49" s="137"/>
+      <c r="R49" s="137"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AP49" s="33"/>
+      <c r="AQ49" s="33"/>
+      <c r="AR49" s="33"/>
+      <c r="AT49" s="33"/>
+      <c r="AU49" s="33"/>
+      <c r="AV49" s="33"/>
+      <c r="AW49" s="33"/>
+      <c r="AX49" s="33"/>
+      <c r="AY49" s="33"/>
+      <c r="AZ49" s="33"/>
+      <c r="BA49" s="33"/>
+      <c r="BG49" s="33"/>
+      <c r="BH49" s="33"/>
+      <c r="BT49" s="33"/>
+      <c r="BU49" s="33"/>
+      <c r="CC49" s="138">
+        <v>2</v>
+      </c>
+      <c r="CD49" s="138"/>
+      <c r="DD49" s="1"/>
+      <c r="DE49" s="1"/>
+    </row>
+    <row r="50" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AP50" s="33"/>
+      <c r="AQ50" s="33"/>
+      <c r="AR50" s="33"/>
+      <c r="AT50" s="33"/>
+      <c r="AU50" s="33"/>
+      <c r="AV50" s="33"/>
+      <c r="AW50" s="33"/>
+      <c r="AX50" s="33"/>
+      <c r="AY50" s="33"/>
+      <c r="AZ50" s="33"/>
+      <c r="BA50" s="33"/>
+      <c r="BG50" s="33"/>
+      <c r="BH50" s="33"/>
+      <c r="BT50" s="33"/>
+      <c r="BU50" s="33"/>
+      <c r="CC50" s="138"/>
+      <c r="CD50" s="138"/>
+      <c r="DD50" s="1"/>
+      <c r="DE50" s="1"/>
+    </row>
+    <row r="51" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AP51" s="33"/>
+      <c r="AQ51" s="33"/>
+      <c r="AR51" s="33"/>
+      <c r="AT51" s="33"/>
+      <c r="AU51" s="33"/>
+      <c r="BG51" s="33"/>
+      <c r="BH51" s="33"/>
+      <c r="BT51" s="33"/>
+      <c r="BU51" s="33"/>
+      <c r="CC51" s="138"/>
+      <c r="CD51" s="138"/>
+      <c r="DD51" s="1"/>
+      <c r="DE51" s="1"/>
+    </row>
+    <row r="52" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AP52" s="33"/>
+      <c r="AQ52" s="33"/>
+      <c r="AR52" s="33"/>
+      <c r="AT52" s="33"/>
+      <c r="AU52" s="33"/>
+      <c r="BG52" s="33"/>
+      <c r="BH52" s="33"/>
+      <c r="BT52" s="33"/>
+      <c r="BU52" s="33"/>
+      <c r="CC52" s="138"/>
+      <c r="CD52" s="138"/>
+      <c r="DD52" s="1"/>
+      <c r="DE52" s="1"/>
+    </row>
+    <row r="53" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AP53" s="33"/>
+      <c r="AQ53" s="33"/>
+      <c r="AR53" s="33"/>
+      <c r="AT53" s="33"/>
+      <c r="AU53" s="33"/>
+      <c r="AZ53" s="33"/>
+      <c r="BA53" s="33"/>
+      <c r="BG53" s="33"/>
+      <c r="BH53" s="33"/>
+      <c r="BT53" s="33"/>
+      <c r="BU53" s="33"/>
+      <c r="CC53" s="138"/>
+      <c r="CD53" s="138"/>
+      <c r="DD53" s="1"/>
+      <c r="DE53" s="1"/>
+    </row>
+    <row r="54" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AP54" s="33"/>
+      <c r="AQ54" s="33"/>
+      <c r="AR54" s="33"/>
+      <c r="AT54" s="33"/>
+      <c r="AU54" s="33"/>
+      <c r="AZ54" s="33"/>
+      <c r="BA54" s="33"/>
+      <c r="BG54" s="33"/>
+      <c r="BH54" s="33"/>
+      <c r="BT54" s="33"/>
+      <c r="BU54" s="33"/>
+      <c r="CC54" s="138"/>
+      <c r="CD54" s="138"/>
+      <c r="DD54" s="1"/>
+      <c r="DE54" s="1"/>
+    </row>
+    <row r="55" spans="7:109" ht="30" x14ac:dyDescent="0.4">
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AP55" s="33"/>
+      <c r="AQ55" s="33"/>
+      <c r="AR55" s="33"/>
+      <c r="AT55" s="33"/>
+      <c r="AU55" s="33"/>
+      <c r="AV55" s="134">
+        <v>3</v>
+      </c>
+      <c r="AW55" s="134"/>
+      <c r="AX55" s="134"/>
+      <c r="AY55" s="134"/>
+      <c r="AZ55" s="33"/>
+      <c r="BA55" s="33"/>
+      <c r="BG55" s="33"/>
+      <c r="BH55" s="33"/>
+      <c r="BT55" s="33"/>
+      <c r="BU55" s="33"/>
+      <c r="BW55" s="139">
+        <v>2</v>
+      </c>
+      <c r="BX55" s="139"/>
+      <c r="BY55" s="139"/>
+      <c r="BZ55" s="139"/>
+      <c r="CA55" s="139"/>
+      <c r="CC55" s="138"/>
+      <c r="CD55" s="138"/>
+      <c r="DD55" s="1"/>
+      <c r="DE55" s="1"/>
+    </row>
+    <row r="56" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AP56" s="33"/>
+      <c r="AQ56" s="33"/>
+      <c r="AR56" s="33"/>
+      <c r="AT56" s="33"/>
+      <c r="AU56" s="33"/>
+      <c r="AV56" s="33"/>
+      <c r="AW56" s="33"/>
+      <c r="AX56" s="33"/>
+      <c r="AY56" s="33"/>
+      <c r="AZ56" s="33"/>
+      <c r="BA56" s="33"/>
+      <c r="BG56" s="33"/>
+      <c r="BH56" s="33"/>
+      <c r="BT56" s="33"/>
+      <c r="BU56" s="33"/>
+      <c r="BV56" s="1"/>
+      <c r="BW56" s="139"/>
+      <c r="BX56" s="139"/>
+      <c r="BY56" s="139"/>
+      <c r="BZ56" s="139"/>
+      <c r="CA56" s="139"/>
+      <c r="CB56" s="1"/>
+      <c r="CC56" s="1"/>
+      <c r="CD56" s="1"/>
+      <c r="CE56" s="1"/>
+      <c r="CF56" s="1"/>
+      <c r="DD56" s="1"/>
+      <c r="DE56" s="1"/>
+    </row>
+    <row r="57" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="AP57" s="33"/>
+      <c r="AQ57" s="33"/>
+      <c r="AR57" s="33"/>
+      <c r="AT57" s="33"/>
+      <c r="AU57" s="33"/>
+      <c r="AV57" s="33"/>
+      <c r="AW57" s="33"/>
+      <c r="AX57" s="33"/>
+      <c r="AY57" s="33"/>
+      <c r="AZ57" s="33"/>
+      <c r="BA57" s="33"/>
+      <c r="BG57" s="33"/>
+      <c r="BH57" s="33"/>
+      <c r="BT57" s="33"/>
+      <c r="BU57" s="33"/>
+      <c r="BV57" s="1"/>
+      <c r="BW57" s="1"/>
+      <c r="BX57" s="1"/>
+      <c r="BY57" s="1"/>
+      <c r="BZ57" s="1"/>
+      <c r="CA57" s="1"/>
+      <c r="CB57" s="1"/>
+      <c r="CC57" s="1"/>
+      <c r="CD57" s="1"/>
+      <c r="CE57" s="1"/>
+      <c r="CF57" s="1"/>
+      <c r="CQ57" s="1"/>
+      <c r="CR57" s="1"/>
+      <c r="CS57" s="1"/>
+      <c r="CT57" s="1"/>
+      <c r="CU57" s="1"/>
+      <c r="CV57" s="1"/>
+      <c r="CW57" s="1"/>
+      <c r="CX57" s="1"/>
+      <c r="CY57" s="1"/>
+      <c r="CZ57" s="1"/>
+      <c r="DA57" s="1"/>
+      <c r="DB57" s="1"/>
+      <c r="DC57" s="1"/>
+      <c r="DD57" s="1"/>
+      <c r="DE57" s="1"/>
+    </row>
+    <row r="58" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="AP58" s="33"/>
+      <c r="AQ58" s="33"/>
+      <c r="AR58" s="33"/>
+      <c r="AZ58" s="33"/>
+      <c r="BA58" s="33"/>
+      <c r="BG58" s="33"/>
+      <c r="BH58" s="33"/>
+      <c r="BT58" s="33"/>
+      <c r="BU58" s="33"/>
+      <c r="BW58" s="1"/>
+      <c r="BX58" s="1"/>
+      <c r="CB58" s="1"/>
+      <c r="CC58" s="1"/>
+      <c r="CQ58" s="1"/>
+      <c r="CR58" s="1"/>
+      <c r="CS58" s="1"/>
+      <c r="CT58" s="1"/>
+      <c r="CU58" s="1"/>
+      <c r="CV58" s="1"/>
+      <c r="CW58" s="1"/>
+      <c r="CX58" s="1"/>
+      <c r="CY58" s="1"/>
+      <c r="CZ58" s="1"/>
+      <c r="DA58" s="1"/>
+      <c r="DB58" s="1"/>
+      <c r="DC58" s="1"/>
+      <c r="DD58" s="1"/>
+      <c r="DE58" s="1"/>
+    </row>
+    <row r="59" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="AP59" s="33"/>
+      <c r="AQ59" s="33"/>
+      <c r="AR59" s="33"/>
+      <c r="AZ59" s="33"/>
+      <c r="BA59" s="33"/>
+      <c r="BG59" s="33"/>
+      <c r="BH59" s="33"/>
+      <c r="BT59" s="33"/>
+      <c r="BU59" s="33"/>
+      <c r="BW59" s="1"/>
+      <c r="BX59" s="1"/>
+      <c r="CB59" s="1"/>
+      <c r="CC59" s="1"/>
+      <c r="DD59" s="1"/>
+      <c r="DE59" s="1"/>
+    </row>
+    <row r="60" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="AP60" s="33"/>
+      <c r="AQ60" s="33"/>
+      <c r="AR60" s="33"/>
+      <c r="AZ60" s="33"/>
+      <c r="BA60" s="33"/>
+      <c r="BT60" s="33"/>
+      <c r="BU60" s="33"/>
+      <c r="BW60" s="1"/>
+      <c r="BX60" s="1"/>
+      <c r="CB60" s="1"/>
+      <c r="CC60" s="1"/>
+      <c r="DD60" s="1"/>
+      <c r="DE60" s="1"/>
+    </row>
+    <row r="61" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="AP61" s="33"/>
+      <c r="AQ61" s="33"/>
+      <c r="AR61" s="33"/>
+      <c r="AZ61" s="33"/>
+      <c r="BA61" s="33"/>
+      <c r="BT61" s="33"/>
+      <c r="BU61" s="33"/>
+      <c r="BW61" s="1"/>
+      <c r="BX61" s="1"/>
+      <c r="CB61" s="1"/>
+      <c r="CC61" s="1"/>
+      <c r="DD61" s="1"/>
+      <c r="DE61" s="1"/>
+    </row>
+    <row r="62" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="AP62" s="33"/>
+      <c r="AQ62" s="33"/>
+      <c r="AR62" s="33"/>
+      <c r="AZ62" s="33"/>
+      <c r="BA62" s="33"/>
+      <c r="BT62" s="33"/>
+      <c r="BU62" s="33"/>
+      <c r="BW62" s="1"/>
+      <c r="BX62" s="1"/>
+      <c r="CB62" s="1"/>
+      <c r="CC62" s="1"/>
+      <c r="DD62" s="1"/>
+      <c r="DE62" s="1"/>
+    </row>
+    <row r="63" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="AP63" s="33"/>
+      <c r="AQ63" s="33"/>
+      <c r="AR63" s="33"/>
+      <c r="AZ63" s="33"/>
+      <c r="BA63" s="33"/>
+      <c r="BT63" s="33"/>
+      <c r="BU63" s="33"/>
+      <c r="BW63" s="1"/>
+      <c r="BX63" s="1"/>
+      <c r="CB63" s="1"/>
+      <c r="CC63" s="1"/>
+      <c r="CD63" s="1"/>
+      <c r="CE63" s="1"/>
+      <c r="CF63" s="1"/>
+      <c r="CG63" s="1"/>
+      <c r="CH63" s="1"/>
+      <c r="CI63" s="1"/>
+      <c r="CJ63" s="1"/>
+      <c r="CK63" s="1"/>
+      <c r="CL63" s="1"/>
+      <c r="CM63" s="1"/>
+      <c r="CN63" s="1"/>
+      <c r="CO63" s="1"/>
+      <c r="CP63" s="1"/>
+      <c r="CQ63" s="1"/>
+      <c r="CR63" s="1"/>
+      <c r="CS63" s="1"/>
+      <c r="DD63" s="1"/>
+      <c r="DE63" s="1"/>
+    </row>
+    <row r="64" spans="7:109" x14ac:dyDescent="0.4">
+      <c r="AP64" s="33"/>
+      <c r="AQ64" s="33"/>
+      <c r="AR64" s="33"/>
+      <c r="AS64" s="33"/>
+      <c r="AT64" s="33"/>
+      <c r="AU64" s="33"/>
+      <c r="AV64" s="33"/>
+      <c r="AW64" s="33"/>
+      <c r="AX64" s="33"/>
+      <c r="AY64" s="33"/>
+      <c r="AZ64" s="33"/>
+      <c r="BA64" s="33"/>
+      <c r="BT64" s="33"/>
+      <c r="BU64" s="33"/>
+      <c r="BW64" s="1"/>
+      <c r="BX64" s="1"/>
+      <c r="CB64" s="1"/>
+      <c r="CC64" s="1"/>
+      <c r="CD64" s="1"/>
+      <c r="CE64" s="1"/>
+      <c r="CF64" s="1"/>
+      <c r="CG64" s="1"/>
+      <c r="CH64" s="1"/>
+      <c r="CI64" s="1"/>
+      <c r="CJ64" s="1"/>
+      <c r="CK64" s="1"/>
+      <c r="CL64" s="1"/>
+      <c r="CM64" s="1"/>
+      <c r="CN64" s="1"/>
+      <c r="CO64" s="1"/>
+      <c r="CP64" s="1"/>
+      <c r="CQ64" s="1"/>
+      <c r="CR64" s="1"/>
+      <c r="CS64" s="1"/>
+      <c r="DD64" s="1"/>
+      <c r="DE64" s="1"/>
+    </row>
+    <row r="65" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AP65" s="33"/>
+      <c r="AQ65" s="33"/>
+      <c r="AR65" s="33"/>
+      <c r="AS65" s="33"/>
+      <c r="AT65" s="33"/>
+      <c r="AU65" s="33"/>
+      <c r="AV65" s="33"/>
+      <c r="AW65" s="33"/>
+      <c r="AX65" s="33"/>
+      <c r="AY65" s="33"/>
+      <c r="AZ65" s="33"/>
+      <c r="BA65" s="33"/>
+      <c r="BT65" s="33"/>
+      <c r="BU65" s="33"/>
+      <c r="BW65" s="1"/>
+      <c r="BX65" s="1"/>
+      <c r="DD65" s="1"/>
+      <c r="DE65" s="1"/>
+    </row>
+    <row r="66" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AP66" s="33"/>
+      <c r="AQ66" s="33"/>
+      <c r="AR66" s="33"/>
+      <c r="AS66" s="33"/>
+      <c r="AT66" s="33"/>
+      <c r="AU66" s="33"/>
+      <c r="AV66" s="33"/>
+      <c r="AW66" s="33"/>
+      <c r="AX66" s="33"/>
+      <c r="AY66" s="33"/>
+      <c r="AZ66" s="33"/>
+      <c r="BA66" s="33"/>
+      <c r="BT66" s="33"/>
+      <c r="BU66" s="33"/>
+      <c r="BW66" s="1"/>
+      <c r="BX66" s="1"/>
+      <c r="DD66" s="1"/>
+      <c r="DE66" s="1"/>
+    </row>
+    <row r="67" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ67" s="33"/>
+      <c r="BA67" s="33"/>
+      <c r="BT67" s="33"/>
+      <c r="BU67" s="33"/>
+      <c r="BW67" s="1"/>
+      <c r="BX67" s="1"/>
+      <c r="DA67" s="11"/>
+      <c r="DB67" s="11"/>
+      <c r="DC67" s="11"/>
+      <c r="DD67" s="1"/>
+      <c r="DE67" s="1"/>
+    </row>
+    <row r="68" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ68" s="33"/>
+      <c r="BA68" s="33"/>
+      <c r="BT68" s="33"/>
+      <c r="BU68" s="33"/>
+      <c r="BW68" s="1"/>
+      <c r="BX68" s="1"/>
+      <c r="DA68" s="11"/>
+      <c r="DB68" s="11"/>
+      <c r="DC68" s="11"/>
+      <c r="DD68" s="1"/>
+      <c r="DE68" s="1"/>
+    </row>
+    <row r="69" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ69" s="33"/>
+      <c r="BA69" s="33"/>
+      <c r="BT69" s="33"/>
+      <c r="BU69" s="33"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="DA69" s="11"/>
+      <c r="DB69" s="11"/>
+      <c r="DC69" s="11"/>
+      <c r="DD69" s="1"/>
+      <c r="DE69" s="1"/>
+    </row>
+    <row r="70" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ70" s="33"/>
+      <c r="BA70" s="33"/>
+      <c r="BT70" s="33"/>
+      <c r="BU70" s="33"/>
+      <c r="BW70" s="1"/>
+      <c r="BX70" s="1"/>
+      <c r="DA70" s="11"/>
+      <c r="DB70" s="11"/>
+      <c r="DC70" s="11"/>
+      <c r="DD70" s="1"/>
+      <c r="DE70" s="1"/>
+    </row>
+    <row r="71" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ71" s="33"/>
+      <c r="BA71" s="33"/>
+      <c r="BT71" s="33"/>
+      <c r="BU71" s="33"/>
+      <c r="BW71" s="1"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="1"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="1"/>
+      <c r="CB71" s="1"/>
+      <c r="CC71" s="1"/>
+      <c r="CD71" s="1"/>
+      <c r="CE71" s="1"/>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="1"/>
+      <c r="CH71" s="1"/>
+      <c r="CI71" s="1"/>
+      <c r="CJ71" s="1"/>
+      <c r="CK71" s="1"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="1"/>
+      <c r="CN71" s="1"/>
+      <c r="CO71" s="1"/>
+      <c r="CP71" s="1"/>
+      <c r="CQ71" s="1"/>
+      <c r="CR71" s="1"/>
+      <c r="CS71" s="1"/>
+      <c r="CT71" s="1"/>
+      <c r="CU71" s="1"/>
+      <c r="CV71" s="1"/>
+      <c r="CW71" s="1"/>
+      <c r="CX71" s="1"/>
+      <c r="CY71" s="1"/>
+      <c r="CZ71" s="1"/>
+      <c r="DA71" s="1"/>
+      <c r="DB71" s="1"/>
+      <c r="DC71" s="1"/>
+      <c r="DD71" s="1"/>
+      <c r="DE71" s="1"/>
+    </row>
+    <row r="72" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ72" s="33"/>
+      <c r="BA72" s="33"/>
+      <c r="BT72" s="33"/>
+      <c r="BU72" s="33"/>
+      <c r="BW72" s="1"/>
+      <c r="BX72" s="1"/>
+      <c r="BY72" s="1"/>
+      <c r="BZ72" s="1"/>
+      <c r="CA72" s="1"/>
+      <c r="CB72" s="1"/>
+      <c r="CC72" s="1"/>
+      <c r="CD72" s="1"/>
+      <c r="CE72" s="1"/>
+      <c r="CF72" s="1"/>
+      <c r="CG72" s="1"/>
+      <c r="CH72" s="1"/>
+      <c r="CI72" s="1"/>
+      <c r="CJ72" s="1"/>
+      <c r="CK72" s="1"/>
+      <c r="CL72" s="1"/>
+      <c r="CM72" s="1"/>
+      <c r="CN72" s="1"/>
+      <c r="CO72" s="1"/>
+      <c r="CP72" s="1"/>
+      <c r="CQ72" s="1"/>
+      <c r="CR72" s="1"/>
+      <c r="CS72" s="1"/>
+      <c r="CT72" s="1"/>
+      <c r="CU72" s="1"/>
+      <c r="CV72" s="1"/>
+      <c r="CW72" s="1"/>
+      <c r="CX72" s="1"/>
+      <c r="CY72" s="1"/>
+      <c r="CZ72" s="1"/>
+      <c r="DA72" s="1"/>
+      <c r="DB72" s="1"/>
+      <c r="DC72" s="1"/>
+      <c r="DD72" s="1"/>
+      <c r="DE72" s="1"/>
+    </row>
+    <row r="73" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ73" s="33"/>
+      <c r="BA73" s="33"/>
+      <c r="BT73" s="33"/>
+      <c r="BU73" s="33"/>
+    </row>
+    <row r="74" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ74" s="33"/>
+      <c r="BA74" s="33"/>
+      <c r="BT74" s="33"/>
+      <c r="BU74" s="33"/>
+    </row>
+    <row r="75" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ75" s="33"/>
+      <c r="BA75" s="33"/>
+      <c r="BT75" s="33"/>
+      <c r="BU75" s="33"/>
+    </row>
+    <row r="76" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ76" s="33"/>
+      <c r="BA76" s="33"/>
+      <c r="BT76" s="33"/>
+      <c r="BU76" s="33"/>
+    </row>
+    <row r="77" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ77" s="33"/>
+      <c r="BA77" s="33"/>
+      <c r="BB77" s="4"/>
+      <c r="BC77" s="4"/>
+      <c r="BD77" s="4"/>
+      <c r="BE77" s="4"/>
+      <c r="BF77" s="4"/>
+      <c r="BG77" s="4"/>
+      <c r="BH77" s="4"/>
+      <c r="BI77" s="4"/>
+      <c r="BJ77" s="4"/>
+      <c r="BK77" s="4"/>
+      <c r="BL77" s="4"/>
+      <c r="BM77" s="4"/>
+      <c r="BN77" s="4"/>
+      <c r="BO77" s="4"/>
+      <c r="BP77" s="4"/>
+      <c r="BQ77" s="4"/>
+      <c r="BR77" s="4"/>
+      <c r="BS77" s="4"/>
+      <c r="BT77" s="33"/>
+      <c r="BU77" s="33"/>
+    </row>
+    <row r="78" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ78" s="33"/>
+      <c r="BA78" s="33"/>
+      <c r="BB78" s="33"/>
+      <c r="BC78" s="33"/>
+      <c r="BD78" s="33"/>
+      <c r="BE78" s="33"/>
+      <c r="BF78" s="33"/>
+      <c r="BG78" s="33"/>
+      <c r="BH78" s="33"/>
+      <c r="BI78" s="33"/>
+      <c r="BJ78" s="33"/>
+      <c r="BK78" s="33"/>
+      <c r="BL78" s="33"/>
+      <c r="BM78" s="33"/>
+      <c r="BN78" s="33"/>
+      <c r="BO78" s="33"/>
+      <c r="BP78" s="33"/>
+      <c r="BQ78" s="33"/>
+      <c r="BR78" s="33"/>
+      <c r="BS78" s="33"/>
+      <c r="BT78" s="33"/>
+      <c r="BU78" s="33"/>
+    </row>
+    <row r="79" spans="42:109" x14ac:dyDescent="0.4">
+      <c r="AZ79" s="33"/>
+      <c r="BA79" s="33"/>
+      <c r="BB79" s="33"/>
+      <c r="BC79" s="33"/>
+      <c r="BD79" s="33"/>
+      <c r="BE79" s="33"/>
+      <c r="BF79" s="33"/>
+      <c r="BG79" s="33"/>
+      <c r="BH79" s="33"/>
+      <c r="BI79" s="33"/>
+      <c r="BJ79" s="33"/>
+      <c r="BK79" s="33"/>
+      <c r="BL79" s="33"/>
+      <c r="BM79" s="33"/>
+      <c r="BN79" s="33"/>
+      <c r="BO79" s="33"/>
+      <c r="BP79" s="33"/>
+      <c r="BQ79" s="33"/>
+      <c r="BR79" s="33"/>
+      <c r="BS79" s="33"/>
+      <c r="BT79" s="33"/>
+      <c r="BU79" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="T17:U18"/>
-    <mergeCell ref="W25:AB25"/>
+  <mergeCells count="19">
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="O48:R49"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="AP12:AQ13"/>
+    <mergeCell ref="BF12:BG13"/>
+    <mergeCell ref="AS25:AU27"/>
+    <mergeCell ref="AG24:AI26"/>
+    <mergeCell ref="BV47:CB48"/>
+    <mergeCell ref="CC49:CD55"/>
+    <mergeCell ref="BW55:CA56"/>
+    <mergeCell ref="BW19:BY21"/>
+    <mergeCell ref="BX26:BZ28"/>
+    <mergeCell ref="AO28:AQ30"/>
+    <mergeCell ref="AV55:AY55"/>
+    <mergeCell ref="BC34:BD35"/>
+    <mergeCell ref="AD36:AL37"/>
+    <mergeCell ref="AO44:AY44"/>
+    <mergeCell ref="Z29:AA30"/>
+    <mergeCell ref="AF12:AG13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/개인작업폴더/김나연/물행성레벨.xlsx
+++ b/개인작업폴더/김나연/물행성레벨.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\TeamHolyShit\개인작업폴더\김나연\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C5AF1B-9931-415E-8756-080EA0D99756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D31BA6C-404C-4893-93CB-9F831A27D211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="1740" windowWidth="20970" windowHeight="11385" firstSheet="3" activeTab="4" xr2:uid="{D4D8698F-685B-4DF4-86AA-347018D54407}"/>
+    <workbookView xWindow="6330" yWindow="870" windowWidth="10830" windowHeight="11385" firstSheet="4" activeTab="5" xr2:uid="{D4D8698F-685B-4DF4-86AA-347018D54407}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 정보" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -261,10 +261,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>마개 B : B -&gt; B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -276,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,7 +704,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,19 +939,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,6 +988,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1074,57 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,9 +1158,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,69 +1169,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1615,6 +1614,309 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="직선 화살표 연결선 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CD2520-AF81-4962-A422-EE8AF122761B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11375571" y="4776107"/>
+          <a:ext cx="993322" cy="27214"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55EDBB9-FF50-47B1-9EA6-508ED0BC3697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9933215" y="5921828"/>
+          <a:ext cx="1676399" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB39BBE-4D40-4E2A-A53B-59A92AD3DEB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22602266" y="11463618"/>
+          <a:ext cx="0" cy="1725706"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 화살표 연결선 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA2F14B-62BA-41A5-A1DD-01DDBFEEA63F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="20024912" y="14937441"/>
+          <a:ext cx="4549589" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>138544</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75AC7615-0AC0-4C6E-99E0-D95B6583968B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8866908" y="1212272"/>
+          <a:ext cx="6494319" cy="3893584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2352,7 +2654,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
@@ -2360,7 +2662,7 @@
     <col min="17" max="17" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5">
       <c r="C10" s="73" t="s">
         <v>26</v>
       </c>
@@ -2371,7 +2673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5">
       <c r="C11" s="55">
         <v>44225</v>
       </c>
@@ -2382,32 +2684,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="78">
+    <row r="12" spans="3:5">
+      <c r="C12" s="84">
         <v>44226</v>
       </c>
       <c r="D12" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="85">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="78"/>
+    <row r="13" spans="3:5">
+      <c r="C13" s="84"/>
       <c r="D13" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="79"/>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="78"/>
+      <c r="E13" s="85"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="84"/>
       <c r="D14" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="79"/>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="85"/>
+    </row>
+    <row r="15" spans="3:5">
       <c r="C15" s="56">
         <v>44227</v>
       </c>
@@ -2418,7 +2720,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5">
       <c r="C16" s="74"/>
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
@@ -2442,7 +2744,7 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="9" style="12"/>
     <col min="4" max="4" width="1.625" style="12" customWidth="1"/>
@@ -2454,91 +2756,91 @@
     <col min="29" max="44" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C3" s="84" t="s">
+    <row r="2" spans="3:39" ht="17.25" thickBot="1"/>
+    <row r="3" spans="3:39">
+      <c r="C3" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="86"/>
-    </row>
-    <row r="4" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C4" s="87"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="88"/>
-    </row>
-    <row r="5" spans="3:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="91"/>
-    </row>
-    <row r="6" spans="3:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="89"/>
+    </row>
+    <row r="4" spans="3:39">
+      <c r="C4" s="90"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="91"/>
+    </row>
+    <row r="5" spans="3:39" ht="17.25" thickBot="1">
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="94"/>
+    </row>
+    <row r="6" spans="3:39" ht="17.25" customHeight="1">
       <c r="Y6" s="31"/>
       <c r="Z6" s="31"/>
       <c r="AA6" s="31"/>
       <c r="AB6" s="31"/>
     </row>
-    <row r="7" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:39">
       <c r="Y7" s="31"/>
       <c r="Z7" s="31"/>
       <c r="AA7" s="31"/>
       <c r="AB7" s="31"/>
     </row>
-    <row r="8" spans="3:39" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:39" ht="20.25">
       <c r="D8" s="3"/>
       <c r="E8" s="53" t="s">
         <v>9</v>
@@ -2548,8 +2850,8 @@
       <c r="AA8" s="31"/>
       <c r="AB8" s="31"/>
     </row>
-    <row r="9" spans="3:39" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:39" ht="16.350000000000001" customHeight="1"/>
+    <row r="10" spans="3:39">
       <c r="F10" s="51"/>
       <c r="G10" s="12" t="s">
         <v>13</v>
@@ -2570,7 +2872,7 @@
       <c r="AL10" s="31"/>
       <c r="AM10" s="31"/>
     </row>
-    <row r="11" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:39">
       <c r="H11" s="12" t="s">
         <v>20</v>
       </c>
@@ -2590,7 +2892,7 @@
       <c r="AL11" s="31"/>
       <c r="AM11" s="31"/>
     </row>
-    <row r="12" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:39">
       <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
       <c r="AA12" s="31"/>
@@ -2607,7 +2909,7 @@
       <c r="AL12" s="31"/>
       <c r="AM12" s="31"/>
     </row>
-    <row r="13" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:39">
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -2635,7 +2937,7 @@
       <c r="AL13" s="31"/>
       <c r="AM13" s="31"/>
     </row>
-    <row r="14" spans="3:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:39" ht="17.25" thickBot="1">
       <c r="H14" s="20"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -2663,7 +2965,7 @@
       <c r="AL14" s="31"/>
       <c r="AM14" s="31"/>
     </row>
-    <row r="15" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:39">
       <c r="H15" s="20"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
@@ -2691,7 +2993,7 @@
       <c r="AL15" s="31"/>
       <c r="AM15" s="31"/>
     </row>
-    <row r="16" spans="3:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:39" ht="17.25" thickBot="1">
       <c r="H16" s="20"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -2719,7 +3021,7 @@
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
     </row>
-    <row r="17" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:39">
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -2732,22 +3034,22 @@
       <c r="Q17" s="32"/>
       <c r="R17" s="18"/>
       <c r="Y17" s="31"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="83"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="86"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="86"/>
       <c r="AF17" s="31"/>
       <c r="AG17" s="31"/>
       <c r="AH17" s="31"/>
-      <c r="AI17" s="83"/>
-      <c r="AJ17" s="83"/>
+      <c r="AI17" s="86"/>
+      <c r="AJ17" s="86"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31"/>
       <c r="AM17" s="31"/>
     </row>
-    <row r="18" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:39">
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2760,22 +3062,22 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="18"/>
       <c r="Y18" s="31"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
       <c r="AF18" s="52"/>
       <c r="AG18" s="52"/>
       <c r="AH18" s="52"/>
-      <c r="AI18" s="83"/>
-      <c r="AJ18" s="83"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="86"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
       <c r="AM18" s="31"/>
     </row>
-    <row r="19" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:39">
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2803,38 +3105,38 @@
       <c r="AL19" s="31"/>
       <c r="AM19" s="31"/>
     </row>
-    <row r="20" spans="3:39" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="80"/>
+    <row r="20" spans="3:39" ht="8.25" customHeight="1">
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="96"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="82"/>
-    </row>
-    <row r="21" spans="3:39" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="96"/>
+      <c r="R20" s="95"/>
+    </row>
+    <row r="21" spans="3:39" ht="8.25" customHeight="1">
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="81"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="97"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="82"/>
-    </row>
-    <row r="22" spans="3:39" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="97"/>
+      <c r="R21" s="95"/>
+    </row>
+    <row r="22" spans="3:39" ht="8.25" customHeight="1">
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
@@ -2852,7 +3154,7 @@
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
     </row>
-    <row r="23" spans="3:39" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:39" ht="8.25" customHeight="1">
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
@@ -2870,7 +3172,7 @@
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
     </row>
-    <row r="24" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:39">
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
@@ -2888,7 +3190,7 @@
       <c r="Q24" s="31"/>
       <c r="R24" s="31"/>
     </row>
-    <row r="25" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:39">
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -2897,7 +3199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:39">
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -2905,12 +3207,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:39">
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:39">
       <c r="F28" s="51"/>
       <c r="G28" s="12" t="s">
         <v>14</v>
@@ -2919,7 +3221,7 @@
       <c r="Q28" s="31"/>
       <c r="R28" s="31"/>
     </row>
-    <row r="29" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:39">
       <c r="H29" s="12" t="s">
         <v>15</v>
       </c>
@@ -2927,12 +3229,12 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="31"/>
     </row>
-    <row r="30" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:39">
       <c r="P30" s="31"/>
       <c r="Q30" s="31"/>
       <c r="R30" s="31"/>
     </row>
-    <row r="31" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:39">
       <c r="F31" s="51"/>
       <c r="G31" s="12" t="s">
         <v>17</v>
@@ -2941,7 +3243,7 @@
       <c r="Q31" s="31"/>
       <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:39">
       <c r="H32" s="12" t="s">
         <v>16</v>
       </c>
@@ -2949,7 +3251,7 @@
       <c r="Q32" s="31"/>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:18">
       <c r="H33" s="12" t="s">
         <v>37</v>
       </c>
@@ -2959,6 +3261,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
     <mergeCell ref="AD17:AD18"/>
     <mergeCell ref="C3:W5"/>
     <mergeCell ref="AE17:AE18"/>
@@ -2966,16 +3278,6 @@
     <mergeCell ref="AJ17:AJ18"/>
     <mergeCell ref="AB17:AB18"/>
     <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2990,174 +3292,174 @@
       <selection activeCell="BH30" sqref="BH30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="123" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="84" t="s">
+    <row r="2" spans="4:51" ht="17.25" thickBot="1"/>
+    <row r="3" spans="4:51" ht="16.5" customHeight="1">
+      <c r="D3" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="92"/>
-      <c r="AK3" s="92"/>
-      <c r="AL3" s="92"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="92"/>
-      <c r="AO3" s="92"/>
-      <c r="AP3" s="92"/>
-      <c r="AQ3" s="92"/>
-      <c r="AR3" s="92"/>
-      <c r="AS3" s="92"/>
-      <c r="AT3" s="92"/>
-      <c r="AU3" s="92"/>
-      <c r="AV3" s="92"/>
-      <c r="AW3" s="92"/>
-      <c r="AX3" s="92"/>
-      <c r="AY3" s="93"/>
-    </row>
-    <row r="4" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D4" s="94"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="96"/>
-    </row>
-    <row r="5" spans="4:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="98"/>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="98"/>
-      <c r="AY5" s="99"/>
-    </row>
-    <row r="9" spans="4:51" x14ac:dyDescent="0.3">
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="98"/>
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="98"/>
+      <c r="AS3" s="98"/>
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="98"/>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="98"/>
+      <c r="AX3" s="98"/>
+      <c r="AY3" s="99"/>
+    </row>
+    <row r="4" spans="4:51">
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="101"/>
+      <c r="AY4" s="102"/>
+    </row>
+    <row r="5" spans="4:51" ht="17.25" thickBot="1">
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="104"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="104"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="104"/>
+      <c r="AW5" s="104"/>
+      <c r="AX5" s="104"/>
+      <c r="AY5" s="105"/>
+    </row>
+    <row r="9" spans="4:51">
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="4:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:51">
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="4:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:51">
       <c r="W11" s="6"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -3169,7 +3471,7 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="6"/>
     </row>
-    <row r="12" spans="4:51" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:51">
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -3189,7 +3491,7 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
     </row>
-    <row r="13" spans="4:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:51">
       <c r="W13" s="6"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -3201,7 +3503,7 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="6"/>
     </row>
-    <row r="14" spans="4:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:51">
       <c r="W14" s="6"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -3213,7 +3515,7 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="6"/>
     </row>
-    <row r="15" spans="4:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:51">
       <c r="D15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -3231,7 +3533,7 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="6"/>
     </row>
-    <row r="16" spans="4:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:51">
       <c r="D16" s="1"/>
       <c r="W16" s="6"/>
       <c r="X16" s="3"/>
@@ -3244,7 +3546,7 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="6"/>
     </row>
-    <row r="17" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:49">
       <c r="D17" s="1"/>
       <c r="W17" s="6"/>
       <c r="X17" s="3"/>
@@ -3260,7 +3562,7 @@
       <c r="AU17" s="13"/>
       <c r="AV17" s="13"/>
     </row>
-    <row r="18" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:49">
       <c r="D18" s="1"/>
       <c r="W18" s="6"/>
       <c r="X18" s="3"/>
@@ -3276,7 +3578,7 @@
       <c r="AU18" s="13"/>
       <c r="AV18" s="13"/>
     </row>
-    <row r="19" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:49">
       <c r="D19" s="1"/>
       <c r="W19" s="6"/>
       <c r="X19" s="3"/>
@@ -3292,7 +3594,7 @@
       <c r="AU19" s="13"/>
       <c r="AV19" s="13"/>
     </row>
-    <row r="20" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:49">
       <c r="D20" s="1"/>
       <c r="M20" s="6"/>
       <c r="T20" s="1"/>
@@ -3326,7 +3628,7 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
     </row>
-    <row r="21" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:49">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3336,12 +3638,12 @@
       <c r="M21" s="6"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:49">
       <c r="D22" s="1"/>
       <c r="M22" s="6"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:49">
       <c r="D23" s="1"/>
       <c r="M23" s="6"/>
       <c r="Q23" s="9"/>
@@ -3353,7 +3655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:49">
       <c r="D24" s="1"/>
       <c r="M24" s="6"/>
       <c r="Q24" s="9"/>
@@ -3361,7 +3663,7 @@
       <c r="S24" s="4"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:49">
       <c r="D25" s="1"/>
       <c r="M25" s="6"/>
       <c r="Q25" s="9"/>
@@ -3373,7 +3675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:49">
       <c r="D26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3381,7 +3683,7 @@
       <c r="M26" s="6"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:49">
       <c r="D27" s="1"/>
       <c r="M27" s="6"/>
       <c r="W27" s="1"/>
@@ -3390,14 +3692,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:49">
       <c r="D28" s="1"/>
       <c r="M28" s="6"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:49">
       <c r="D29" s="1"/>
       <c r="M29" s="6"/>
       <c r="O29" s="4"/>
@@ -3408,7 +3710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:49">
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>0</v>
@@ -3419,7 +3721,7 @@
       <c r="M30" s="6"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:49">
       <c r="D31" s="1"/>
       <c r="M31" s="6"/>
       <c r="W31" s="1"/>
@@ -3428,13 +3730,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="4:49" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:49">
       <c r="D32" s="1"/>
       <c r="M32" s="6"/>
       <c r="R32" s="11"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:32">
       <c r="D33" s="1"/>
       <c r="M33" s="6"/>
       <c r="N33" s="3"/>
@@ -3452,7 +3754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:32">
       <c r="D34" s="1"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3468,7 +3770,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:32">
       <c r="D35" s="1"/>
       <c r="F35" s="7"/>
       <c r="K35" s="3"/>
@@ -3479,7 +3781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:32">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3491,7 +3793,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:32">
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -3500,7 +3802,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:32">
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -3509,7 +3811,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:32">
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -3518,129 +3820,129 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="4:32" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="4:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:32" s="12" customFormat="1"/>
+    <row r="41" spans="4:32" s="12" customFormat="1">
       <c r="D41" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="4:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:32" s="12" customFormat="1">
       <c r="E42" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="4:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:32" s="12" customFormat="1">
       <c r="E43" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="4:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:32" s="12" customFormat="1">
       <c r="E44" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="4:32" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="4:32" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="4:32" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="4:32" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="4:32" s="12" customFormat="1"/>
+    <row r="46" spans="4:32" s="12" customFormat="1"/>
+    <row r="47" spans="4:32" s="12" customFormat="1"/>
+    <row r="48" spans="4:32" s="12" customFormat="1"/>
+    <row r="49" s="12" customFormat="1"/>
+    <row r="50" s="12" customFormat="1"/>
+    <row r="51" s="12" customFormat="1"/>
+    <row r="52" s="12" customFormat="1"/>
+    <row r="53" s="12" customFormat="1"/>
+    <row r="54" s="12" customFormat="1"/>
+    <row r="55" s="12" customFormat="1"/>
+    <row r="56" s="12" customFormat="1"/>
+    <row r="57" s="12" customFormat="1"/>
+    <row r="58" s="12" customFormat="1"/>
+    <row r="59" s="12" customFormat="1"/>
+    <row r="60" s="12" customFormat="1"/>
+    <row r="61" s="12" customFormat="1"/>
+    <row r="62" s="12" customFormat="1"/>
+    <row r="63" s="12" customFormat="1"/>
+    <row r="64" s="12" customFormat="1"/>
+    <row r="65" s="12" customFormat="1"/>
+    <row r="66" s="12" customFormat="1"/>
+    <row r="67" s="12" customFormat="1"/>
+    <row r="68" s="12" customFormat="1"/>
+    <row r="69" s="12" customFormat="1"/>
+    <row r="70" s="12" customFormat="1"/>
+    <row r="71" s="12" customFormat="1"/>
+    <row r="72" s="12" customFormat="1"/>
+    <row r="73" s="12" customFormat="1"/>
+    <row r="74" s="12" customFormat="1"/>
+    <row r="75" s="12" customFormat="1"/>
+    <row r="76" s="12" customFormat="1"/>
+    <row r="77" s="12" customFormat="1"/>
+    <row r="78" s="12" customFormat="1"/>
+    <row r="79" s="12" customFormat="1"/>
+    <row r="80" s="12" customFormat="1"/>
+    <row r="81" s="12" customFormat="1"/>
+    <row r="82" s="12" customFormat="1"/>
+    <row r="83" s="12" customFormat="1"/>
+    <row r="84" s="12" customFormat="1"/>
+    <row r="85" s="12" customFormat="1"/>
+    <row r="86" s="12" customFormat="1"/>
+    <row r="87" s="12" customFormat="1"/>
+    <row r="88" s="12" customFormat="1"/>
+    <row r="89" s="12" customFormat="1"/>
+    <row r="90" s="12" customFormat="1"/>
+    <row r="91" s="12" customFormat="1"/>
+    <row r="92" s="12" customFormat="1"/>
+    <row r="93" s="12" customFormat="1"/>
+    <row r="94" s="12" customFormat="1"/>
+    <row r="95" s="12" customFormat="1"/>
+    <row r="96" s="12" customFormat="1"/>
+    <row r="97" s="12" customFormat="1"/>
+    <row r="98" s="12" customFormat="1"/>
+    <row r="99" s="12" customFormat="1"/>
+    <row r="100" s="12" customFormat="1"/>
+    <row r="101" s="12" customFormat="1"/>
+    <row r="102" s="12" customFormat="1"/>
+    <row r="103" s="12" customFormat="1"/>
+    <row r="104" s="12" customFormat="1"/>
+    <row r="105" s="12" customFormat="1"/>
+    <row r="106" s="12" customFormat="1"/>
+    <row r="107" s="12" customFormat="1"/>
+    <row r="108" s="12" customFormat="1"/>
+    <row r="109" s="12" customFormat="1"/>
+    <row r="110" s="12" customFormat="1"/>
+    <row r="111" s="12" customFormat="1"/>
+    <row r="112" s="12" customFormat="1"/>
+    <row r="113" s="12" customFormat="1"/>
+    <row r="114" s="12" customFormat="1"/>
+    <row r="115" s="12" customFormat="1"/>
+    <row r="116" s="12" customFormat="1"/>
+    <row r="117" s="12" customFormat="1"/>
+    <row r="118" s="12" customFormat="1"/>
+    <row r="119" s="12" customFormat="1"/>
+    <row r="120" s="12" customFormat="1"/>
+    <row r="121" s="12" customFormat="1"/>
+    <row r="122" s="12" customFormat="1"/>
+    <row r="123" s="12" customFormat="1"/>
+    <row r="124" s="12" customFormat="1"/>
+    <row r="125" s="12" customFormat="1"/>
+    <row r="126" s="12" customFormat="1"/>
+    <row r="127" s="12" customFormat="1"/>
+    <row r="128" s="12" customFormat="1"/>
+    <row r="129" s="12" customFormat="1"/>
+    <row r="130" s="12" customFormat="1"/>
+    <row r="131" s="12" customFormat="1"/>
+    <row r="132" s="12" customFormat="1"/>
+    <row r="133" s="12" customFormat="1"/>
+    <row r="134" s="12" customFormat="1"/>
+    <row r="135" s="12" customFormat="1"/>
+    <row r="136" s="12" customFormat="1"/>
+    <row r="137" s="12" customFormat="1"/>
+    <row r="138" s="12" customFormat="1"/>
+    <row r="139" s="12" customFormat="1"/>
+    <row r="140" s="12" customFormat="1"/>
+    <row r="141" s="12" customFormat="1"/>
+    <row r="142" s="12" customFormat="1"/>
+    <row r="143" s="12" customFormat="1"/>
+    <row r="144" s="12" customFormat="1"/>
+    <row r="145" s="12" customFormat="1"/>
+    <row r="146" s="12" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:AY5"/>
@@ -3659,272 +3961,272 @@
       <selection activeCell="D3" sqref="D3:CB5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="3.125" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="5" max="87" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:80" x14ac:dyDescent="0.3">
-      <c r="D3" s="100" t="s">
+    <row r="2" spans="4:80" ht="17.25" thickBot="1"/>
+    <row r="3" spans="4:80">
+      <c r="D3" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="101"/>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="101"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="101"/>
-      <c r="AO3" s="101"/>
-      <c r="AP3" s="101"/>
-      <c r="AQ3" s="101"/>
-      <c r="AR3" s="101"/>
-      <c r="AS3" s="101"/>
-      <c r="AT3" s="101"/>
-      <c r="AU3" s="101"/>
-      <c r="AV3" s="101"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="101"/>
-      <c r="AY3" s="101"/>
-      <c r="AZ3" s="101"/>
-      <c r="BA3" s="101"/>
-      <c r="BB3" s="101"/>
-      <c r="BC3" s="101"/>
-      <c r="BD3" s="101"/>
-      <c r="BE3" s="101"/>
-      <c r="BF3" s="101"/>
-      <c r="BG3" s="101"/>
-      <c r="BH3" s="101"/>
-      <c r="BI3" s="101"/>
-      <c r="BJ3" s="101"/>
-      <c r="BK3" s="101"/>
-      <c r="BL3" s="101"/>
-      <c r="BM3" s="101"/>
-      <c r="BN3" s="101"/>
-      <c r="BO3" s="101"/>
-      <c r="BP3" s="101"/>
-      <c r="BQ3" s="101"/>
-      <c r="BR3" s="101"/>
-      <c r="BS3" s="101"/>
-      <c r="BT3" s="101"/>
-      <c r="BU3" s="101"/>
-      <c r="BV3" s="101"/>
-      <c r="BW3" s="101"/>
-      <c r="BX3" s="101"/>
-      <c r="BY3" s="101"/>
-      <c r="BZ3" s="101"/>
-      <c r="CA3" s="101"/>
-      <c r="CB3" s="102"/>
-    </row>
-    <row r="4" spans="4:80" x14ac:dyDescent="0.3">
-      <c r="D4" s="103"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="104"/>
-      <c r="BN4" s="104"/>
-      <c r="BO4" s="104"/>
-      <c r="BP4" s="104"/>
-      <c r="BQ4" s="104"/>
-      <c r="BR4" s="104"/>
-      <c r="BS4" s="104"/>
-      <c r="BT4" s="104"/>
-      <c r="BU4" s="104"/>
-      <c r="BV4" s="104"/>
-      <c r="BW4" s="104"/>
-      <c r="BX4" s="104"/>
-      <c r="BY4" s="104"/>
-      <c r="BZ4" s="104"/>
-      <c r="CA4" s="104"/>
-      <c r="CB4" s="105"/>
-    </row>
-    <row r="5" spans="4:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="107"/>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="107"/>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="107"/>
-      <c r="BL5" s="107"/>
-      <c r="BM5" s="107"/>
-      <c r="BN5" s="107"/>
-      <c r="BO5" s="107"/>
-      <c r="BP5" s="107"/>
-      <c r="BQ5" s="107"/>
-      <c r="BR5" s="107"/>
-      <c r="BS5" s="107"/>
-      <c r="BT5" s="107"/>
-      <c r="BU5" s="107"/>
-      <c r="BV5" s="107"/>
-      <c r="BW5" s="107"/>
-      <c r="BX5" s="107"/>
-      <c r="BY5" s="107"/>
-      <c r="BZ5" s="107"/>
-      <c r="CA5" s="107"/>
-      <c r="CB5" s="108"/>
-    </row>
-    <row r="8" spans="4:80" x14ac:dyDescent="0.3">
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="107"/>
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="107"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="107"/>
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="107"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="107"/>
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="107"/>
+      <c r="BC3" s="107"/>
+      <c r="BD3" s="107"/>
+      <c r="BE3" s="107"/>
+      <c r="BF3" s="107"/>
+      <c r="BG3" s="107"/>
+      <c r="BH3" s="107"/>
+      <c r="BI3" s="107"/>
+      <c r="BJ3" s="107"/>
+      <c r="BK3" s="107"/>
+      <c r="BL3" s="107"/>
+      <c r="BM3" s="107"/>
+      <c r="BN3" s="107"/>
+      <c r="BO3" s="107"/>
+      <c r="BP3" s="107"/>
+      <c r="BQ3" s="107"/>
+      <c r="BR3" s="107"/>
+      <c r="BS3" s="107"/>
+      <c r="BT3" s="107"/>
+      <c r="BU3" s="107"/>
+      <c r="BV3" s="107"/>
+      <c r="BW3" s="107"/>
+      <c r="BX3" s="107"/>
+      <c r="BY3" s="107"/>
+      <c r="BZ3" s="107"/>
+      <c r="CA3" s="107"/>
+      <c r="CB3" s="108"/>
+    </row>
+    <row r="4" spans="4:80">
+      <c r="D4" s="109"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="110"/>
+      <c r="BG4" s="110"/>
+      <c r="BH4" s="110"/>
+      <c r="BI4" s="110"/>
+      <c r="BJ4" s="110"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="110"/>
+      <c r="BN4" s="110"/>
+      <c r="BO4" s="110"/>
+      <c r="BP4" s="110"/>
+      <c r="BQ4" s="110"/>
+      <c r="BR4" s="110"/>
+      <c r="BS4" s="110"/>
+      <c r="BT4" s="110"/>
+      <c r="BU4" s="110"/>
+      <c r="BV4" s="110"/>
+      <c r="BW4" s="110"/>
+      <c r="BX4" s="110"/>
+      <c r="BY4" s="110"/>
+      <c r="BZ4" s="110"/>
+      <c r="CA4" s="110"/>
+      <c r="CB4" s="111"/>
+    </row>
+    <row r="5" spans="4:80" ht="17.25" thickBot="1">
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="113"/>
+      <c r="BO5" s="113"/>
+      <c r="BP5" s="113"/>
+      <c r="BQ5" s="113"/>
+      <c r="BR5" s="113"/>
+      <c r="BS5" s="113"/>
+      <c r="BT5" s="113"/>
+      <c r="BU5" s="113"/>
+      <c r="BV5" s="113"/>
+      <c r="BW5" s="113"/>
+      <c r="BX5" s="113"/>
+      <c r="BY5" s="113"/>
+      <c r="BZ5" s="113"/>
+      <c r="CA5" s="113"/>
+      <c r="CB5" s="114"/>
+    </row>
+    <row r="8" spans="4:80">
       <c r="BW8" s="14"/>
       <c r="BY8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="4:80" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:80">
       <c r="BW10" s="3"/>
       <c r="BY10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="4:80" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:80">
       <c r="BW12" s="7"/>
       <c r="BY12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="4:80" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:80">
       <c r="X13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="8"/>
@@ -3935,7 +4237,7 @@
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
     </row>
-    <row r="14" spans="4:80" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:80">
       <c r="X14" s="1"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
@@ -3958,7 +4260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="4:80" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:80">
       <c r="X15" s="1"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
@@ -3978,7 +4280,7 @@
       <c r="AR15" s="4"/>
       <c r="BU15" s="1"/>
     </row>
-    <row r="16" spans="4:80" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:80">
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="2"/>
@@ -4002,7 +4304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:83">
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -4024,7 +4326,7 @@
       <c r="AP17" s="8"/>
       <c r="BU17" s="1"/>
     </row>
-    <row r="18" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:83">
       <c r="D18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4054,7 +4356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:83">
       <c r="D19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -4076,7 +4378,7 @@
       <c r="AK19" s="1"/>
       <c r="BU19" s="1"/>
     </row>
-    <row r="20" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:83">
       <c r="D20" s="1"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="3"/>
@@ -4100,7 +4402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:83">
       <c r="D21" s="1"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="3"/>
@@ -4144,7 +4446,7 @@
       <c r="BT21" s="3"/>
       <c r="BU21" s="1"/>
     </row>
-    <row r="22" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:83">
       <c r="D22" s="1"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="3"/>
@@ -4185,7 +4487,7 @@
       <c r="BT22" s="3"/>
       <c r="BU22" s="8"/>
     </row>
-    <row r="23" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:83">
       <c r="D23" s="1"/>
       <c r="H23" s="7"/>
       <c r="X23" s="6"/>
@@ -4232,7 +4534,7 @@
       <c r="BT23" s="3"/>
       <c r="BU23" s="1"/>
     </row>
-    <row r="24" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:83">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -4292,7 +4594,7 @@
       <c r="BT24" s="8"/>
       <c r="BU24" s="1"/>
     </row>
-    <row r="25" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:83">
       <c r="X25" s="1"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
@@ -4332,7 +4634,7 @@
       <c r="BT25" s="3"/>
       <c r="BU25" s="1"/>
     </row>
-    <row r="26" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:83">
       <c r="X26" s="1"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="3"/>
@@ -4372,7 +4674,7 @@
       <c r="BT26" s="3"/>
       <c r="BU26" s="1"/>
     </row>
-    <row r="27" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:83">
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
@@ -4412,7 +4714,7 @@
       <c r="BT27" s="3"/>
       <c r="BU27" s="1"/>
     </row>
-    <row r="28" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:83">
       <c r="AK28" s="1"/>
       <c r="AU28" s="4"/>
       <c r="AV28" s="4"/>
@@ -4430,7 +4732,7 @@
       <c r="BT28" s="3"/>
       <c r="BU28" s="1"/>
     </row>
-    <row r="29" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:83">
       <c r="AK29" s="1"/>
       <c r="AU29" s="4"/>
       <c r="AV29" s="4"/>
@@ -4448,7 +4750,7 @@
       <c r="BT29" s="1"/>
       <c r="BU29" s="1"/>
     </row>
-    <row r="30" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:83">
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
@@ -4473,7 +4775,7 @@
       <c r="BT30" s="3"/>
       <c r="BU30" s="1"/>
     </row>
-    <row r="31" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:83">
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
@@ -4511,7 +4813,7 @@
       <c r="CA31" s="1"/>
       <c r="CB31" s="1"/>
     </row>
-    <row r="32" spans="4:83" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:83">
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -4557,7 +4859,7 @@
       <c r="CB32" s="1"/>
       <c r="CE32" s="9"/>
     </row>
-    <row r="33" spans="6:80" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:80">
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -4603,7 +4905,7 @@
       <c r="CA33" s="3"/>
       <c r="CB33" s="1"/>
     </row>
-    <row r="34" spans="6:80" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:80">
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -4639,7 +4941,7 @@
       <c r="CA34" s="3"/>
       <c r="CB34" s="1"/>
     </row>
-    <row r="35" spans="6:80" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:80">
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -4675,7 +4977,7 @@
       <c r="CA35" s="3"/>
       <c r="CB35" s="1"/>
     </row>
-    <row r="36" spans="6:80" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:80">
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -4717,7 +5019,7 @@
       <c r="CA36" s="6"/>
       <c r="CB36" s="1"/>
     </row>
-    <row r="37" spans="6:80" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:80">
       <c r="F37" s="9"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -4757,7 +5059,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="6:80" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:80">
       <c r="F38" s="9"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -4794,7 +5096,7 @@
       <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
     </row>
-    <row r="39" spans="6:80" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:80">
       <c r="F39" s="9"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -4816,93 +5118,93 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="6:80" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:80" s="16" customFormat="1">
       <c r="AM40" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="6:80" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="6:80" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="6:80" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:80" s="16" customFormat="1"/>
+    <row r="42" spans="6:80" s="16" customFormat="1"/>
+    <row r="43" spans="6:80" s="16" customFormat="1">
       <c r="L43" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="6:80" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:80" s="16" customFormat="1">
       <c r="M44" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="6:80" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:80" s="16" customFormat="1">
       <c r="M45" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="6:80" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:80" s="16" customFormat="1">
       <c r="M46" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="6:80" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="6:80" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="6:80" s="16" customFormat="1"/>
+    <row r="48" spans="6:80" s="16" customFormat="1"/>
+    <row r="49" s="16" customFormat="1"/>
+    <row r="50" s="16" customFormat="1"/>
+    <row r="51" s="16" customFormat="1"/>
+    <row r="52" s="16" customFormat="1"/>
+    <row r="53" s="16" customFormat="1"/>
+    <row r="54" s="16" customFormat="1"/>
+    <row r="55" s="16" customFormat="1"/>
+    <row r="56" s="16" customFormat="1"/>
+    <row r="57" s="16" customFormat="1"/>
+    <row r="58" s="16" customFormat="1"/>
+    <row r="59" s="16" customFormat="1"/>
+    <row r="60" s="16" customFormat="1"/>
+    <row r="61" s="16" customFormat="1"/>
+    <row r="62" s="16" customFormat="1"/>
+    <row r="63" s="16" customFormat="1"/>
+    <row r="64" s="16" customFormat="1"/>
+    <row r="65" s="16" customFormat="1"/>
+    <row r="66" s="16" customFormat="1"/>
+    <row r="67" s="16" customFormat="1"/>
+    <row r="68" s="16" customFormat="1"/>
+    <row r="69" s="16" customFormat="1"/>
+    <row r="70" s="16" customFormat="1"/>
+    <row r="71" s="16" customFormat="1"/>
+    <row r="72" s="16" customFormat="1"/>
+    <row r="73" s="16" customFormat="1"/>
+    <row r="74" s="16" customFormat="1"/>
+    <row r="75" s="16" customFormat="1"/>
+    <row r="76" s="16" customFormat="1"/>
+    <row r="77" s="16" customFormat="1"/>
+    <row r="78" s="16" customFormat="1"/>
+    <row r="79" s="16" customFormat="1"/>
+    <row r="80" s="16" customFormat="1"/>
+    <row r="81" s="16" customFormat="1"/>
+    <row r="82" s="16" customFormat="1"/>
+    <row r="83" s="16" customFormat="1"/>
+    <row r="84" s="16" customFormat="1"/>
+    <row r="85" s="16" customFormat="1"/>
+    <row r="86" s="16" customFormat="1"/>
+    <row r="87" s="16" customFormat="1"/>
+    <row r="88" s="16" customFormat="1"/>
+    <row r="89" s="16" customFormat="1"/>
+    <row r="90" s="16" customFormat="1"/>
+    <row r="91" s="16" customFormat="1"/>
+    <row r="92" s="16" customFormat="1"/>
+    <row r="93" s="16" customFormat="1"/>
+    <row r="94" s="16" customFormat="1"/>
+    <row r="95" s="16" customFormat="1"/>
+    <row r="96" s="16" customFormat="1"/>
+    <row r="97" s="16" customFormat="1"/>
+    <row r="98" s="16" customFormat="1"/>
+    <row r="99" s="16" customFormat="1"/>
+    <row r="100" s="16" customFormat="1"/>
+    <row r="101" s="16" customFormat="1"/>
+    <row r="102" s="16" customFormat="1"/>
+    <row r="103" s="16" customFormat="1"/>
+    <row r="104" s="16" customFormat="1"/>
+    <row r="105" s="12" customFormat="1"/>
+    <row r="106" s="12" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:CB5"/>
@@ -4918,13 +5220,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73869102-2E4D-46EA-BD81-968A0A374493}">
   <dimension ref="E2:BI185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BE7" sqref="BE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="5:61" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="5:61" ht="17.25" thickBot="1">
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
@@ -4983,57 +5285,57 @@
       <c r="BH2" s="36"/>
       <c r="BI2" s="36"/>
     </row>
-    <row r="3" spans="5:61" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="100" t="s">
+    <row r="3" spans="5:61" ht="17.45" customHeight="1">
+      <c r="F3" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="109"/>
-      <c r="AK3" s="109"/>
-      <c r="AL3" s="109"/>
-      <c r="AM3" s="109"/>
-      <c r="AN3" s="109"/>
-      <c r="AO3" s="109"/>
-      <c r="AP3" s="109"/>
-      <c r="AQ3" s="109"/>
-      <c r="AR3" s="109"/>
-      <c r="AS3" s="109"/>
-      <c r="AT3" s="109"/>
-      <c r="AU3" s="109"/>
-      <c r="AV3" s="109"/>
-      <c r="AW3" s="109"/>
-      <c r="AX3" s="109"/>
-      <c r="AY3" s="109"/>
-      <c r="AZ3" s="109"/>
-      <c r="BA3" s="110"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="115"/>
+      <c r="AK3" s="115"/>
+      <c r="AL3" s="115"/>
+      <c r="AM3" s="115"/>
+      <c r="AN3" s="115"/>
+      <c r="AO3" s="115"/>
+      <c r="AP3" s="115"/>
+      <c r="AQ3" s="115"/>
+      <c r="AR3" s="115"/>
+      <c r="AS3" s="115"/>
+      <c r="AT3" s="115"/>
+      <c r="AU3" s="115"/>
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="115"/>
+      <c r="AX3" s="115"/>
+      <c r="AY3" s="115"/>
+      <c r="AZ3" s="115"/>
+      <c r="BA3" s="116"/>
       <c r="BB3" s="58"/>
       <c r="BC3" s="58"/>
       <c r="BD3" s="58"/>
@@ -5043,55 +5345,55 @@
       <c r="BH3" s="58"/>
       <c r="BI3" s="36"/>
     </row>
-    <row r="4" spans="5:61" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="112"/>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="112"/>
-      <c r="AO4" s="112"/>
-      <c r="AP4" s="112"/>
-      <c r="AQ4" s="112"/>
-      <c r="AR4" s="112"/>
-      <c r="AS4" s="112"/>
-      <c r="AT4" s="112"/>
-      <c r="AU4" s="112"/>
-      <c r="AV4" s="112"/>
-      <c r="AW4" s="112"/>
-      <c r="AX4" s="112"/>
-      <c r="AY4" s="112"/>
-      <c r="AZ4" s="112"/>
-      <c r="BA4" s="113"/>
+    <row r="4" spans="5:61" ht="17.45" customHeight="1">
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118"/>
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118"/>
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118"/>
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="118"/>
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="119"/>
       <c r="BB4" s="58"/>
       <c r="BC4" s="58"/>
       <c r="BD4" s="58"/>
@@ -5101,55 +5403,55 @@
       <c r="BH4" s="58"/>
       <c r="BI4" s="36"/>
     </row>
-    <row r="5" spans="5:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="115"/>
-      <c r="AG5" s="115"/>
-      <c r="AH5" s="115"/>
-      <c r="AI5" s="115"/>
-      <c r="AJ5" s="115"/>
-      <c r="AK5" s="115"/>
-      <c r="AL5" s="115"/>
-      <c r="AM5" s="115"/>
-      <c r="AN5" s="115"/>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115"/>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="115"/>
-      <c r="AW5" s="115"/>
-      <c r="AX5" s="115"/>
-      <c r="AY5" s="115"/>
-      <c r="AZ5" s="115"/>
-      <c r="BA5" s="116"/>
+    <row r="5" spans="5:61" ht="18" customHeight="1" thickBot="1">
+      <c r="F5" s="120"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="121"/>
+      <c r="AG5" s="121"/>
+      <c r="AH5" s="121"/>
+      <c r="AI5" s="121"/>
+      <c r="AJ5" s="121"/>
+      <c r="AK5" s="121"/>
+      <c r="AL5" s="121"/>
+      <c r="AM5" s="121"/>
+      <c r="AN5" s="121"/>
+      <c r="AO5" s="121"/>
+      <c r="AP5" s="121"/>
+      <c r="AQ5" s="121"/>
+      <c r="AR5" s="121"/>
+      <c r="AS5" s="121"/>
+      <c r="AT5" s="121"/>
+      <c r="AU5" s="121"/>
+      <c r="AV5" s="121"/>
+      <c r="AW5" s="121"/>
+      <c r="AX5" s="121"/>
+      <c r="AY5" s="121"/>
+      <c r="AZ5" s="121"/>
+      <c r="BA5" s="122"/>
       <c r="BB5" s="58"/>
       <c r="BC5" s="58"/>
       <c r="BD5" s="58"/>
@@ -5159,7 +5461,7 @@
       <c r="BH5" s="58"/>
       <c r="BI5" s="36"/>
     </row>
-    <row r="6" spans="5:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:61" ht="16.5" customHeight="1">
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -5218,7 +5520,7 @@
       <c r="BH6" s="47"/>
       <c r="BI6" s="36"/>
     </row>
-    <row r="7" spans="5:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:61" ht="16.5" customHeight="1">
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -5276,7 +5578,7 @@
       <c r="BH7" s="36"/>
       <c r="BI7" s="36"/>
     </row>
-    <row r="8" spans="5:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:61">
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
@@ -5320,7 +5622,7 @@
       <c r="AW8" s="36"/>
       <c r="AX8" s="36"/>
     </row>
-    <row r="9" spans="5:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:61">
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
@@ -5364,7 +5666,7 @@
       <c r="AW9" s="36"/>
       <c r="AX9" s="36"/>
     </row>
-    <row r="10" spans="5:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:61">
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -5408,7 +5710,7 @@
       <c r="AW10" s="36"/>
       <c r="AX10" s="36"/>
     </row>
-    <row r="11" spans="5:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:61">
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
@@ -5452,7 +5754,7 @@
       <c r="AW11" s="36"/>
       <c r="AX11" s="36"/>
     </row>
-    <row r="12" spans="5:61" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:61">
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
@@ -5496,7 +5798,7 @@
       <c r="AW12" s="36"/>
       <c r="AX12" s="36"/>
     </row>
-    <row r="13" spans="5:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:61">
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
@@ -5540,7 +5842,7 @@
       <c r="AW13" s="36"/>
       <c r="AX13" s="36"/>
     </row>
-    <row r="14" spans="5:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:61">
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
@@ -5584,7 +5886,7 @@
       <c r="AW14" s="36"/>
       <c r="AX14" s="36"/>
     </row>
-    <row r="15" spans="5:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:61">
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -5628,7 +5930,7 @@
       <c r="AW15" s="36"/>
       <c r="AX15" s="36"/>
     </row>
-    <row r="16" spans="5:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:61">
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
@@ -5672,7 +5974,7 @@
       <c r="AW16" s="36"/>
       <c r="AX16" s="36"/>
     </row>
-    <row r="17" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:50">
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
@@ -5716,7 +6018,7 @@
       <c r="AW17" s="36"/>
       <c r="AX17" s="36"/>
     </row>
-    <row r="18" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:50">
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
       <c r="K18" s="48"/>
@@ -5760,7 +6062,7 @@
       <c r="AW18" s="48"/>
       <c r="AX18" s="48"/>
     </row>
-    <row r="19" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:50">
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -5804,7 +6106,7 @@
       <c r="AW19" s="36"/>
       <c r="AX19" s="36"/>
     </row>
-    <row r="20" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:50">
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
@@ -5848,7 +6150,7 @@
       <c r="AW20" s="36"/>
       <c r="AX20" s="36"/>
     </row>
-    <row r="21" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:50">
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
@@ -5892,7 +6194,7 @@
       <c r="AW21" s="36"/>
       <c r="AX21" s="36"/>
     </row>
-    <row r="22" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:50">
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
@@ -5936,7 +6238,7 @@
       <c r="AW22" s="36"/>
       <c r="AX22" s="36"/>
     </row>
-    <row r="23" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:50">
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
@@ -5980,7 +6282,7 @@
       <c r="AW23" s="36"/>
       <c r="AX23" s="36"/>
     </row>
-    <row r="24" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:50">
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
@@ -6022,7 +6324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:50">
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
@@ -6060,7 +6362,7 @@
       <c r="AQ25" s="36"/>
       <c r="AR25" s="36"/>
     </row>
-    <row r="26" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:50">
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
@@ -6102,7 +6404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:50">
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
@@ -6140,7 +6442,7 @@
       <c r="AQ27" s="36"/>
       <c r="AR27" s="36"/>
     </row>
-    <row r="28" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:50">
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
@@ -6182,7 +6484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:50">
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -6220,7 +6522,7 @@
       <c r="AQ29" s="36"/>
       <c r="AR29" s="36"/>
     </row>
-    <row r="30" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:50">
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -6262,7 +6564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:50">
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
@@ -6300,7 +6602,7 @@
       <c r="AQ31" s="36"/>
       <c r="AR31" s="36"/>
     </row>
-    <row r="32" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:50">
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
@@ -6342,7 +6644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:50">
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -6380,7 +6682,7 @@
       <c r="AQ33" s="36"/>
       <c r="AR33" s="36"/>
     </row>
-    <row r="34" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:50">
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
@@ -6422,7 +6724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:50">
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
@@ -6460,7 +6762,7 @@
       <c r="AQ35" s="36"/>
       <c r="AR35" s="36"/>
     </row>
-    <row r="36" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:50">
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
@@ -6498,7 +6800,7 @@
       <c r="AQ36" s="36"/>
       <c r="AR36" s="36"/>
     </row>
-    <row r="37" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:50">
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
@@ -6542,7 +6844,7 @@
       <c r="AW37" s="36"/>
       <c r="AX37" s="36"/>
     </row>
-    <row r="38" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:50">
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
@@ -6586,7 +6888,7 @@
       <c r="AW38" s="36"/>
       <c r="AX38" s="36"/>
     </row>
-    <row r="39" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:50">
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
@@ -6630,7 +6932,7 @@
       <c r="AW39" s="36"/>
       <c r="AX39" s="36"/>
     </row>
-    <row r="40" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:50">
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
@@ -6674,7 +6976,7 @@
       <c r="AW40" s="36"/>
       <c r="AX40" s="36"/>
     </row>
-    <row r="41" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:50">
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -6718,7 +7020,7 @@
       <c r="AW41" s="36"/>
       <c r="AX41" s="36"/>
     </row>
-    <row r="42" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:50">
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
@@ -6762,7 +7064,7 @@
       <c r="AW42" s="36"/>
       <c r="AX42" s="36"/>
     </row>
-    <row r="43" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:50">
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
       <c r="K43" s="36"/>
@@ -6806,7 +7108,7 @@
       <c r="AW43" s="36"/>
       <c r="AX43" s="36"/>
     </row>
-    <row r="44" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:50">
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
@@ -6850,7 +7152,7 @@
       <c r="AW44" s="36"/>
       <c r="AX44" s="36"/>
     </row>
-    <row r="45" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:50">
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -6894,7 +7196,7 @@
       <c r="AW45" s="36"/>
       <c r="AX45" s="36"/>
     </row>
-    <row r="46" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:50">
       <c r="I46" s="36"/>
       <c r="J46" s="36"/>
       <c r="K46" s="36"/>
@@ -6938,7 +7240,7 @@
       <c r="AW46" s="36"/>
       <c r="AX46" s="36"/>
     </row>
-    <row r="47" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:50">
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
@@ -6982,7 +7284,7 @@
       <c r="AW47" s="36"/>
       <c r="AX47" s="36"/>
     </row>
-    <row r="48" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:50">
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
@@ -7026,7 +7328,7 @@
       <c r="AW48" s="36"/>
       <c r="AX48" s="36"/>
     </row>
-    <row r="49" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:50">
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
       <c r="K49" s="36"/>
@@ -7070,7 +7372,7 @@
       <c r="AW49" s="36"/>
       <c r="AX49" s="36"/>
     </row>
-    <row r="50" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:50">
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
@@ -7114,7 +7416,7 @@
       <c r="AW50" s="36"/>
       <c r="AX50" s="36"/>
     </row>
-    <row r="51" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:50">
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
       <c r="K51" s="36"/>
@@ -7158,7 +7460,7 @@
       <c r="AW51" s="36"/>
       <c r="AX51" s="36"/>
     </row>
-    <row r="52" spans="9:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="9:50" ht="17.25" thickBot="1">
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
@@ -7201,7 +7503,7 @@
       <c r="AW52" s="36"/>
       <c r="AX52" s="36"/>
     </row>
-    <row r="53" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:50">
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -7235,8 +7537,8 @@
       <c r="AM53" s="36"/>
       <c r="AN53" s="36"/>
       <c r="AO53" s="36"/>
-      <c r="AP53" s="150"/>
-      <c r="AQ53" s="151"/>
+      <c r="AP53" s="80"/>
+      <c r="AQ53" s="81"/>
       <c r="AR53" s="33"/>
       <c r="AS53" s="36"/>
       <c r="AT53" s="36"/>
@@ -7245,7 +7547,7 @@
       <c r="AW53" s="36"/>
       <c r="AX53" s="36"/>
     </row>
-    <row r="54" spans="9:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:50" ht="17.25" thickBot="1">
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -7279,8 +7581,8 @@
       <c r="AM54" s="42"/>
       <c r="AN54" s="42"/>
       <c r="AO54" s="42"/>
-      <c r="AP54" s="152"/>
-      <c r="AQ54" s="153"/>
+      <c r="AP54" s="82"/>
+      <c r="AQ54" s="83"/>
       <c r="AR54" s="33"/>
       <c r="AS54" s="36"/>
       <c r="AT54" s="36"/>
@@ -7289,7 +7591,7 @@
       <c r="AW54" s="36"/>
       <c r="AX54" s="36"/>
     </row>
-    <row r="55" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:50">
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
@@ -7333,7 +7635,7 @@
       <c r="AW55" s="36"/>
       <c r="AX55" s="36"/>
     </row>
-    <row r="56" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:50">
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
@@ -7377,7 +7679,7 @@
       <c r="AW56" s="36"/>
       <c r="AX56" s="36"/>
     </row>
-    <row r="57" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:50">
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
@@ -7421,7 +7723,7 @@
       <c r="AW57" s="36"/>
       <c r="AX57" s="36"/>
     </row>
-    <row r="58" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:50">
       <c r="I58" s="36"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
@@ -7465,7 +7767,7 @@
       <c r="AW58" s="36"/>
       <c r="AX58" s="36"/>
     </row>
-    <row r="59" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:50">
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
@@ -7509,7 +7811,7 @@
       <c r="AW59" s="36"/>
       <c r="AX59" s="36"/>
     </row>
-    <row r="60" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:50">
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
@@ -7553,7 +7855,7 @@
       <c r="AW60" s="36"/>
       <c r="AX60" s="36"/>
     </row>
-    <row r="61" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:50">
       <c r="I61" s="36"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
@@ -7597,7 +7899,7 @@
       <c r="AW61" s="36"/>
       <c r="AX61" s="36"/>
     </row>
-    <row r="62" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:50">
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
@@ -7641,7 +7943,7 @@
       <c r="AW62" s="36"/>
       <c r="AX62" s="36"/>
     </row>
-    <row r="63" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:50">
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
@@ -7685,7 +7987,7 @@
       <c r="AW63" s="36"/>
       <c r="AX63" s="36"/>
     </row>
-    <row r="64" spans="9:50" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:50">
       <c r="I64" s="36"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
@@ -7729,7 +8031,7 @@
       <c r="AW64" s="36"/>
       <c r="AX64" s="36"/>
     </row>
-    <row r="65" spans="9:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:54">
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
@@ -7773,7 +8075,7 @@
       <c r="AW65" s="36"/>
       <c r="AX65" s="36"/>
     </row>
-    <row r="66" spans="9:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:54">
       <c r="I66" s="36"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
@@ -7817,7 +8119,7 @@
       <c r="AW66" s="36"/>
       <c r="AX66" s="36"/>
     </row>
-    <row r="67" spans="9:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:54">
       <c r="I67" s="36"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
@@ -7861,7 +8163,7 @@
       <c r="AW67" s="36"/>
       <c r="AX67" s="36"/>
     </row>
-    <row r="68" spans="9:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:54">
       <c r="M68" s="36"/>
       <c r="N68" s="36"/>
       <c r="O68" s="36"/>
@@ -7905,7 +8207,7 @@
       <c r="BA68" s="36"/>
       <c r="BB68" s="36"/>
     </row>
-    <row r="69" spans="9:54" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:54" s="12" customFormat="1">
       <c r="M69" s="31"/>
       <c r="N69" s="31"/>
       <c r="O69" s="31"/>
@@ -7949,134 +8251,134 @@
       <c r="BA69" s="31"/>
       <c r="BB69" s="31"/>
     </row>
-    <row r="70" spans="9:54" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="9:54" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:54" s="12" customFormat="1"/>
+    <row r="71" spans="9:54" s="12" customFormat="1">
       <c r="P71" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="9:54" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:54" s="12" customFormat="1">
       <c r="Q72" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="9:54" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:54" s="12" customFormat="1">
       <c r="Q73" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="9:54" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="9:54" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="9:54" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="9:54" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="9:54" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="9:54" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="9:54" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="9:54" s="12" customFormat="1"/>
+    <row r="75" spans="9:54" s="12" customFormat="1"/>
+    <row r="76" spans="9:54" s="12" customFormat="1"/>
+    <row r="77" spans="9:54" s="12" customFormat="1"/>
+    <row r="78" spans="9:54" s="12" customFormat="1"/>
+    <row r="79" spans="9:54" s="12" customFormat="1"/>
+    <row r="80" spans="9:54" s="12" customFormat="1"/>
+    <row r="81" s="12" customFormat="1"/>
+    <row r="82" s="12" customFormat="1"/>
+    <row r="83" s="12" customFormat="1"/>
+    <row r="84" s="12" customFormat="1"/>
+    <row r="85" s="12" customFormat="1"/>
+    <row r="86" s="12" customFormat="1"/>
+    <row r="87" s="12" customFormat="1"/>
+    <row r="88" s="12" customFormat="1"/>
+    <row r="89" s="12" customFormat="1"/>
+    <row r="90" s="12" customFormat="1"/>
+    <row r="91" s="12" customFormat="1"/>
+    <row r="92" s="12" customFormat="1"/>
+    <row r="93" s="12" customFormat="1"/>
+    <row r="94" s="12" customFormat="1"/>
+    <row r="95" s="12" customFormat="1"/>
+    <row r="96" s="12" customFormat="1"/>
+    <row r="97" s="12" customFormat="1"/>
+    <row r="98" s="12" customFormat="1"/>
+    <row r="99" s="12" customFormat="1"/>
+    <row r="100" s="12" customFormat="1"/>
+    <row r="101" s="12" customFormat="1"/>
+    <row r="102" s="12" customFormat="1"/>
+    <row r="103" s="12" customFormat="1"/>
+    <row r="104" s="12" customFormat="1"/>
+    <row r="105" s="12" customFormat="1"/>
+    <row r="106" s="12" customFormat="1"/>
+    <row r="107" s="12" customFormat="1"/>
+    <row r="108" s="12" customFormat="1"/>
+    <row r="109" s="12" customFormat="1"/>
+    <row r="110" s="12" customFormat="1"/>
+    <row r="111" s="12" customFormat="1"/>
+    <row r="112" s="12" customFormat="1"/>
+    <row r="113" s="12" customFormat="1"/>
+    <row r="114" s="12" customFormat="1"/>
+    <row r="115" s="12" customFormat="1"/>
+    <row r="116" s="12" customFormat="1"/>
+    <row r="117" s="12" customFormat="1"/>
+    <row r="118" s="12" customFormat="1"/>
+    <row r="119" s="12" customFormat="1"/>
+    <row r="120" s="12" customFormat="1"/>
+    <row r="121" s="12" customFormat="1"/>
+    <row r="122" s="12" customFormat="1"/>
+    <row r="123" s="12" customFormat="1"/>
+    <row r="124" s="12" customFormat="1"/>
+    <row r="125" s="12" customFormat="1"/>
+    <row r="126" s="12" customFormat="1"/>
+    <row r="127" s="12" customFormat="1"/>
+    <row r="128" s="12" customFormat="1"/>
+    <row r="129" s="12" customFormat="1"/>
+    <row r="130" s="12" customFormat="1"/>
+    <row r="131" s="12" customFormat="1"/>
+    <row r="132" s="12" customFormat="1"/>
+    <row r="133" s="12" customFormat="1"/>
+    <row r="134" s="12" customFormat="1"/>
+    <row r="135" s="12" customFormat="1"/>
+    <row r="136" s="12" customFormat="1"/>
+    <row r="137" s="12" customFormat="1"/>
+    <row r="138" s="12" customFormat="1"/>
+    <row r="139" s="12" customFormat="1"/>
+    <row r="140" s="12" customFormat="1"/>
+    <row r="141" s="12" customFormat="1"/>
+    <row r="142" s="12" customFormat="1"/>
+    <row r="143" s="12" customFormat="1"/>
+    <row r="144" s="12" customFormat="1"/>
+    <row r="145" s="12" customFormat="1"/>
+    <row r="146" s="12" customFormat="1"/>
+    <row r="147" s="12" customFormat="1"/>
+    <row r="148" s="12" customFormat="1"/>
+    <row r="149" s="12" customFormat="1"/>
+    <row r="150" s="12" customFormat="1"/>
+    <row r="151" s="12" customFormat="1"/>
+    <row r="152" s="12" customFormat="1"/>
+    <row r="153" s="12" customFormat="1"/>
+    <row r="154" s="12" customFormat="1"/>
+    <row r="155" s="12" customFormat="1"/>
+    <row r="156" s="12" customFormat="1"/>
+    <row r="157" s="12" customFormat="1"/>
+    <row r="158" s="12" customFormat="1"/>
+    <row r="159" s="12" customFormat="1"/>
+    <row r="160" s="12" customFormat="1"/>
+    <row r="161" s="12" customFormat="1"/>
+    <row r="162" s="12" customFormat="1"/>
+    <row r="163" s="12" customFormat="1"/>
+    <row r="164" s="12" customFormat="1"/>
+    <row r="165" s="12" customFormat="1"/>
+    <row r="166" s="12" customFormat="1"/>
+    <row r="167" s="12" customFormat="1"/>
+    <row r="168" s="12" customFormat="1"/>
+    <row r="169" s="12" customFormat="1"/>
+    <row r="170" s="12" customFormat="1"/>
+    <row r="171" s="12" customFormat="1"/>
+    <row r="172" s="12" customFormat="1"/>
+    <row r="173" s="12" customFormat="1"/>
+    <row r="174" s="12" customFormat="1"/>
+    <row r="175" s="12" customFormat="1"/>
+    <row r="176" s="12" customFormat="1"/>
+    <row r="177" s="12" customFormat="1"/>
+    <row r="178" s="12" customFormat="1"/>
+    <row r="179" s="12" customFormat="1"/>
+    <row r="180" s="12" customFormat="1"/>
+    <row r="181" s="12" customFormat="1"/>
+    <row r="182" s="12" customFormat="1"/>
+    <row r="183" s="12" customFormat="1"/>
+    <row r="184" s="12" customFormat="1"/>
+    <row r="185" s="12" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F3:BA5"/>
@@ -8092,259 +8394,259 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EFB6A8-5AC3-42DE-A478-1D31579B1464}">
   <dimension ref="F2:DE91"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AN73" sqref="AN73"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="CK21" sqref="CK21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="127" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:83" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="6:83" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="100" t="s">
+    <row r="2" spans="6:83" ht="17.25" thickBot="1"/>
+    <row r="3" spans="6:83" ht="16.5" customHeight="1">
+      <c r="F3" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="109"/>
-      <c r="AK3" s="109"/>
-      <c r="AL3" s="109"/>
-      <c r="AM3" s="109"/>
-      <c r="AN3" s="109"/>
-      <c r="AO3" s="109"/>
-      <c r="AP3" s="109"/>
-      <c r="AQ3" s="109"/>
-      <c r="AR3" s="109"/>
-      <c r="AS3" s="109"/>
-      <c r="AT3" s="109"/>
-      <c r="AU3" s="109"/>
-      <c r="AV3" s="109"/>
-      <c r="AW3" s="109"/>
-      <c r="AX3" s="109"/>
-      <c r="AY3" s="109"/>
-      <c r="AZ3" s="109"/>
-      <c r="BA3" s="109"/>
-      <c r="BB3" s="109"/>
-      <c r="BC3" s="109"/>
-      <c r="BD3" s="109"/>
-      <c r="BE3" s="109"/>
-      <c r="BF3" s="109"/>
-      <c r="BG3" s="109"/>
-      <c r="BH3" s="109"/>
-      <c r="BI3" s="109"/>
-      <c r="BJ3" s="109"/>
-      <c r="BK3" s="109"/>
-      <c r="BL3" s="109"/>
-      <c r="BM3" s="109"/>
-      <c r="BN3" s="109"/>
-      <c r="BO3" s="109"/>
-      <c r="BP3" s="109"/>
-      <c r="BQ3" s="109"/>
-      <c r="BR3" s="109"/>
-      <c r="BS3" s="109"/>
-      <c r="BT3" s="109"/>
-      <c r="BU3" s="109"/>
-      <c r="BV3" s="109"/>
-      <c r="BW3" s="109"/>
-      <c r="BX3" s="109"/>
-      <c r="BY3" s="109"/>
-      <c r="BZ3" s="109"/>
-      <c r="CA3" s="109"/>
-      <c r="CB3" s="109"/>
-      <c r="CC3" s="109"/>
-      <c r="CD3" s="109"/>
-      <c r="CE3" s="110"/>
-    </row>
-    <row r="4" spans="6:83" x14ac:dyDescent="0.3">
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="112"/>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="112"/>
-      <c r="AO4" s="112"/>
-      <c r="AP4" s="112"/>
-      <c r="AQ4" s="112"/>
-      <c r="AR4" s="112"/>
-      <c r="AS4" s="112"/>
-      <c r="AT4" s="112"/>
-      <c r="AU4" s="112"/>
-      <c r="AV4" s="112"/>
-      <c r="AW4" s="112"/>
-      <c r="AX4" s="112"/>
-      <c r="AY4" s="112"/>
-      <c r="AZ4" s="112"/>
-      <c r="BA4" s="112"/>
-      <c r="BB4" s="112"/>
-      <c r="BC4" s="112"/>
-      <c r="BD4" s="112"/>
-      <c r="BE4" s="112"/>
-      <c r="BF4" s="112"/>
-      <c r="BG4" s="112"/>
-      <c r="BH4" s="112"/>
-      <c r="BI4" s="112"/>
-      <c r="BJ4" s="112"/>
-      <c r="BK4" s="112"/>
-      <c r="BL4" s="112"/>
-      <c r="BM4" s="112"/>
-      <c r="BN4" s="112"/>
-      <c r="BO4" s="112"/>
-      <c r="BP4" s="112"/>
-      <c r="BQ4" s="112"/>
-      <c r="BR4" s="112"/>
-      <c r="BS4" s="112"/>
-      <c r="BT4" s="112"/>
-      <c r="BU4" s="112"/>
-      <c r="BV4" s="112"/>
-      <c r="BW4" s="112"/>
-      <c r="BX4" s="112"/>
-      <c r="BY4" s="112"/>
-      <c r="BZ4" s="112"/>
-      <c r="CA4" s="112"/>
-      <c r="CB4" s="112"/>
-      <c r="CC4" s="112"/>
-      <c r="CD4" s="112"/>
-      <c r="CE4" s="113"/>
-    </row>
-    <row r="5" spans="6:83" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="115"/>
-      <c r="AG5" s="115"/>
-      <c r="AH5" s="115"/>
-      <c r="AI5" s="115"/>
-      <c r="AJ5" s="115"/>
-      <c r="AK5" s="115"/>
-      <c r="AL5" s="115"/>
-      <c r="AM5" s="115"/>
-      <c r="AN5" s="115"/>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115"/>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="115"/>
-      <c r="AW5" s="115"/>
-      <c r="AX5" s="115"/>
-      <c r="AY5" s="115"/>
-      <c r="AZ5" s="115"/>
-      <c r="BA5" s="115"/>
-      <c r="BB5" s="115"/>
-      <c r="BC5" s="115"/>
-      <c r="BD5" s="115"/>
-      <c r="BE5" s="115"/>
-      <c r="BF5" s="115"/>
-      <c r="BG5" s="115"/>
-      <c r="BH5" s="115"/>
-      <c r="BI5" s="115"/>
-      <c r="BJ5" s="115"/>
-      <c r="BK5" s="115"/>
-      <c r="BL5" s="115"/>
-      <c r="BM5" s="115"/>
-      <c r="BN5" s="115"/>
-      <c r="BO5" s="115"/>
-      <c r="BP5" s="115"/>
-      <c r="BQ5" s="115"/>
-      <c r="BR5" s="115"/>
-      <c r="BS5" s="115"/>
-      <c r="BT5" s="115"/>
-      <c r="BU5" s="115"/>
-      <c r="BV5" s="115"/>
-      <c r="BW5" s="115"/>
-      <c r="BX5" s="115"/>
-      <c r="BY5" s="115"/>
-      <c r="BZ5" s="115"/>
-      <c r="CA5" s="115"/>
-      <c r="CB5" s="115"/>
-      <c r="CC5" s="115"/>
-      <c r="CD5" s="115"/>
-      <c r="CE5" s="116"/>
-    </row>
-    <row r="6" spans="6:83" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="115"/>
+      <c r="AK3" s="115"/>
+      <c r="AL3" s="115"/>
+      <c r="AM3" s="115"/>
+      <c r="AN3" s="115"/>
+      <c r="AO3" s="115"/>
+      <c r="AP3" s="115"/>
+      <c r="AQ3" s="115"/>
+      <c r="AR3" s="115"/>
+      <c r="AS3" s="115"/>
+      <c r="AT3" s="115"/>
+      <c r="AU3" s="115"/>
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="115"/>
+      <c r="AX3" s="115"/>
+      <c r="AY3" s="115"/>
+      <c r="AZ3" s="115"/>
+      <c r="BA3" s="115"/>
+      <c r="BB3" s="115"/>
+      <c r="BC3" s="115"/>
+      <c r="BD3" s="115"/>
+      <c r="BE3" s="115"/>
+      <c r="BF3" s="115"/>
+      <c r="BG3" s="115"/>
+      <c r="BH3" s="115"/>
+      <c r="BI3" s="115"/>
+      <c r="BJ3" s="115"/>
+      <c r="BK3" s="115"/>
+      <c r="BL3" s="115"/>
+      <c r="BM3" s="115"/>
+      <c r="BN3" s="115"/>
+      <c r="BO3" s="115"/>
+      <c r="BP3" s="115"/>
+      <c r="BQ3" s="115"/>
+      <c r="BR3" s="115"/>
+      <c r="BS3" s="115"/>
+      <c r="BT3" s="115"/>
+      <c r="BU3" s="115"/>
+      <c r="BV3" s="115"/>
+      <c r="BW3" s="115"/>
+      <c r="BX3" s="115"/>
+      <c r="BY3" s="115"/>
+      <c r="BZ3" s="115"/>
+      <c r="CA3" s="115"/>
+      <c r="CB3" s="115"/>
+      <c r="CC3" s="115"/>
+      <c r="CD3" s="115"/>
+      <c r="CE3" s="116"/>
+    </row>
+    <row r="4" spans="6:83">
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118"/>
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118"/>
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118"/>
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="118"/>
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="118"/>
+      <c r="BB4" s="118"/>
+      <c r="BC4" s="118"/>
+      <c r="BD4" s="118"/>
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="118"/>
+      <c r="BG4" s="118"/>
+      <c r="BH4" s="118"/>
+      <c r="BI4" s="118"/>
+      <c r="BJ4" s="118"/>
+      <c r="BK4" s="118"/>
+      <c r="BL4" s="118"/>
+      <c r="BM4" s="118"/>
+      <c r="BN4" s="118"/>
+      <c r="BO4" s="118"/>
+      <c r="BP4" s="118"/>
+      <c r="BQ4" s="118"/>
+      <c r="BR4" s="118"/>
+      <c r="BS4" s="118"/>
+      <c r="BT4" s="118"/>
+      <c r="BU4" s="118"/>
+      <c r="BV4" s="118"/>
+      <c r="BW4" s="118"/>
+      <c r="BX4" s="118"/>
+      <c r="BY4" s="118"/>
+      <c r="BZ4" s="118"/>
+      <c r="CA4" s="118"/>
+      <c r="CB4" s="118"/>
+      <c r="CC4" s="118"/>
+      <c r="CD4" s="118"/>
+      <c r="CE4" s="119"/>
+    </row>
+    <row r="5" spans="6:83" ht="17.25" thickBot="1">
+      <c r="F5" s="120"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="121"/>
+      <c r="AG5" s="121"/>
+      <c r="AH5" s="121"/>
+      <c r="AI5" s="121"/>
+      <c r="AJ5" s="121"/>
+      <c r="AK5" s="121"/>
+      <c r="AL5" s="121"/>
+      <c r="AM5" s="121"/>
+      <c r="AN5" s="121"/>
+      <c r="AO5" s="121"/>
+      <c r="AP5" s="121"/>
+      <c r="AQ5" s="121"/>
+      <c r="AR5" s="121"/>
+      <c r="AS5" s="121"/>
+      <c r="AT5" s="121"/>
+      <c r="AU5" s="121"/>
+      <c r="AV5" s="121"/>
+      <c r="AW5" s="121"/>
+      <c r="AX5" s="121"/>
+      <c r="AY5" s="121"/>
+      <c r="AZ5" s="121"/>
+      <c r="BA5" s="121"/>
+      <c r="BB5" s="121"/>
+      <c r="BC5" s="121"/>
+      <c r="BD5" s="121"/>
+      <c r="BE5" s="121"/>
+      <c r="BF5" s="121"/>
+      <c r="BG5" s="121"/>
+      <c r="BH5" s="121"/>
+      <c r="BI5" s="121"/>
+      <c r="BJ5" s="121"/>
+      <c r="BK5" s="121"/>
+      <c r="BL5" s="121"/>
+      <c r="BM5" s="121"/>
+      <c r="BN5" s="121"/>
+      <c r="BO5" s="121"/>
+      <c r="BP5" s="121"/>
+      <c r="BQ5" s="121"/>
+      <c r="BR5" s="121"/>
+      <c r="BS5" s="121"/>
+      <c r="BT5" s="121"/>
+      <c r="BU5" s="121"/>
+      <c r="BV5" s="121"/>
+      <c r="BW5" s="121"/>
+      <c r="BX5" s="121"/>
+      <c r="BY5" s="121"/>
+      <c r="BZ5" s="121"/>
+      <c r="CA5" s="121"/>
+      <c r="CB5" s="121"/>
+      <c r="CC5" s="121"/>
+      <c r="CD5" s="121"/>
+      <c r="CE5" s="122"/>
+    </row>
+    <row r="6" spans="6:83" ht="31.5">
       <c r="F6" s="75"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75"/>
@@ -8424,12 +8726,12 @@
       <c r="CD6" s="75"/>
       <c r="CE6" s="75"/>
     </row>
-    <row r="8" spans="6:83" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:83">
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="11" spans="6:83" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:83">
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -8447,7 +8749,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="6:83" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:83">
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -8471,7 +8773,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="76"/>
     </row>
-    <row r="13" spans="6:83" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:83" ht="16.5" customHeight="1">
       <c r="G13" s="1"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -8491,20 +8793,20 @@
       <c r="W13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AF13" s="143" t="s">
+      <c r="AF13" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="AG13" s="143"/>
-      <c r="AP13" s="143" t="s">
+      <c r="AG13" s="128"/>
+      <c r="AX13" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="AQ13" s="143"/>
-      <c r="BF13" s="143" t="s">
+      <c r="AY13" s="128"/>
+      <c r="BL13" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="BG13" s="143"/>
-    </row>
-    <row r="14" spans="6:83" x14ac:dyDescent="0.3">
+      <c r="BM13" s="128"/>
+    </row>
+    <row r="14" spans="6:83" ht="16.5" customHeight="1">
       <c r="G14" s="1"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -8527,15 +8829,15 @@
       <c r="Z14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="7"/>
-      <c r="AF14" s="143"/>
-      <c r="AG14" s="143"/>
-      <c r="AP14" s="143"/>
-      <c r="AQ14" s="143"/>
-      <c r="BF14" s="143"/>
-      <c r="BG14" s="143"/>
-    </row>
-    <row r="15" spans="6:83" x14ac:dyDescent="0.3">
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="128"/>
+      <c r="AP14" s="7"/>
+      <c r="AX14" s="128"/>
+      <c r="AY14" s="128"/>
+      <c r="BL14" s="128"/>
+      <c r="BM14" s="128"/>
+    </row>
+    <row r="15" spans="6:83">
       <c r="G15" s="1"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -8565,8 +8867,10 @@
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
+      <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
@@ -8589,7 +8893,7 @@
       <c r="CC15" s="1"/>
       <c r="CD15" s="1"/>
     </row>
-    <row r="16" spans="6:83" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:83">
       <c r="G16" s="1"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -8619,8 +8923,10 @@
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
+      <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
       <c r="BG16" s="1"/>
@@ -8643,7 +8949,7 @@
       <c r="CC16" s="1"/>
       <c r="CD16" s="1"/>
     </row>
-    <row r="17" spans="7:82" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:82">
       <c r="G17" s="1"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -8651,10 +8957,10 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="144" t="s">
+      <c r="N17" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="144"/>
+      <c r="O17" s="127"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -8668,7 +8974,7 @@
       <c r="CC17" s="1"/>
       <c r="CD17" s="1"/>
     </row>
-    <row r="18" spans="7:82" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:82" ht="17.45" customHeight="1">
       <c r="G18" s="1"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -8676,8 +8982,8 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
       <c r="P18" s="77"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -8691,7 +8997,7 @@
       <c r="CC18" s="1"/>
       <c r="CD18" s="1"/>
     </row>
-    <row r="19" spans="7:82" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:82">
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -8721,7 +9027,7 @@
       <c r="CC19" s="1"/>
       <c r="CD19" s="1"/>
     </row>
-    <row r="20" spans="7:82" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:82">
       <c r="G20" s="1"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -8757,15 +9063,10 @@
       <c r="BE20" s="33"/>
       <c r="BT20" s="33"/>
       <c r="BU20" s="33"/>
-      <c r="BW20" s="134">
-        <v>2</v>
-      </c>
-      <c r="BX20" s="134"/>
-      <c r="BY20" s="134"/>
       <c r="CC20" s="1"/>
       <c r="CD20" s="1"/>
     </row>
-    <row r="21" spans="7:82" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:82">
       <c r="G21" s="1"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -8816,17 +9117,10 @@
       <c r="BN21" s="33"/>
       <c r="BT21" s="33"/>
       <c r="BU21" s="33"/>
-      <c r="BV21" s="3"/>
-      <c r="BW21" s="134"/>
-      <c r="BX21" s="134"/>
-      <c r="BY21" s="134"/>
-      <c r="BZ21" s="3"/>
-      <c r="CA21" s="3"/>
-      <c r="CB21" s="3"/>
       <c r="CC21" s="1"/>
       <c r="CD21" s="1"/>
     </row>
-    <row r="22" spans="7:82" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:82">
       <c r="G22" s="1"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -8859,9 +9153,9 @@
       <c r="AN22" s="33"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
@@ -8872,17 +9166,10 @@
       <c r="BA22" s="33"/>
       <c r="BT22" s="33"/>
       <c r="BU22" s="33"/>
-      <c r="BV22" s="3"/>
-      <c r="BW22" s="134"/>
-      <c r="BX22" s="134"/>
-      <c r="BY22" s="134"/>
-      <c r="BZ22" s="3"/>
-      <c r="CA22" s="3"/>
-      <c r="CB22" s="3"/>
       <c r="CC22" s="1"/>
       <c r="CD22" s="1"/>
     </row>
-    <row r="23" spans="7:82" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:82">
       <c r="G23" s="1"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -8915,9 +9202,9 @@
       <c r="AN23" s="33"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
       <c r="AV23" s="33"/>
@@ -8932,17 +9219,10 @@
       <c r="BS23" s="33"/>
       <c r="BT23" s="33"/>
       <c r="BU23" s="33"/>
-      <c r="BV23" s="3"/>
-      <c r="BW23" s="3"/>
-      <c r="BX23" s="3"/>
-      <c r="BY23" s="3"/>
-      <c r="BZ23" s="3"/>
-      <c r="CA23" s="3"/>
-      <c r="CB23" s="3"/>
       <c r="CC23" s="1"/>
       <c r="CD23" s="1"/>
     </row>
-    <row r="24" spans="7:82" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:82">
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -8975,9 +9255,9 @@
       <c r="AN24" s="33"/>
       <c r="AO24" s="33"/>
       <c r="AP24" s="33"/>
-      <c r="AQ24" s="33"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
@@ -8988,17 +9268,10 @@
       <c r="BA24" s="33"/>
       <c r="BT24" s="33"/>
       <c r="BU24" s="33"/>
-      <c r="BV24" s="3"/>
-      <c r="BW24" s="3"/>
-      <c r="BX24" s="3"/>
-      <c r="BY24" s="3"/>
-      <c r="BZ24" s="3"/>
-      <c r="CA24" s="3"/>
-      <c r="CB24" s="3"/>
       <c r="CC24" s="1"/>
       <c r="CD24" s="1"/>
     </row>
-    <row r="25" spans="7:82" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:82" ht="16.5" customHeight="1">
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="3"/>
@@ -9021,11 +9294,11 @@
       <c r="AD25" s="37"/>
       <c r="AE25" s="37"/>
       <c r="AF25" s="37"/>
-      <c r="AG25" s="146" t="s">
+      <c r="AG25" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="AH25" s="145"/>
-      <c r="AI25" s="145"/>
+      <c r="AH25" s="138"/>
+      <c r="AI25" s="138"/>
       <c r="AJ25" s="37"/>
       <c r="AK25" s="37"/>
       <c r="AL25" s="37"/>
@@ -9046,17 +9319,10 @@
       <c r="BA25" s="33"/>
       <c r="BT25" s="33"/>
       <c r="BU25" s="33"/>
-      <c r="BV25" s="3"/>
-      <c r="BW25" s="3"/>
-      <c r="BX25" s="3"/>
-      <c r="BY25" s="3"/>
-      <c r="BZ25" s="3"/>
-      <c r="CA25" s="3"/>
-      <c r="CB25" s="3"/>
       <c r="CC25" s="1"/>
       <c r="CD25" s="1"/>
     </row>
-    <row r="26" spans="7:82" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:82" ht="16.5" customHeight="1">
       <c r="G26" s="1"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -9079,9 +9345,9 @@
       <c r="AD26" s="37"/>
       <c r="AE26" s="37"/>
       <c r="AF26" s="37"/>
-      <c r="AG26" s="145"/>
-      <c r="AH26" s="145"/>
-      <c r="AI26" s="145"/>
+      <c r="AG26" s="138"/>
+      <c r="AH26" s="138"/>
+      <c r="AI26" s="138"/>
       <c r="AJ26" s="37"/>
       <c r="AK26" s="37"/>
       <c r="AL26" s="37"/>
@@ -9093,7 +9359,7 @@
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="33"/>
-      <c r="AU26" s="142"/>
+      <c r="AU26" s="79"/>
       <c r="AV26" s="3"/>
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
@@ -9102,22 +9368,15 @@
       <c r="BA26" s="33"/>
       <c r="BT26" s="33"/>
       <c r="BU26" s="33"/>
-      <c r="BV26" s="3"/>
-      <c r="BW26" s="3"/>
-      <c r="BX26" s="3"/>
-      <c r="BY26" s="3"/>
-      <c r="BZ26" s="3"/>
-      <c r="CA26" s="3"/>
-      <c r="CB26" s="3"/>
       <c r="CC26" s="1"/>
       <c r="CD26" s="1"/>
     </row>
-    <row r="27" spans="7:82" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:82" ht="16.5" customHeight="1">
       <c r="G27" s="1"/>
-      <c r="H27" s="133">
+      <c r="H27" s="136">
         <v>4</v>
       </c>
-      <c r="I27" s="133"/>
+      <c r="I27" s="136"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -9132,14 +9391,17 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="37"/>
       <c r="AE27" s="37"/>
       <c r="AF27" s="37"/>
-      <c r="AG27" s="145"/>
-      <c r="AH27" s="145"/>
-      <c r="AI27" s="145"/>
+      <c r="AG27" s="138"/>
+      <c r="AH27" s="138"/>
+      <c r="AI27" s="138"/>
       <c r="AJ27" s="37"/>
       <c r="AK27" s="37"/>
       <c r="AL27" s="37"/>
@@ -9149,33 +9411,24 @@
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
-      <c r="AS27" s="142"/>
-      <c r="AT27" s="142"/>
-      <c r="AU27" s="142"/>
-      <c r="AV27" s="3"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
+      <c r="AS27" s="79"/>
+      <c r="AT27" s="79"/>
+      <c r="AU27" s="79"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
       <c r="AY27" s="3"/>
       <c r="AZ27" s="33"/>
       <c r="BA27" s="33"/>
       <c r="BT27" s="33"/>
       <c r="BU27" s="33"/>
-      <c r="BV27" s="3"/>
-      <c r="BW27" s="3"/>
-      <c r="BX27" s="135" t="s">
-        <v>57</v>
-      </c>
-      <c r="BY27" s="135"/>
-      <c r="BZ27" s="135"/>
-      <c r="CA27" s="3"/>
-      <c r="CB27" s="3"/>
       <c r="CC27" s="1"/>
       <c r="CD27" s="1"/>
     </row>
-    <row r="28" spans="7:82" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:82" ht="16.5" customHeight="1">
       <c r="G28" s="1"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
       <c r="J28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -9200,14 +9453,14 @@
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
-      <c r="AS28" s="135" t="s">
+      <c r="AS28" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="AT28" s="135"/>
-      <c r="AU28" s="142"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
+      <c r="AT28" s="126"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
       <c r="AY28" s="3"/>
       <c r="AZ28" s="33"/>
       <c r="BA28" s="33"/>
@@ -9217,17 +9470,10 @@
       <c r="BM28" s="33"/>
       <c r="BT28" s="33"/>
       <c r="BU28" s="33"/>
-      <c r="BV28" s="3"/>
-      <c r="BW28" s="3"/>
-      <c r="BX28" s="135"/>
-      <c r="BY28" s="135"/>
-      <c r="BZ28" s="135"/>
-      <c r="CA28" s="3"/>
-      <c r="CB28" s="3"/>
       <c r="CC28" s="1"/>
       <c r="CD28" s="1"/>
     </row>
-    <row r="29" spans="7:82" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="7:82" ht="17.25" customHeight="1" thickBot="1">
       <c r="G29" s="1"/>
       <c r="J29" s="1"/>
       <c r="Q29" s="1"/>
@@ -9254,28 +9500,26 @@
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
-      <c r="AS29" s="135"/>
-      <c r="AT29" s="135"/>
+      <c r="AS29" s="126"/>
+      <c r="AT29" s="126"/>
       <c r="AU29" s="3"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="33"/>
-      <c r="AX29" s="33"/>
+      <c r="AV29" s="41"/>
+      <c r="AW29" s="41"/>
+      <c r="AX29" s="41"/>
       <c r="AY29" s="33"/>
       <c r="AZ29" s="33"/>
       <c r="BA29" s="33"/>
       <c r="BT29" s="33"/>
       <c r="BU29" s="33"/>
-      <c r="BV29" s="3"/>
-      <c r="BW29" s="3"/>
-      <c r="BX29" s="135"/>
-      <c r="BY29" s="135"/>
-      <c r="BZ29" s="135"/>
-      <c r="CA29" s="3"/>
-      <c r="CB29" s="3"/>
+      <c r="BV29" s="131">
+        <v>2</v>
+      </c>
+      <c r="BW29" s="131"/>
+      <c r="BX29" s="131"/>
       <c r="CC29" s="1"/>
       <c r="CD29" s="1"/>
     </row>
-    <row r="30" spans="7:82" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:82" ht="16.5" customHeight="1">
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="J30" s="1"/>
@@ -9288,10 +9532,10 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="137" t="s">
+      <c r="AA30" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="AA30" s="138"/>
+      <c r="AB30" s="133"/>
       <c r="AD30" s="37"/>
       <c r="AE30" s="37"/>
       <c r="AF30" s="37"/>
@@ -9324,17 +9568,13 @@
       <c r="BG30" s="33"/>
       <c r="BT30" s="33"/>
       <c r="BU30" s="33"/>
-      <c r="BV30" s="3"/>
-      <c r="BW30" s="3"/>
-      <c r="BX30" s="3"/>
-      <c r="BY30" s="3"/>
-      <c r="BZ30" s="3"/>
-      <c r="CA30" s="3"/>
-      <c r="CB30" s="3"/>
+      <c r="BV30" s="131"/>
+      <c r="BW30" s="131"/>
+      <c r="BX30" s="131"/>
       <c r="CC30" s="1"/>
       <c r="CD30" s="1"/>
     </row>
-    <row r="31" spans="7:82" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="7:82" ht="17.25" customHeight="1" thickBot="1">
       <c r="G31" s="1"/>
       <c r="J31" s="1"/>
       <c r="Q31" s="1"/>
@@ -9346,8 +9586,8 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-      <c r="Z31" s="139"/>
-      <c r="AA31" s="140"/>
+      <c r="AA31" s="134"/>
+      <c r="AB31" s="135"/>
       <c r="AD31" s="37"/>
       <c r="AE31" s="37"/>
       <c r="AF31" s="37"/>
@@ -9374,17 +9614,17 @@
       <c r="BA31" s="33"/>
       <c r="BT31" s="33"/>
       <c r="BU31" s="33"/>
-      <c r="BV31" s="3"/>
-      <c r="BW31" s="3"/>
-      <c r="BX31" s="3"/>
-      <c r="BY31" s="3"/>
-      <c r="BZ31" s="3"/>
+      <c r="BV31" s="131"/>
+      <c r="BW31" s="131"/>
+      <c r="BX31" s="131"/>
+      <c r="BY31" s="78"/>
+      <c r="BZ31" s="78"/>
       <c r="CA31" s="3"/>
       <c r="CB31" s="3"/>
       <c r="CC31" s="1"/>
       <c r="CD31" s="1"/>
     </row>
-    <row r="32" spans="7:82" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:82" ht="16.5" customHeight="1">
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -9421,26 +9661,17 @@
       <c r="BU32" s="33"/>
       <c r="BV32" s="3"/>
       <c r="BW32" s="3"/>
-      <c r="BX32" s="3"/>
-      <c r="BY32" s="3"/>
-      <c r="BZ32" s="3"/>
+      <c r="BX32" s="78"/>
+      <c r="BY32" s="78"/>
+      <c r="BZ32" s="78"/>
       <c r="CA32" s="3"/>
       <c r="CB32" s="3"/>
       <c r="CC32" s="1"/>
       <c r="CD32" s="1"/>
     </row>
-    <row r="33" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:109" ht="16.5" customHeight="1">
       <c r="G33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
@@ -9457,11 +9688,11 @@
       <c r="AL33" s="37"/>
       <c r="AM33" s="33"/>
       <c r="AN33" s="33"/>
-      <c r="AO33" s="136">
+      <c r="AO33" s="130">
         <v>1</v>
       </c>
-      <c r="AP33" s="136"/>
-      <c r="AQ33" s="136"/>
+      <c r="AP33" s="130"/>
+      <c r="AQ33" s="130"/>
       <c r="AR33" s="3"/>
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
@@ -9476,29 +9707,17 @@
       <c r="BU33" s="33"/>
       <c r="BV33" s="3"/>
       <c r="BW33" s="3"/>
-      <c r="BX33" s="3"/>
-      <c r="BY33" s="3"/>
-      <c r="BZ33" s="3"/>
+      <c r="BX33" s="78"/>
+      <c r="BY33" s="78"/>
+      <c r="BZ33" s="78"/>
       <c r="CA33" s="3"/>
       <c r="CB33" s="3"/>
       <c r="CC33" s="1"/>
       <c r="CD33" s="1"/>
     </row>
-    <row r="34" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:109">
       <c r="G34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="37"/>
@@ -9512,9 +9731,9 @@
       <c r="AL34" s="37"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
-      <c r="AO34" s="136"/>
-      <c r="AP34" s="136"/>
-      <c r="AQ34" s="136"/>
+      <c r="AO34" s="130"/>
+      <c r="AP34" s="130"/>
+      <c r="AQ34" s="130"/>
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
@@ -9537,21 +9756,9 @@
       <c r="CC34" s="1"/>
       <c r="CD34" s="1"/>
     </row>
-    <row r="35" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:109">
       <c r="G35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="37"/>
@@ -9565,9 +9772,9 @@
       <c r="AL35" s="37"/>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
-      <c r="AO35" s="136"/>
-      <c r="AP35" s="136"/>
-      <c r="AQ35" s="136"/>
+      <c r="AO35" s="130"/>
+      <c r="AP35" s="130"/>
+      <c r="AQ35" s="130"/>
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
       <c r="AT35" s="3"/>
@@ -9578,10 +9785,10 @@
       <c r="AY35" s="3"/>
       <c r="AZ35" s="33"/>
       <c r="BA35" s="33"/>
-      <c r="BC35" s="134">
+      <c r="BC35" s="131">
         <v>3</v>
       </c>
-      <c r="BD35" s="134"/>
+      <c r="BD35" s="131"/>
       <c r="BP35" s="33"/>
       <c r="BQ35" s="33"/>
       <c r="BR35" s="33"/>
@@ -9598,13 +9805,10 @@
       <c r="CC35" s="1"/>
       <c r="CD35" s="1"/>
     </row>
-    <row r="36" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:109">
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="37"/>
@@ -9631,8 +9835,8 @@
       <c r="AY36" s="3"/>
       <c r="AZ36" s="33"/>
       <c r="BA36" s="33"/>
-      <c r="BC36" s="134"/>
-      <c r="BD36" s="134"/>
+      <c r="BC36" s="131"/>
+      <c r="BD36" s="131"/>
       <c r="BT36" s="33"/>
       <c r="BU36" s="33"/>
       <c r="BV36" s="3"/>
@@ -9645,7 +9849,7 @@
       <c r="CC36" s="1"/>
       <c r="CD36" s="1"/>
     </row>
-    <row r="37" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:109">
       <c r="G37" s="1"/>
       <c r="J37" s="1"/>
       <c r="M37" s="1"/>
@@ -9665,17 +9869,17 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37" s="136">
+      <c r="AD37" s="130">
         <v>1</v>
       </c>
-      <c r="AE37" s="136"/>
-      <c r="AF37" s="136"/>
-      <c r="AG37" s="136"/>
-      <c r="AH37" s="136"/>
-      <c r="AI37" s="136"/>
-      <c r="AJ37" s="136"/>
-      <c r="AK37" s="136"/>
-      <c r="AL37" s="136"/>
+      <c r="AE37" s="130"/>
+      <c r="AF37" s="130"/>
+      <c r="AG37" s="130"/>
+      <c r="AH37" s="130"/>
+      <c r="AI37" s="130"/>
+      <c r="AJ37" s="130"/>
+      <c r="AK37" s="130"/>
+      <c r="AL37" s="130"/>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
       <c r="AO37" s="3"/>
@@ -9710,7 +9914,7 @@
       <c r="CC37" s="1"/>
       <c r="CD37" s="1"/>
     </row>
-    <row r="38" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:109">
       <c r="G38" s="1"/>
       <c r="J38" s="1"/>
       <c r="M38" s="1"/>
@@ -9730,15 +9934,15 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="136"/>
-      <c r="AE38" s="136"/>
-      <c r="AF38" s="136"/>
-      <c r="AG38" s="136"/>
-      <c r="AH38" s="136"/>
-      <c r="AI38" s="136"/>
-      <c r="AJ38" s="136"/>
-      <c r="AK38" s="136"/>
-      <c r="AL38" s="136"/>
+      <c r="AD38" s="130"/>
+      <c r="AE38" s="130"/>
+      <c r="AF38" s="130"/>
+      <c r="AG38" s="130"/>
+      <c r="AH38" s="130"/>
+      <c r="AI38" s="130"/>
+      <c r="AJ38" s="130"/>
+      <c r="AK38" s="130"/>
+      <c r="AL38" s="130"/>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="3"/>
@@ -9773,7 +9977,7 @@
       <c r="CC38" s="1"/>
       <c r="CD38" s="1"/>
     </row>
-    <row r="39" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:109">
       <c r="G39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -9832,15 +10036,15 @@
       <c r="CC39" s="1"/>
       <c r="CD39" s="1"/>
     </row>
-    <row r="40" spans="7:109" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:109" ht="20.25">
       <c r="G40" s="1"/>
       <c r="J40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="134">
+      <c r="O40" s="131">
         <v>4</v>
       </c>
-      <c r="P40" s="134"/>
+      <c r="P40" s="131"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -9907,13 +10111,13 @@
       <c r="DA40" s="9"/>
       <c r="DB40" s="9"/>
     </row>
-    <row r="41" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:109">
       <c r="G41" s="1"/>
       <c r="J41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="134"/>
-      <c r="P41" s="134"/>
+      <c r="O41" s="131"/>
+      <c r="P41" s="131"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -9980,7 +10184,7 @@
       <c r="DA41" s="9"/>
       <c r="DB41" s="9"/>
     </row>
-    <row r="42" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:109">
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="J42" s="1"/>
@@ -10054,7 +10258,7 @@
       <c r="DA42" s="9"/>
       <c r="DB42" s="9"/>
     </row>
-    <row r="43" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:109">
       <c r="G43" s="1"/>
       <c r="J43" s="1"/>
       <c r="M43" s="1"/>
@@ -10121,7 +10325,7 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
     </row>
-    <row r="44" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:109">
       <c r="G44" s="1"/>
       <c r="J44" s="1"/>
       <c r="M44" s="1"/>
@@ -10182,7 +10386,7 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
     </row>
-    <row r="45" spans="7:109" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:109" ht="31.5">
       <c r="G45" s="1"/>
       <c r="J45" s="1"/>
       <c r="M45" s="1"/>
@@ -10213,29 +10417,29 @@
       <c r="AL45" s="3"/>
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
-      <c r="AO45" s="136">
+      <c r="AO45" s="130">
         <v>1</v>
       </c>
-      <c r="AP45" s="136"/>
-      <c r="AQ45" s="136"/>
-      <c r="AR45" s="136"/>
-      <c r="AS45" s="136"/>
-      <c r="AT45" s="136"/>
-      <c r="AU45" s="136"/>
-      <c r="AV45" s="136"/>
-      <c r="AW45" s="136"/>
-      <c r="AX45" s="136"/>
-      <c r="AY45" s="136"/>
+      <c r="AP45" s="130"/>
+      <c r="AQ45" s="130"/>
+      <c r="AR45" s="130"/>
+      <c r="AS45" s="130"/>
+      <c r="AT45" s="130"/>
+      <c r="AU45" s="130"/>
+      <c r="AV45" s="130"/>
+      <c r="AW45" s="130"/>
+      <c r="AX45" s="130"/>
+      <c r="AY45" s="130"/>
       <c r="AZ45" s="33"/>
       <c r="BA45" s="33"/>
       <c r="BG45" s="33"/>
       <c r="BH45" s="33"/>
-      <c r="BJ45" s="149" t="s">
+      <c r="BJ45" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="BK45" s="141"/>
-      <c r="BL45" s="141"/>
-      <c r="BM45" s="141"/>
+      <c r="BK45" s="125"/>
+      <c r="BL45" s="125"/>
+      <c r="BM45" s="125"/>
       <c r="BT45" s="33"/>
       <c r="BU45" s="33"/>
       <c r="BV45" s="3"/>
@@ -10251,7 +10455,7 @@
       <c r="CM45" s="1"/>
       <c r="CN45" s="1"/>
     </row>
-    <row r="46" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:109">
       <c r="G46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -10269,10 +10473,10 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
-      <c r="AA46" s="143" t="s">
+      <c r="AA46" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="AB46" s="147"/>
+      <c r="AB46" s="129"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
@@ -10300,10 +10504,10 @@
       <c r="BA46" s="33"/>
       <c r="BG46" s="33"/>
       <c r="BH46" s="33"/>
-      <c r="BJ46" s="141"/>
-      <c r="BK46" s="141"/>
-      <c r="BL46" s="141"/>
-      <c r="BM46" s="141"/>
+      <c r="BJ46" s="125"/>
+      <c r="BK46" s="125"/>
+      <c r="BL46" s="125"/>
+      <c r="BM46" s="125"/>
       <c r="BT46" s="33"/>
       <c r="BU46" s="33"/>
       <c r="BV46" s="3"/>
@@ -10319,7 +10523,7 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
     </row>
-    <row r="47" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:109">
       <c r="G47" s="1"/>
       <c r="J47" s="1"/>
       <c r="M47" s="1"/>
@@ -10336,8 +10540,8 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
-      <c r="AA47" s="147"/>
-      <c r="AB47" s="147"/>
+      <c r="AA47" s="129"/>
+      <c r="AB47" s="129"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
@@ -10365,10 +10569,10 @@
       <c r="BA47" s="33"/>
       <c r="BG47" s="33"/>
       <c r="BH47" s="33"/>
-      <c r="BJ47" s="141"/>
-      <c r="BK47" s="141"/>
-      <c r="BL47" s="141"/>
-      <c r="BM47" s="141"/>
+      <c r="BJ47" s="125"/>
+      <c r="BK47" s="125"/>
+      <c r="BL47" s="125"/>
+      <c r="BM47" s="125"/>
       <c r="BT47" s="33"/>
       <c r="BU47" s="33"/>
       <c r="BV47" s="3"/>
@@ -10384,7 +10588,7 @@
       <c r="CM47" s="1"/>
       <c r="CN47" s="1"/>
     </row>
-    <row r="48" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:109">
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="J48" s="1"/>
@@ -10430,15 +10634,15 @@
       <c r="BS48" s="33"/>
       <c r="BT48" s="33"/>
       <c r="BU48" s="33"/>
-      <c r="BV48" s="134">
+      <c r="BV48" s="131">
         <v>3</v>
       </c>
-      <c r="BW48" s="134"/>
-      <c r="BX48" s="134"/>
-      <c r="BY48" s="134"/>
-      <c r="BZ48" s="134"/>
-      <c r="CA48" s="134"/>
-      <c r="CB48" s="134"/>
+      <c r="BW48" s="131"/>
+      <c r="BX48" s="131"/>
+      <c r="BY48" s="131"/>
+      <c r="BZ48" s="131"/>
+      <c r="CA48" s="131"/>
+      <c r="CB48" s="131"/>
       <c r="CC48" s="1"/>
       <c r="CD48" s="1"/>
       <c r="CE48" s="1"/>
@@ -10469,17 +10673,17 @@
       <c r="DD48" s="1"/>
       <c r="DE48" s="1"/>
     </row>
-    <row r="49" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:109">
       <c r="G49" s="1"/>
       <c r="J49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="134">
+      <c r="O49" s="131">
         <v>4</v>
       </c>
-      <c r="P49" s="134"/>
-      <c r="Q49" s="134"/>
-      <c r="R49" s="134"/>
+      <c r="P49" s="131"/>
+      <c r="Q49" s="131"/>
+      <c r="R49" s="131"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -10512,13 +10716,13 @@
       <c r="BH49" s="33"/>
       <c r="BT49" s="33"/>
       <c r="BU49" s="33"/>
-      <c r="BV49" s="134"/>
-      <c r="BW49" s="134"/>
-      <c r="BX49" s="134"/>
-      <c r="BY49" s="134"/>
-      <c r="BZ49" s="134"/>
-      <c r="CA49" s="134"/>
-      <c r="CB49" s="134"/>
+      <c r="BV49" s="131"/>
+      <c r="BW49" s="131"/>
+      <c r="BX49" s="131"/>
+      <c r="BY49" s="131"/>
+      <c r="BZ49" s="131"/>
+      <c r="CA49" s="131"/>
+      <c r="CB49" s="131"/>
       <c r="CC49" s="1"/>
       <c r="CD49" s="1"/>
       <c r="CE49" s="1"/>
@@ -10549,16 +10753,16 @@
       <c r="DD49" s="1"/>
       <c r="DE49" s="1"/>
     </row>
-    <row r="50" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:109">
       <c r="G50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="134"/>
-      <c r="P50" s="134"/>
-      <c r="Q50" s="134"/>
-      <c r="R50" s="134"/>
+      <c r="O50" s="131"/>
+      <c r="P50" s="131"/>
+      <c r="Q50" s="131"/>
+      <c r="R50" s="131"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -10596,14 +10800,22 @@
       <c r="BH50" s="33"/>
       <c r="BT50" s="33"/>
       <c r="BU50" s="33"/>
-      <c r="CC50" s="134">
+      <c r="CC50" s="131">
         <v>2</v>
       </c>
-      <c r="CD50" s="134"/>
+      <c r="CD50" s="131"/>
+      <c r="CJ50" s="1"/>
+      <c r="CK50" s="1"/>
+      <c r="CR50" s="4"/>
+      <c r="CS50" s="4"/>
+      <c r="CU50" s="1"/>
+      <c r="CV50" s="1"/>
+      <c r="CZ50" s="1"/>
+      <c r="DA50" s="1"/>
       <c r="DD50" s="1"/>
       <c r="DE50" s="1"/>
     </row>
-    <row r="51" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:109">
       <c r="G51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -10658,12 +10870,20 @@
       <c r="BO51" s="33"/>
       <c r="BT51" s="33"/>
       <c r="BU51" s="33"/>
-      <c r="CC51" s="134"/>
-      <c r="CD51" s="134"/>
+      <c r="CC51" s="131"/>
+      <c r="CD51" s="131"/>
+      <c r="CJ51" s="1"/>
+      <c r="CK51" s="1"/>
+      <c r="CR51" s="4"/>
+      <c r="CS51" s="4"/>
+      <c r="CU51" s="1"/>
+      <c r="CV51" s="1"/>
+      <c r="CZ51" s="1"/>
+      <c r="DA51" s="1"/>
       <c r="DD51" s="1"/>
       <c r="DE51" s="1"/>
     </row>
-    <row r="52" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:109">
       <c r="G52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -10702,12 +10922,18 @@
       <c r="BH52" s="33"/>
       <c r="BT52" s="33"/>
       <c r="BU52" s="33"/>
-      <c r="CC52" s="134"/>
-      <c r="CD52" s="134"/>
+      <c r="CC52" s="131"/>
+      <c r="CD52" s="131"/>
+      <c r="CJ52" s="1"/>
+      <c r="CK52" s="1"/>
+      <c r="CU52" s="1"/>
+      <c r="CV52" s="1"/>
+      <c r="CZ52" s="1"/>
+      <c r="DA52" s="1"/>
       <c r="DD52" s="1"/>
       <c r="DE52" s="1"/>
     </row>
-    <row r="53" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:109">
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -10749,12 +10975,18 @@
       <c r="BH53" s="33"/>
       <c r="BT53" s="33"/>
       <c r="BU53" s="33"/>
-      <c r="CC53" s="134"/>
-      <c r="CD53" s="134"/>
+      <c r="CC53" s="131"/>
+      <c r="CD53" s="131"/>
+      <c r="CJ53" s="1"/>
+      <c r="CK53" s="1"/>
+      <c r="CP53" s="1"/>
+      <c r="CQ53" s="1"/>
+      <c r="CU53" s="1"/>
+      <c r="CV53" s="1"/>
       <c r="DD53" s="1"/>
       <c r="DE53" s="1"/>
     </row>
-    <row r="54" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:109">
       <c r="G54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -10798,12 +11030,20 @@
       <c r="BS54" s="33"/>
       <c r="BT54" s="33"/>
       <c r="BU54" s="33"/>
-      <c r="CC54" s="134"/>
-      <c r="CD54" s="134"/>
+      <c r="CC54" s="131"/>
+      <c r="CD54" s="131"/>
+      <c r="CJ54" s="1"/>
+      <c r="CK54" s="1"/>
+      <c r="CP54" s="1"/>
+      <c r="CQ54" s="1"/>
+      <c r="CU54" s="1"/>
+      <c r="CV54" s="1"/>
+      <c r="CZ54" s="1"/>
+      <c r="DA54" s="1"/>
       <c r="DD54" s="1"/>
       <c r="DE54" s="1"/>
     </row>
-    <row r="55" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:109">
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -10849,12 +11089,17 @@
       <c r="BH55" s="33"/>
       <c r="BT55" s="33"/>
       <c r="BU55" s="33"/>
-      <c r="CC55" s="134"/>
-      <c r="CD55" s="134"/>
+      <c r="CC55" s="131"/>
+      <c r="CD55" s="131"/>
+      <c r="CP55" s="1"/>
+      <c r="CQ55" s="1"/>
+      <c r="CV55" s="1"/>
+      <c r="CZ55" s="1"/>
+      <c r="DA55" s="1"/>
       <c r="DD55" s="1"/>
       <c r="DE55" s="1"/>
     </row>
-    <row r="56" spans="7:109" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:109" ht="31.5">
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -10888,31 +11133,36 @@
       <c r="AR56" s="33"/>
       <c r="AT56" s="33"/>
       <c r="AU56" s="33"/>
-      <c r="AV56" s="136">
+      <c r="AV56" s="130">
         <v>3</v>
       </c>
-      <c r="AW56" s="136"/>
-      <c r="AX56" s="136"/>
-      <c r="AY56" s="136"/>
+      <c r="AW56" s="130"/>
+      <c r="AX56" s="130"/>
+      <c r="AY56" s="130"/>
       <c r="AZ56" s="33"/>
       <c r="BA56" s="33"/>
       <c r="BG56" s="33"/>
       <c r="BH56" s="33"/>
       <c r="BT56" s="33"/>
       <c r="BU56" s="33"/>
-      <c r="BW56" s="134">
+      <c r="BW56" s="131">
         <v>2</v>
       </c>
-      <c r="BX56" s="134"/>
-      <c r="BY56" s="134"/>
-      <c r="BZ56" s="134"/>
-      <c r="CA56" s="134"/>
-      <c r="CC56" s="134"/>
-      <c r="CD56" s="134"/>
+      <c r="BX56" s="131"/>
+      <c r="BY56" s="131"/>
+      <c r="BZ56" s="131"/>
+      <c r="CA56" s="131"/>
+      <c r="CC56" s="131"/>
+      <c r="CD56" s="131"/>
+      <c r="CP56" s="1"/>
+      <c r="CQ56" s="1"/>
+      <c r="CV56" s="1"/>
+      <c r="CZ56" s="1"/>
+      <c r="DA56" s="1"/>
       <c r="DD56" s="1"/>
       <c r="DE56" s="1"/>
     </row>
-    <row r="57" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:109">
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -10957,20 +11207,35 @@
       <c r="BT57" s="33"/>
       <c r="BU57" s="33"/>
       <c r="BV57" s="1"/>
-      <c r="BW57" s="134"/>
-      <c r="BX57" s="134"/>
-      <c r="BY57" s="134"/>
-      <c r="BZ57" s="134"/>
-      <c r="CA57" s="134"/>
+      <c r="BW57" s="131"/>
+      <c r="BX57" s="131"/>
+      <c r="BY57" s="131"/>
+      <c r="BZ57" s="131"/>
+      <c r="CA57" s="131"/>
       <c r="CB57" s="1"/>
       <c r="CC57" s="1"/>
       <c r="CD57" s="1"/>
       <c r="CE57" s="1"/>
       <c r="CF57" s="1"/>
+      <c r="CG57" s="1"/>
+      <c r="CH57" s="1"/>
+      <c r="CI57" s="1"/>
+      <c r="CJ57" s="1"/>
+      <c r="CK57" s="1"/>
+      <c r="CL57" s="1"/>
+      <c r="CM57" s="1"/>
+      <c r="CN57" s="1"/>
+      <c r="CO57" s="1"/>
+      <c r="CP57" s="1"/>
+      <c r="CQ57" s="1"/>
+      <c r="CU57" s="1"/>
+      <c r="CV57" s="1"/>
+      <c r="CZ57" s="1"/>
+      <c r="DA57" s="1"/>
       <c r="DD57" s="1"/>
       <c r="DE57" s="1"/>
     </row>
-    <row r="58" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:109">
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
@@ -11000,23 +11265,25 @@
       <c r="CD58" s="1"/>
       <c r="CE58" s="1"/>
       <c r="CF58" s="1"/>
+      <c r="CG58" s="1"/>
+      <c r="CH58" s="1"/>
+      <c r="CI58" s="1"/>
+      <c r="CJ58" s="1"/>
+      <c r="CK58" s="1"/>
+      <c r="CL58" s="1"/>
+      <c r="CM58" s="1"/>
+      <c r="CN58" s="1"/>
+      <c r="CO58" s="1"/>
+      <c r="CP58" s="1"/>
       <c r="CQ58" s="1"/>
-      <c r="CR58" s="1"/>
-      <c r="CS58" s="1"/>
-      <c r="CT58" s="1"/>
       <c r="CU58" s="1"/>
       <c r="CV58" s="1"/>
-      <c r="CW58" s="1"/>
-      <c r="CX58" s="1"/>
-      <c r="CY58" s="1"/>
       <c r="CZ58" s="1"/>
       <c r="DA58" s="1"/>
-      <c r="DB58" s="1"/>
-      <c r="DC58" s="1"/>
       <c r="DD58" s="1"/>
       <c r="DE58" s="1"/>
     </row>
-    <row r="59" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:109">
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
@@ -11031,25 +11298,12 @@
       <c r="BU59" s="33"/>
       <c r="BW59" s="1"/>
       <c r="BX59" s="1"/>
-      <c r="CB59" s="1"/>
-      <c r="CC59" s="1"/>
-      <c r="CQ59" s="1"/>
-      <c r="CR59" s="1"/>
-      <c r="CS59" s="1"/>
-      <c r="CT59" s="1"/>
-      <c r="CU59" s="1"/>
-      <c r="CV59" s="1"/>
-      <c r="CW59" s="1"/>
-      <c r="CX59" s="1"/>
-      <c r="CY59" s="1"/>
       <c r="CZ59" s="1"/>
       <c r="DA59" s="1"/>
-      <c r="DB59" s="1"/>
-      <c r="DC59" s="1"/>
       <c r="DD59" s="1"/>
       <c r="DE59" s="1"/>
     </row>
-    <row r="60" spans="7:109" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:109" ht="18" customHeight="1">
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -11089,16 +11343,12 @@
       <c r="BU60" s="33"/>
       <c r="BW60" s="1"/>
       <c r="BX60" s="1"/>
-      <c r="CB60" s="1"/>
-      <c r="CC60" s="1"/>
-      <c r="CM60" s="149" t="s">
-        <v>43</v>
-      </c>
-      <c r="CN60" s="149"/>
+      <c r="CZ60" s="1"/>
+      <c r="DA60" s="1"/>
       <c r="DD60" s="1"/>
       <c r="DE60" s="1"/>
     </row>
-    <row r="61" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:109" ht="16.5" customHeight="1">
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -11136,14 +11386,37 @@
       <c r="BU61" s="33"/>
       <c r="BW61" s="1"/>
       <c r="BX61" s="1"/>
-      <c r="CB61" s="1"/>
       <c r="CC61" s="1"/>
-      <c r="CM61" s="149"/>
-      <c r="CN61" s="149"/>
+      <c r="CD61" s="1"/>
+      <c r="CE61" s="1"/>
+      <c r="CF61" s="1"/>
+      <c r="CG61" s="1"/>
+      <c r="CH61" s="1"/>
+      <c r="CI61" s="1"/>
+      <c r="CJ61" s="1"/>
+      <c r="CK61" s="1"/>
+      <c r="CL61" s="1"/>
+      <c r="CM61" s="1"/>
+      <c r="CN61" s="1"/>
+      <c r="CO61" s="1"/>
+      <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
+      <c r="CR61" s="1"/>
+      <c r="CS61" s="1"/>
+      <c r="CT61" s="1"/>
+      <c r="CU61" s="1"/>
+      <c r="CV61" s="1"/>
+      <c r="CW61" s="1"/>
+      <c r="CX61" s="1"/>
+      <c r="CY61" s="1"/>
+      <c r="CZ61" s="1"/>
+      <c r="DA61" s="1"/>
+      <c r="DB61" s="1"/>
+      <c r="DC61" s="1"/>
       <c r="DD61" s="1"/>
       <c r="DE61" s="1"/>
     </row>
-    <row r="62" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:109">
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="AD62" s="1"/>
@@ -11160,12 +11433,37 @@
       <c r="BU62" s="33"/>
       <c r="BW62" s="1"/>
       <c r="BX62" s="1"/>
-      <c r="CB62" s="1"/>
       <c r="CC62" s="1"/>
+      <c r="CD62" s="1"/>
+      <c r="CE62" s="1"/>
+      <c r="CF62" s="1"/>
+      <c r="CG62" s="1"/>
+      <c r="CH62" s="1"/>
+      <c r="CI62" s="1"/>
+      <c r="CJ62" s="1"/>
+      <c r="CK62" s="1"/>
+      <c r="CL62" s="1"/>
+      <c r="CM62" s="1"/>
+      <c r="CN62" s="1"/>
+      <c r="CO62" s="1"/>
+      <c r="CP62" s="1"/>
+      <c r="CQ62" s="1"/>
+      <c r="CR62" s="1"/>
+      <c r="CS62" s="1"/>
+      <c r="CT62" s="1"/>
+      <c r="CU62" s="1"/>
+      <c r="CV62" s="1"/>
+      <c r="CW62" s="1"/>
+      <c r="CX62" s="1"/>
+      <c r="CY62" s="1"/>
+      <c r="CZ62" s="1"/>
+      <c r="DA62" s="1"/>
+      <c r="DB62" s="1"/>
+      <c r="DC62" s="1"/>
       <c r="DD62" s="1"/>
       <c r="DE62" s="1"/>
     </row>
-    <row r="63" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:109">
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="AD63" s="1"/>
@@ -11182,12 +11480,10 @@
       <c r="BU63" s="33"/>
       <c r="BW63" s="1"/>
       <c r="BX63" s="1"/>
-      <c r="CB63" s="1"/>
-      <c r="CC63" s="1"/>
       <c r="DD63" s="1"/>
       <c r="DE63" s="1"/>
     </row>
-    <row r="64" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:109">
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="AD64" s="1"/>
@@ -11204,28 +11500,10 @@
       <c r="BU64" s="33"/>
       <c r="BW64" s="1"/>
       <c r="BX64" s="1"/>
-      <c r="CB64" s="1"/>
-      <c r="CC64" s="1"/>
-      <c r="CD64" s="1"/>
-      <c r="CE64" s="1"/>
-      <c r="CF64" s="1"/>
-      <c r="CG64" s="1"/>
-      <c r="CH64" s="1"/>
-      <c r="CI64" s="1"/>
-      <c r="CJ64" s="1"/>
-      <c r="CK64" s="1"/>
-      <c r="CL64" s="1"/>
-      <c r="CM64" s="1"/>
-      <c r="CN64" s="1"/>
-      <c r="CO64" s="1"/>
-      <c r="CP64" s="1"/>
-      <c r="CQ64" s="1"/>
-      <c r="CR64" s="1"/>
-      <c r="CS64" s="1"/>
       <c r="DD64" s="1"/>
       <c r="DE64" s="1"/>
     </row>
-    <row r="65" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:109">
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="AD65" s="1"/>
@@ -11245,6 +11523,9 @@
       <c r="BU65" s="33"/>
       <c r="BW65" s="1"/>
       <c r="BX65" s="1"/>
+      <c r="BY65" s="1"/>
+      <c r="BZ65" s="1"/>
+      <c r="CA65" s="1"/>
       <c r="CB65" s="1"/>
       <c r="CC65" s="1"/>
       <c r="CD65" s="1"/>
@@ -11263,10 +11544,17 @@
       <c r="CQ65" s="1"/>
       <c r="CR65" s="1"/>
       <c r="CS65" s="1"/>
+      <c r="CT65" s="1"/>
+      <c r="CU65" s="1"/>
+      <c r="CV65" s="1"/>
+      <c r="CW65" s="1"/>
+      <c r="CX65" s="1"/>
+      <c r="CY65" s="1"/>
+      <c r="CZ65" s="1"/>
       <c r="DD65" s="1"/>
       <c r="DE65" s="1"/>
     </row>
-    <row r="66" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:109">
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="AD66" s="1"/>
@@ -11286,10 +11574,38 @@
       <c r="BU66" s="33"/>
       <c r="BW66" s="1"/>
       <c r="BX66" s="1"/>
+      <c r="BY66" s="1"/>
+      <c r="BZ66" s="1"/>
+      <c r="CA66" s="1"/>
+      <c r="CB66" s="1"/>
+      <c r="CC66" s="1"/>
+      <c r="CD66" s="1"/>
+      <c r="CE66" s="1"/>
+      <c r="CF66" s="1"/>
+      <c r="CG66" s="1"/>
+      <c r="CH66" s="1"/>
+      <c r="CI66" s="1"/>
+      <c r="CJ66" s="1"/>
+      <c r="CK66" s="1"/>
+      <c r="CL66" s="1"/>
+      <c r="CM66" s="1"/>
+      <c r="CN66" s="1"/>
+      <c r="CO66" s="1"/>
+      <c r="CP66" s="1"/>
+      <c r="CQ66" s="1"/>
+      <c r="CR66" s="1"/>
+      <c r="CS66" s="1"/>
+      <c r="CT66" s="1"/>
+      <c r="CU66" s="1"/>
+      <c r="CV66" s="1"/>
+      <c r="CW66" s="1"/>
+      <c r="CX66" s="1"/>
+      <c r="CY66" s="1"/>
+      <c r="CZ66" s="1"/>
       <c r="DD66" s="1"/>
       <c r="DE66" s="1"/>
     </row>
-    <row r="67" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:109">
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="AD67" s="1"/>
@@ -11309,10 +11625,14 @@
       <c r="BU67" s="33"/>
       <c r="BW67" s="1"/>
       <c r="BX67" s="1"/>
+      <c r="CE67" s="1"/>
+      <c r="CF67" s="1"/>
+      <c r="DB67" s="4"/>
+      <c r="DC67" s="4"/>
       <c r="DD67" s="1"/>
       <c r="DE67" s="1"/>
     </row>
-    <row r="68" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:109">
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="AD68" s="1"/>
@@ -11333,13 +11653,17 @@
       <c r="BU68" s="33"/>
       <c r="BW68" s="1"/>
       <c r="BX68" s="1"/>
-      <c r="DA68" s="11"/>
-      <c r="DB68" s="11"/>
-      <c r="DC68" s="11"/>
+      <c r="BZ68" s="11"/>
+      <c r="CA68" s="11"/>
+      <c r="CB68" s="11"/>
+      <c r="CE68" s="1"/>
+      <c r="CF68" s="1"/>
+      <c r="DB68" s="4"/>
+      <c r="DC68" s="4"/>
       <c r="DD68" s="1"/>
       <c r="DE68" s="1"/>
     </row>
-    <row r="69" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:109">
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="AD69" s="1"/>
@@ -11360,22 +11684,29 @@
       <c r="BU69" s="33"/>
       <c r="BW69" s="1"/>
       <c r="BX69" s="1"/>
-      <c r="DA69" s="11"/>
-      <c r="DB69" s="11"/>
-      <c r="DC69" s="11"/>
+      <c r="BZ69" s="11"/>
+      <c r="CA69" s="11"/>
+      <c r="CB69" s="11"/>
+      <c r="CE69" s="1"/>
+      <c r="CF69" s="1"/>
+      <c r="CM69" s="1"/>
+      <c r="CN69" s="1"/>
+      <c r="CO69" s="1"/>
+      <c r="CP69" s="1"/>
+      <c r="CQ69" s="1"/>
       <c r="DD69" s="1"/>
       <c r="DE69" s="1"/>
     </row>
-    <row r="70" spans="7:109" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:109" ht="16.5" customHeight="1">
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="Q70" s="148" t="s">
+      <c r="Q70" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="R70" s="148"/>
-      <c r="S70" s="148"/>
-      <c r="T70" s="148"/>
-      <c r="U70" s="148"/>
+      <c r="R70" s="123"/>
+      <c r="S70" s="123"/>
+      <c r="T70" s="123"/>
+      <c r="U70" s="123"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AP70" s="33"/>
@@ -11394,20 +11725,21 @@
       <c r="BU70" s="33"/>
       <c r="BW70" s="1"/>
       <c r="BX70" s="1"/>
-      <c r="DA70" s="11"/>
-      <c r="DB70" s="11"/>
-      <c r="DC70" s="11"/>
+      <c r="BZ70" s="11"/>
+      <c r="CA70" s="11"/>
+      <c r="CB70" s="11"/>
+      <c r="CO70" s="1"/>
       <c r="DD70" s="1"/>
       <c r="DE70" s="1"/>
     </row>
-    <row r="71" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:109">
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="Q71" s="148"/>
-      <c r="R71" s="148"/>
-      <c r="S71" s="148"/>
-      <c r="T71" s="148"/>
-      <c r="U71" s="148"/>
+      <c r="Q71" s="123"/>
+      <c r="R71" s="123"/>
+      <c r="S71" s="123"/>
+      <c r="T71" s="123"/>
+      <c r="U71" s="123"/>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AZ71" s="33"/>
@@ -11416,20 +11748,21 @@
       <c r="BU71" s="33"/>
       <c r="BW71" s="1"/>
       <c r="BX71" s="1"/>
-      <c r="DA71" s="11"/>
-      <c r="DB71" s="11"/>
-      <c r="DC71" s="11"/>
+      <c r="BZ71" s="11"/>
+      <c r="CA71" s="11"/>
+      <c r="CB71" s="11"/>
+      <c r="CO71" s="1"/>
       <c r="DD71" s="1"/>
       <c r="DE71" s="1"/>
     </row>
-    <row r="72" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:109">
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="Q72" s="148"/>
-      <c r="R72" s="148"/>
-      <c r="S72" s="148"/>
-      <c r="T72" s="148"/>
-      <c r="U72" s="148"/>
+      <c r="Q72" s="123"/>
+      <c r="R72" s="123"/>
+      <c r="S72" s="123"/>
+      <c r="T72" s="123"/>
+      <c r="U72" s="123"/>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AZ72" s="33"/>
@@ -11472,14 +11805,14 @@
       <c r="DD72" s="1"/>
       <c r="DE72" s="1"/>
     </row>
-    <row r="73" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:109">
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="Q73" s="148"/>
-      <c r="R73" s="148"/>
-      <c r="S73" s="148"/>
-      <c r="T73" s="148"/>
-      <c r="U73" s="148"/>
+      <c r="Q73" s="123"/>
+      <c r="R73" s="123"/>
+      <c r="S73" s="123"/>
+      <c r="T73" s="123"/>
+      <c r="U73" s="123"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AZ73" s="33"/>
@@ -11522,7 +11855,7 @@
       <c r="DD73" s="1"/>
       <c r="DE73" s="1"/>
     </row>
-    <row r="74" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:109">
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="AD74" s="1"/>
@@ -11532,7 +11865,7 @@
       <c r="BT74" s="33"/>
       <c r="BU74" s="33"/>
     </row>
-    <row r="75" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:109">
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="AD75" s="1"/>
@@ -11545,7 +11878,7 @@
       <c r="BT75" s="33"/>
       <c r="BU75" s="33"/>
     </row>
-    <row r="76" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:109">
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="AD76" s="1"/>
@@ -11558,20 +11891,20 @@
       <c r="BT76" s="33"/>
       <c r="BU76" s="33"/>
     </row>
-    <row r="77" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:109">
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AJ77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AZ77" s="33"/>
       <c r="BA77" s="33"/>
       <c r="BT77" s="33"/>
       <c r="BU77" s="33"/>
     </row>
-    <row r="78" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:109">
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="AD78" s="1"/>
@@ -11602,7 +11935,7 @@
       <c r="BT78" s="33"/>
       <c r="BU78" s="33"/>
     </row>
-    <row r="79" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:109">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="AD79" s="1"/>
@@ -11630,7 +11963,7 @@
       <c r="BT79" s="33"/>
       <c r="BU79" s="33"/>
     </row>
-    <row r="80" spans="7:109" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:109">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="AD80" s="1"/>
@@ -11658,13 +11991,13 @@
       <c r="BT80" s="33"/>
       <c r="BU80" s="33"/>
     </row>
-    <row r="81" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:31">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:31">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -11691,7 +12024,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:31">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -11718,25 +12051,33 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="89" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:31">
       <c r="W89" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:31">
       <c r="X90" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:31">
       <c r="X91" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="23">
+    <mergeCell ref="H27:I28"/>
+    <mergeCell ref="O49:R50"/>
+    <mergeCell ref="O40:P41"/>
+    <mergeCell ref="BL13:BM14"/>
+    <mergeCell ref="AG25:AI27"/>
+    <mergeCell ref="AO33:AQ35"/>
+    <mergeCell ref="AF13:AG14"/>
+    <mergeCell ref="AA30:AB31"/>
+    <mergeCell ref="AX13:AY14"/>
     <mergeCell ref="Q70:U73"/>
-    <mergeCell ref="CM60:CN61"/>
     <mergeCell ref="BJ45:BM47"/>
     <mergeCell ref="F3:CE5"/>
     <mergeCell ref="AS28:AT29"/>
@@ -11746,24 +12087,15 @@
     <mergeCell ref="BC35:BD36"/>
     <mergeCell ref="AD37:AL38"/>
     <mergeCell ref="AO45:AY45"/>
-    <mergeCell ref="Z30:AA31"/>
     <mergeCell ref="BV48:CB49"/>
     <mergeCell ref="CC50:CD56"/>
     <mergeCell ref="BW56:CA57"/>
-    <mergeCell ref="BW20:BY22"/>
-    <mergeCell ref="BX27:BZ29"/>
-    <mergeCell ref="H27:I28"/>
-    <mergeCell ref="O49:R50"/>
-    <mergeCell ref="O40:P41"/>
-    <mergeCell ref="AP13:AQ14"/>
-    <mergeCell ref="BF13:BG14"/>
-    <mergeCell ref="AG25:AI27"/>
-    <mergeCell ref="AO33:AQ35"/>
-    <mergeCell ref="AF13:AG14"/>
+    <mergeCell ref="BV29:BX31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11775,164 +12107,164 @@
       <selection activeCell="L47" sqref="L47:M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="110" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:74" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:74" x14ac:dyDescent="0.3">
-      <c r="K3" s="100" t="s">
+    <row r="2" spans="4:74" ht="17.25" thickBot="1"/>
+    <row r="3" spans="4:74">
+      <c r="K3" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="117"/>
-      <c r="AM3" s="117"/>
-      <c r="AN3" s="117"/>
-      <c r="AO3" s="117"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="117"/>
-      <c r="AR3" s="117"/>
-      <c r="AS3" s="117"/>
-      <c r="AT3" s="117"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="117"/>
-      <c r="AW3" s="117"/>
-      <c r="AX3" s="118"/>
-    </row>
-    <row r="4" spans="4:74" x14ac:dyDescent="0.3">
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-      <c r="W4" s="120"/>
-      <c r="X4" s="120"/>
-      <c r="Y4" s="120"/>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="120"/>
-      <c r="AC4" s="120"/>
-      <c r="AD4" s="120"/>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
-      <c r="AG4" s="120"/>
-      <c r="AH4" s="120"/>
-      <c r="AI4" s="120"/>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
-      <c r="AL4" s="120"/>
-      <c r="AM4" s="120"/>
-      <c r="AN4" s="120"/>
-      <c r="AO4" s="120"/>
-      <c r="AP4" s="120"/>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="120"/>
-      <c r="AS4" s="120"/>
-      <c r="AT4" s="120"/>
-      <c r="AU4" s="120"/>
-      <c r="AV4" s="120"/>
-      <c r="AW4" s="120"/>
-      <c r="AX4" s="121"/>
-    </row>
-    <row r="5" spans="4:74" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K5" s="122"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="123"/>
-      <c r="V5" s="123"/>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="123"/>
-      <c r="AE5" s="123"/>
-      <c r="AF5" s="123"/>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="123"/>
-      <c r="AJ5" s="123"/>
-      <c r="AK5" s="123"/>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="123"/>
-      <c r="AO5" s="123"/>
-      <c r="AP5" s="123"/>
-      <c r="AQ5" s="123"/>
-      <c r="AR5" s="123"/>
-      <c r="AS5" s="123"/>
-      <c r="AT5" s="123"/>
-      <c r="AU5" s="123"/>
-      <c r="AV5" s="123"/>
-      <c r="AW5" s="123"/>
-      <c r="AX5" s="124"/>
-    </row>
-    <row r="9" spans="4:74" x14ac:dyDescent="0.3">
-      <c r="S9" s="125" t="s">
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="140"/>
+      <c r="AJ3" s="140"/>
+      <c r="AK3" s="140"/>
+      <c r="AL3" s="140"/>
+      <c r="AM3" s="140"/>
+      <c r="AN3" s="140"/>
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="140"/>
+      <c r="AT3" s="140"/>
+      <c r="AU3" s="140"/>
+      <c r="AV3" s="140"/>
+      <c r="AW3" s="140"/>
+      <c r="AX3" s="141"/>
+    </row>
+    <row r="4" spans="4:74">
+      <c r="K4" s="142"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="143"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="143"/>
+      <c r="AG4" s="143"/>
+      <c r="AH4" s="143"/>
+      <c r="AI4" s="143"/>
+      <c r="AJ4" s="143"/>
+      <c r="AK4" s="143"/>
+      <c r="AL4" s="143"/>
+      <c r="AM4" s="143"/>
+      <c r="AN4" s="143"/>
+      <c r="AO4" s="143"/>
+      <c r="AP4" s="143"/>
+      <c r="AQ4" s="143"/>
+      <c r="AR4" s="143"/>
+      <c r="AS4" s="143"/>
+      <c r="AT4" s="143"/>
+      <c r="AU4" s="143"/>
+      <c r="AV4" s="143"/>
+      <c r="AW4" s="143"/>
+      <c r="AX4" s="144"/>
+    </row>
+    <row r="5" spans="4:74" ht="17.25" thickBot="1">
+      <c r="K5" s="145"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="146"/>
+      <c r="AI5" s="146"/>
+      <c r="AJ5" s="146"/>
+      <c r="AK5" s="146"/>
+      <c r="AL5" s="146"/>
+      <c r="AM5" s="146"/>
+      <c r="AN5" s="146"/>
+      <c r="AO5" s="146"/>
+      <c r="AP5" s="146"/>
+      <c r="AQ5" s="146"/>
+      <c r="AR5" s="146"/>
+      <c r="AS5" s="146"/>
+      <c r="AT5" s="146"/>
+      <c r="AU5" s="146"/>
+      <c r="AV5" s="146"/>
+      <c r="AW5" s="146"/>
+      <c r="AX5" s="147"/>
+    </row>
+    <row r="9" spans="4:74">
+      <c r="S9" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="125"/>
-      <c r="Z9" s="125" t="s">
+      <c r="T9" s="148"/>
+      <c r="Z9" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="125"/>
-      <c r="AI9" s="125" t="s">
+      <c r="AA9" s="148"/>
+      <c r="AI9" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="AJ9" s="125"/>
-    </row>
-    <row r="10" spans="4:74" x14ac:dyDescent="0.3">
+      <c r="AJ9" s="148"/>
+    </row>
+    <row r="10" spans="4:74">
       <c r="Q10" s="7"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="Z10" s="125"/>
-      <c r="AA10" s="125"/>
-      <c r="AI10" s="125"/>
-      <c r="AJ10" s="125"/>
-    </row>
-    <row r="11" spans="4:74" x14ac:dyDescent="0.3">
+      <c r="S10" s="148"/>
+      <c r="T10" s="148"/>
+      <c r="Z10" s="148"/>
+      <c r="AA10" s="148"/>
+      <c r="AI10" s="148"/>
+      <c r="AJ10" s="148"/>
+    </row>
+    <row r="11" spans="4:74">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -11975,7 +12307,7 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:74">
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -12013,7 +12345,7 @@
       <c r="AP12" s="37"/>
       <c r="AS12" s="1"/>
     </row>
-    <row r="13" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:74">
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -12078,7 +12410,7 @@
       <c r="BU13" s="9"/>
       <c r="BV13" s="9"/>
     </row>
-    <row r="14" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:74">
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -12144,7 +12476,7 @@
       <c r="BU14" s="9"/>
       <c r="BV14" s="9"/>
     </row>
-    <row r="15" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:74">
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -12179,10 +12511,10 @@
       <c r="AL15" s="33"/>
       <c r="AM15" s="34"/>
       <c r="AN15" s="34"/>
-      <c r="AO15" s="126">
+      <c r="AO15" s="149">
         <v>2</v>
       </c>
-      <c r="AP15" s="126"/>
+      <c r="AP15" s="149"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="1"/>
@@ -12209,7 +12541,7 @@
       <c r="BU15" s="9"/>
       <c r="BV15" s="9"/>
     </row>
-    <row r="16" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:74">
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -12244,8 +12576,8 @@
       <c r="AL16" s="33"/>
       <c r="AM16" s="34"/>
       <c r="AN16" s="34"/>
-      <c r="AO16" s="126"/>
-      <c r="AP16" s="126"/>
+      <c r="AO16" s="149"/>
+      <c r="AP16" s="149"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="1"/>
@@ -12276,7 +12608,7 @@
       <c r="BU16" s="9"/>
       <c r="BV16" s="9"/>
     </row>
-    <row r="17" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:104">
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -12339,7 +12671,7 @@
       <c r="BU17" s="9"/>
       <c r="BV17" s="9"/>
     </row>
-    <row r="18" spans="4:104" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:104" ht="17.25" thickBot="1">
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -12409,7 +12741,7 @@
       <c r="BU18" s="9"/>
       <c r="BV18" s="9"/>
     </row>
-    <row r="19" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:104">
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -12420,10 +12752,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="129" t="s">
+      <c r="N19" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="130"/>
+      <c r="O19" s="152"/>
       <c r="Q19" s="65"/>
       <c r="R19" s="65"/>
       <c r="S19" s="65"/>
@@ -12476,7 +12808,7 @@
       <c r="BU19" s="9"/>
       <c r="BV19" s="9"/>
     </row>
-    <row r="20" spans="4:104" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:104" ht="17.25" thickBot="1">
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -12487,8 +12819,8 @@
       <c r="K20" s="3"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="132"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="154"/>
       <c r="Q20" s="65"/>
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
@@ -12548,7 +12880,7 @@
       <c r="BV20" s="9"/>
       <c r="CZ20" s="1"/>
     </row>
-    <row r="21" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:104">
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -12612,12 +12944,12 @@
       <c r="BU21" s="9"/>
       <c r="BV21" s="9"/>
     </row>
-    <row r="22" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:104">
       <c r="D22" s="1"/>
-      <c r="E22" s="128">
+      <c r="E22" s="139">
         <v>4</v>
       </c>
-      <c r="F22" s="128"/>
+      <c r="F22" s="139"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -12679,7 +13011,7 @@
       <c r="BU22" s="9"/>
       <c r="BV22" s="9"/>
     </row>
-    <row r="23" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:104">
       <c r="D23" s="1"/>
       <c r="G23" s="1"/>
       <c r="P23" s="1"/>
@@ -12737,7 +13069,7 @@
       <c r="BU23" s="9"/>
       <c r="BV23" s="9"/>
     </row>
-    <row r="24" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:104">
       <c r="D24" s="1"/>
       <c r="G24" s="1"/>
       <c r="L24" s="1"/>
@@ -12801,7 +13133,7 @@
       <c r="BU24" s="9"/>
       <c r="BV24" s="9"/>
     </row>
-    <row r="25" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:104">
       <c r="D25" s="1"/>
       <c r="G25" s="1"/>
       <c r="L25" s="1"/>
@@ -12824,10 +13156,10 @@
       <c r="AC25" s="60"/>
       <c r="AD25" s="60"/>
       <c r="AE25" s="33"/>
-      <c r="AG25" s="126">
+      <c r="AG25" s="149">
         <v>3</v>
       </c>
-      <c r="AH25" s="126"/>
+      <c r="AH25" s="149"/>
       <c r="AI25" s="37"/>
       <c r="AL25" s="33"/>
       <c r="AM25" s="34"/>
@@ -12860,7 +13192,7 @@
       <c r="BU25" s="9"/>
       <c r="BV25" s="9"/>
     </row>
-    <row r="26" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:104">
       <c r="D26" s="1"/>
       <c r="G26" s="1"/>
       <c r="L26" s="1"/>
@@ -12881,8 +13213,8 @@
       <c r="AC26" s="66"/>
       <c r="AD26" s="66"/>
       <c r="AE26" s="33"/>
-      <c r="AG26" s="126"/>
-      <c r="AH26" s="126"/>
+      <c r="AG26" s="149"/>
+      <c r="AH26" s="149"/>
       <c r="AI26" s="37"/>
       <c r="AL26" s="33"/>
       <c r="AM26" s="34"/>
@@ -12915,7 +13247,7 @@
       <c r="BU26" s="9"/>
       <c r="BV26" s="9"/>
     </row>
-    <row r="27" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:104">
       <c r="D27" s="1"/>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
@@ -12926,14 +13258,14 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="126">
+      <c r="Q27" s="149">
         <v>1</v>
       </c>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="149"/>
+      <c r="T27" s="149"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="149"/>
       <c r="W27" s="33"/>
       <c r="X27" s="60"/>
       <c r="Y27" s="60"/>
@@ -12987,7 +13319,7 @@
       <c r="BU27" s="9"/>
       <c r="BV27" s="9"/>
     </row>
-    <row r="28" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:104">
       <c r="D28" s="1"/>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
@@ -13052,7 +13384,7 @@
       <c r="BU28" s="9"/>
       <c r="BV28" s="9"/>
     </row>
-    <row r="29" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:104">
       <c r="D29" s="1"/>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
@@ -13068,10 +13400,10 @@
       <c r="U29" s="63"/>
       <c r="V29" s="63"/>
       <c r="W29" s="33"/>
-      <c r="X29" s="127">
+      <c r="X29" s="150">
         <v>1</v>
       </c>
-      <c r="Y29" s="127"/>
+      <c r="Y29" s="150"/>
       <c r="Z29" s="60"/>
       <c r="AA29" s="60"/>
       <c r="AB29" s="60"/>
@@ -13120,7 +13452,7 @@
       <c r="BU29" s="9"/>
       <c r="BV29" s="9"/>
     </row>
-    <row r="30" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:104">
       <c r="D30" s="1"/>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
@@ -13138,8 +13470,8 @@
       <c r="U30" s="63"/>
       <c r="V30" s="63"/>
       <c r="W30" s="33"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
+      <c r="X30" s="150"/>
+      <c r="Y30" s="150"/>
       <c r="Z30" s="60"/>
       <c r="AA30" s="60"/>
       <c r="AB30" s="60"/>
@@ -13185,7 +13517,7 @@
       <c r="BU30" s="9"/>
       <c r="BV30" s="9"/>
     </row>
-    <row r="31" spans="4:104" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:104" ht="16.5" customHeight="1">
       <c r="D31" s="1"/>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
@@ -13260,7 +13592,7 @@
       <c r="CG31" s="40"/>
       <c r="CH31" s="40"/>
     </row>
-    <row r="32" spans="4:104" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:104">
       <c r="D32" s="1"/>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
@@ -13324,7 +13656,7 @@
       <c r="BU32" s="9"/>
       <c r="BV32" s="9"/>
     </row>
-    <row r="33" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:74">
       <c r="D33" s="1"/>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
@@ -13341,15 +13673,15 @@
       <c r="U33" s="63"/>
       <c r="V33" s="63"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="126">
+      <c r="X33" s="149">
         <v>1</v>
       </c>
-      <c r="Y33" s="126"/>
-      <c r="Z33" s="126"/>
-      <c r="AA33" s="126"/>
-      <c r="AB33" s="126"/>
-      <c r="AC33" s="126"/>
-      <c r="AD33" s="126"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="149"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="149"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="149"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="37"/>
       <c r="AG33" s="37"/>
@@ -13390,7 +13722,7 @@
       <c r="BU33" s="9"/>
       <c r="BV33" s="9"/>
     </row>
-    <row r="34" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:74">
       <c r="D34" s="1"/>
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
@@ -13458,7 +13790,7 @@
       <c r="BU34" s="9"/>
       <c r="BV34" s="9"/>
     </row>
-    <row r="35" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:74">
       <c r="D35" s="1"/>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
@@ -13526,7 +13858,7 @@
       <c r="BU35" s="9"/>
       <c r="BV35" s="9"/>
     </row>
-    <row r="36" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:74">
       <c r="D36" s="1"/>
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
@@ -13592,7 +13924,7 @@
       <c r="BU36" s="9"/>
       <c r="BV36" s="9"/>
     </row>
-    <row r="37" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:74">
       <c r="D37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -13659,7 +13991,7 @@
       <c r="BU37" s="9"/>
       <c r="BV37" s="9"/>
     </row>
-    <row r="38" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:74">
       <c r="D38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="63"/>
@@ -13690,12 +14022,12 @@
       <c r="AL38" s="33"/>
       <c r="AM38" s="33"/>
       <c r="AN38" s="33"/>
-      <c r="AO38" s="126">
+      <c r="AO38" s="149">
         <v>3</v>
       </c>
-      <c r="AP38" s="126"/>
-      <c r="AQ38" s="126"/>
-      <c r="AR38" s="126"/>
+      <c r="AP38" s="149"/>
+      <c r="AQ38" s="149"/>
+      <c r="AR38" s="149"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
@@ -13727,7 +14059,7 @@
       <c r="BU38" s="9"/>
       <c r="BV38" s="9"/>
     </row>
-    <row r="39" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:74">
       <c r="D39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="63"/>
@@ -13759,7 +14091,7 @@
       <c r="AP39" s="37"/>
       <c r="AQ39" s="37"/>
       <c r="AR39" s="9"/>
-      <c r="AS39" s="128">
+      <c r="AS39" s="139">
         <v>2</v>
       </c>
       <c r="AU39" s="9"/>
@@ -13791,7 +14123,7 @@
       <c r="BU39" s="9"/>
       <c r="BV39" s="9"/>
     </row>
-    <row r="40" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:74">
       <c r="D40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="63"/>
@@ -13823,7 +14155,7 @@
       <c r="AP40" s="37"/>
       <c r="AQ40" s="37"/>
       <c r="AR40" s="9"/>
-      <c r="AS40" s="128"/>
+      <c r="AS40" s="139"/>
       <c r="AU40" s="9"/>
       <c r="AV40" s="9"/>
       <c r="AW40" s="9"/>
@@ -13853,7 +14185,7 @@
       <c r="BU40" s="9"/>
       <c r="BV40" s="9"/>
     </row>
-    <row r="41" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:74">
       <c r="D41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="64"/>
@@ -13883,7 +14215,7 @@
       <c r="AP41" s="37"/>
       <c r="AQ41" s="37"/>
       <c r="AR41" s="9"/>
-      <c r="AS41" s="128"/>
+      <c r="AS41" s="139"/>
       <c r="AU41" s="9"/>
       <c r="AV41" s="9"/>
       <c r="AW41" s="9"/>
@@ -13913,7 +14245,7 @@
       <c r="BU41" s="9"/>
       <c r="BV41" s="9"/>
     </row>
-    <row r="42" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:74">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -13946,10 +14278,10 @@
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
-      <c r="AO42" s="128">
+      <c r="AO42" s="139">
         <v>2</v>
       </c>
-      <c r="AP42" s="128"/>
+      <c r="AP42" s="139"/>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
@@ -13965,7 +14297,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:74">
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
@@ -13977,10 +14309,10 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="71"/>
       <c r="AB43" s="33"/>
-      <c r="AC43" s="126">
+      <c r="AC43" s="149">
         <v>3</v>
       </c>
-      <c r="AD43" s="126"/>
+      <c r="AD43" s="149"/>
       <c r="AE43" s="33"/>
       <c r="AH43" s="33"/>
       <c r="AK43" s="9"/>
@@ -14022,7 +14354,7 @@
       <c r="BU43" s="9"/>
       <c r="BV43" s="9"/>
     </row>
-    <row r="44" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:74">
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
@@ -14077,7 +14409,7 @@
       <c r="BU44" s="9"/>
       <c r="BV44" s="9"/>
     </row>
-    <row r="45" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:74">
       <c r="Q45" s="9"/>
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
@@ -14132,7 +14464,7 @@
       <c r="BU45" s="9"/>
       <c r="BV45" s="9"/>
     </row>
-    <row r="46" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:74">
       <c r="Q46" s="9"/>
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
@@ -14187,7 +14519,7 @@
       <c r="BU46" s="9"/>
       <c r="BV46" s="9"/>
     </row>
-    <row r="47" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:74">
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
@@ -14244,7 +14576,7 @@
       <c r="BU47" s="9"/>
       <c r="BV47" s="9"/>
     </row>
-    <row r="48" spans="4:74" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:74">
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
       <c r="S48" s="37"/>
@@ -14304,7 +14636,7 @@
       <c r="BU48" s="9"/>
       <c r="BV48" s="9"/>
     </row>
-    <row r="49" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="49" spans="14:74">
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
@@ -14367,7 +14699,7 @@
       <c r="BU49" s="9"/>
       <c r="BV49" s="9"/>
     </row>
-    <row r="50" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="50" spans="14:74">
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
@@ -14430,7 +14762,7 @@
       <c r="BU50" s="9"/>
       <c r="BV50" s="9"/>
     </row>
-    <row r="51" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="51" spans="14:74">
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
       <c r="S51" s="37"/>
@@ -14490,7 +14822,7 @@
       <c r="BU51" s="9"/>
       <c r="BV51" s="9"/>
     </row>
-    <row r="52" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="52" spans="14:74">
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
       <c r="S52" s="37"/>
@@ -14550,7 +14882,7 @@
       <c r="BU52" s="9"/>
       <c r="BV52" s="9"/>
     </row>
-    <row r="53" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="53" spans="14:74">
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
       <c r="S53" s="37"/>
@@ -14610,7 +14942,7 @@
       <c r="BU53" s="9"/>
       <c r="BV53" s="9"/>
     </row>
-    <row r="54" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="54" spans="14:74">
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="37"/>
@@ -14670,7 +15002,7 @@
       <c r="BU54" s="9"/>
       <c r="BV54" s="9"/>
     </row>
-    <row r="55" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="55" spans="14:74">
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
       <c r="S55" s="37"/>
@@ -14730,7 +15062,7 @@
       <c r="BU55" s="9"/>
       <c r="BV55" s="9"/>
     </row>
-    <row r="56" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="56" spans="14:74">
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
       <c r="S56" s="37"/>
@@ -14790,7 +15122,7 @@
       <c r="BU56" s="9"/>
       <c r="BV56" s="9"/>
     </row>
-    <row r="57" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="57" spans="14:74">
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="37"/>
@@ -14845,7 +15177,7 @@
       <c r="BU57" s="9"/>
       <c r="BV57" s="9"/>
     </row>
-    <row r="58" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="58" spans="14:74">
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
       <c r="S58" s="37"/>
@@ -14905,7 +15237,7 @@
       <c r="BU58" s="9"/>
       <c r="BV58" s="9"/>
     </row>
-    <row r="59" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="59" spans="14:74">
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
       <c r="S59" s="37"/>
@@ -14965,7 +15297,7 @@
       <c r="BU59" s="9"/>
       <c r="BV59" s="9"/>
     </row>
-    <row r="60" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="60" spans="14:74">
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
       <c r="S60" s="37"/>
@@ -15016,7 +15348,7 @@
       <c r="BU60" s="9"/>
       <c r="BV60" s="9"/>
     </row>
-    <row r="61" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="61" spans="14:74">
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
@@ -15076,7 +15408,7 @@
       <c r="BU61" s="9"/>
       <c r="BV61" s="9"/>
     </row>
-    <row r="62" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="62" spans="14:74">
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
@@ -15136,7 +15468,7 @@
       <c r="BU62" s="9"/>
       <c r="BV62" s="9"/>
     </row>
-    <row r="63" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="63" spans="14:74">
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
@@ -15196,7 +15528,7 @@
       <c r="BU63" s="9"/>
       <c r="BV63" s="9"/>
     </row>
-    <row r="64" spans="14:74" x14ac:dyDescent="0.3">
+    <row r="64" spans="14:74">
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
@@ -15256,7 +15588,7 @@
       <c r="BU64" s="9"/>
       <c r="BV64" s="9"/>
     </row>
-    <row r="65" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="65" spans="17:74">
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
@@ -15316,7 +15648,7 @@
       <c r="BU65" s="9"/>
       <c r="BV65" s="9"/>
     </row>
-    <row r="66" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="66" spans="17:74">
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
@@ -15376,7 +15708,7 @@
       <c r="BU66" s="9"/>
       <c r="BV66" s="9"/>
     </row>
-    <row r="67" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="67" spans="17:74">
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
@@ -15436,7 +15768,7 @@
       <c r="BU67" s="9"/>
       <c r="BV67" s="9"/>
     </row>
-    <row r="68" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="68" spans="17:74">
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
@@ -15496,7 +15828,7 @@
       <c r="BU68" s="9"/>
       <c r="BV68" s="9"/>
     </row>
-    <row r="69" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="69" spans="17:74">
       <c r="Q69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
@@ -15551,7 +15883,7 @@
       <c r="BU69" s="9"/>
       <c r="BV69" s="9"/>
     </row>
-    <row r="70" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="70" spans="17:74">
       <c r="Q70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
@@ -15606,7 +15938,7 @@
       <c r="BU70" s="9"/>
       <c r="BV70" s="9"/>
     </row>
-    <row r="71" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="71" spans="17:74">
       <c r="Q71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
@@ -15661,7 +15993,7 @@
       <c r="BU71" s="9"/>
       <c r="BV71" s="9"/>
     </row>
-    <row r="72" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="72" spans="17:74">
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
@@ -15721,7 +16053,7 @@
       <c r="BU72" s="9"/>
       <c r="BV72" s="9"/>
     </row>
-    <row r="73" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="73" spans="17:74">
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
@@ -15781,7 +16113,7 @@
       <c r="BU73" s="9"/>
       <c r="BV73" s="9"/>
     </row>
-    <row r="74" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="74" spans="17:74">
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
@@ -15841,7 +16173,7 @@
       <c r="BU74" s="9"/>
       <c r="BV74" s="9"/>
     </row>
-    <row r="75" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="75" spans="17:74">
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
@@ -15901,7 +16233,7 @@
       <c r="BU75" s="9"/>
       <c r="BV75" s="9"/>
     </row>
-    <row r="76" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="76" spans="17:74">
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
@@ -15961,7 +16293,7 @@
       <c r="BU76" s="9"/>
       <c r="BV76" s="9"/>
     </row>
-    <row r="77" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="77" spans="17:74">
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
@@ -16021,7 +16353,7 @@
       <c r="BU77" s="9"/>
       <c r="BV77" s="9"/>
     </row>
-    <row r="78" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="78" spans="17:74">
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
@@ -16081,7 +16413,7 @@
       <c r="BU78" s="9"/>
       <c r="BV78" s="9"/>
     </row>
-    <row r="79" spans="17:74" x14ac:dyDescent="0.3">
+    <row r="79" spans="17:74">
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
@@ -16114,21 +16446,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AO42:AP42"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="AS39:AS41"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AG25:AH26"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="X33:AD33"/>
+    <mergeCell ref="X29:Y30"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="S9:T10"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="K3:AX5"/>
     <mergeCell ref="Z9:AA10"/>
     <mergeCell ref="AI9:AJ10"/>
     <mergeCell ref="AO15:AP16"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="X33:AD33"/>
-    <mergeCell ref="X29:Y30"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="AO42:AP42"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="AS39:AS41"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AG25:AH26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
